--- a/Emh/SVR/#1decentralization++.xlsx
+++ b/Emh/SVR/#1decentralization++.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WINTER\Project\HuaShui\Emh\SVR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87807E35-86E7-4E0E-85FD-BDFF465B68CA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{770E0812-D9C6-4830-A565-6936901707A3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5070" yWindow="6240" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4380" yWindow="2610" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -350,15 +350,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M365"/>
+  <dimension ref="A1:N365"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M1" sqref="M1:M1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A340" workbookViewId="0">
+      <selection activeCell="O355" sqref="O355"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1">
         <v>-0.11434308663224323</v>
       </c>
@@ -395,8 +395,11 @@
       <c r="M1">
         <v>0.60779944289693599</v>
       </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N1">
+        <v>0.30851531261349074</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>-0.27272518646012622</v>
       </c>
@@ -433,8 +436,11 @@
       <c r="M2">
         <v>0.62550881953867032</v>
       </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N2">
+        <v>0.37738453959314816</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>-0.41087779690189324</v>
       </c>
@@ -471,8 +477,11 @@
       <c r="M3">
         <v>0.55192629815745398</v>
       </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N3">
+        <v>0.58399222053212041</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>-7.1910499139414816E-2</v>
       </c>
@@ -509,8 +518,11 @@
       <c r="M4">
         <v>0.6762360446570973</v>
       </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N4">
+        <v>0.51512299355246294</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>1.5811818703385092E-2</v>
       </c>
@@ -547,8 +559,11 @@
       <c r="M5">
         <v>0.62375745526838966</v>
       </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N5">
+        <v>0.23964608563383336</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>0.10214572576018371</v>
       </c>
@@ -585,8 +600,11 @@
       <c r="M6">
         <v>0.65460375629867107</v>
       </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N6">
+        <v>3.3038404694861127E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>0.13597246127366611</v>
       </c>
@@ -623,8 +641,11 @@
       <c r="M7">
         <v>0.60222222222222221</v>
       </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N7">
+        <v>0.53578376164636032</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>0.14808950086058525</v>
       </c>
@@ -661,8 +682,11 @@
       <c r="M8">
         <v>0.61257695690413372</v>
       </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N8">
+        <v>0.55644452974025738</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>0.12082616179001723</v>
       </c>
@@ -699,8 +723,11 @@
       <c r="M9">
         <v>0.64189189189189189</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N9">
+        <v>0.23964608563383336</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9.002868617326458E-2</v>
       </c>
@@ -737,8 +764,11 @@
       <c r="M10">
         <v>0.60398332561371004</v>
       </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N10">
+        <v>0.14322916786231291</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>0.23240390131956404</v>
       </c>
@@ -775,8 +805,11 @@
       <c r="M11">
         <v>0.65137238836542399</v>
       </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N11">
+        <v>0.6046529886260178</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>0.16222604704532423</v>
       </c>
@@ -813,8 +846,11 @@
       <c r="M12">
         <v>0.65595134665508259</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N12">
+        <v>0.21898531753993616</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>2.1870338496844589E-2</v>
       </c>
@@ -851,8 +887,11 @@
       <c r="M13">
         <v>0.64229249011857703</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N13">
+        <v>0.53578376164636032</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>-3.1577739529546768E-2</v>
       </c>
@@ -889,8 +928,11 @@
       <c r="M14">
         <v>0.61143628995947774</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N14">
+        <v>0.90767758733651005</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>-4.3258749282845649E-2</v>
       </c>
@@ -927,8 +969,11 @@
       <c r="M15">
         <v>0.59261213720316619</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N15">
+        <v>0.6046529886260178</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>5.3677567412507163E-2</v>
       </c>
@@ -965,8 +1010,11 @@
       <c r="M16">
         <v>0.59702922855773843</v>
       </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N16">
+        <v>1.3622144854022493</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>8.3970166379804936E-2</v>
       </c>
@@ -1003,8 +1051,11 @@
       <c r="M17">
         <v>0.61527713088029812</v>
       </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N17">
+        <v>1.2726844903286945</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>0.13698221457257603</v>
       </c>
@@ -1041,8 +1092,11 @@
       <c r="M18">
         <v>0.6420959147424512</v>
       </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N18">
+        <v>1.1349460363693797</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>-9.8290304073436571E-2</v>
       </c>
@@ -1079,8 +1133,11 @@
       <c r="M19">
         <v>0.5828667413213886</v>
       </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N19">
+        <v>0.96965989161820176</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>-4.931726907630514E-2</v>
       </c>
@@ -1117,8 +1174,11 @@
       <c r="M20">
         <v>0.60860329261816248</v>
       </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N20">
+        <v>0.72173067449143524</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>-3.0131956397016591E-2</v>
       </c>
@@ -1155,8 +1215,11 @@
       <c r="M21">
         <v>0.648620510150963</v>
       </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N21">
+        <v>0.72173067449143524</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>-6.4968445209409059E-2</v>
       </c>
@@ -1193,8 +1256,11 @@
       <c r="M22">
         <v>0.56209503239740821</v>
       </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N22">
+        <v>0.65286144751177777</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>-6.1939185312679168E-2</v>
       </c>
@@ -1231,8 +1297,11 @@
       <c r="M23">
         <v>0.62002152852529602</v>
       </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N23">
+        <v>0.44625376657280558</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>-6.1939185312679168E-2</v>
       </c>
@@ -1269,8 +1338,11 @@
       <c r="M24">
         <v>0.64639397201291715</v>
       </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N24">
+        <v>-0.17356927624411109</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>-0.14986804360298325</v>
       </c>
@@ -1307,8 +1379,11 @@
       <c r="M25">
         <v>0.59373186302959957</v>
       </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N25">
+        <v>-0.51791541114239814</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>-9.7280550774526658E-2</v>
       </c>
@@ -1345,8 +1420,11 @@
       <c r="M26">
         <v>0.58836689038031298</v>
       </c>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N26">
+        <v>-0.38017695718308331</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>-0.13342512908777962</v>
       </c>
@@ -1383,8 +1461,11 @@
       <c r="M27">
         <v>0.60097719869706845</v>
       </c>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N27">
+        <v>-0.31130773020342589</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>-0.21087779690189329</v>
       </c>
@@ -1421,8 +1502,11 @@
       <c r="M28">
         <v>0.57645553422904672</v>
       </c>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N28">
+        <v>-0.31130773020342589</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>-0.39093516924842225</v>
       </c>
@@ -1459,8 +1543,11 @@
       <c r="M29">
         <v>0.59005275056518458</v>
       </c>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N29">
+        <v>-0.31130773020342589</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>-0.22551921973608716</v>
       </c>
@@ -1497,8 +1584,11 @@
       <c r="M30">
         <v>0.58800521512385917</v>
       </c>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N30">
+        <v>-0.44904618416274072</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>-0.25101549053356281</v>
       </c>
@@ -1535,8 +1625,11 @@
       <c r="M31">
         <v>0.57773386034255603</v>
       </c>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N31">
+        <v>-0.44904618416274072</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>-0.27651176133103844</v>
       </c>
@@ -1573,8 +1666,11 @@
       <c r="M32">
         <v>0.51011863224005582</v>
       </c>
-    </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N32">
+        <v>-0.31130773020342589</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>-0.24460126219162356</v>
       </c>
@@ -1611,8 +1707,11 @@
       <c r="M33">
         <v>0.58393207054212937</v>
       </c>
-    </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N33">
+        <v>-0.44904618416274072</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>-0.21927710843373485</v>
       </c>
@@ -1649,8 +1748,11 @@
       <c r="M34">
         <v>0.68467078189300412</v>
       </c>
-    </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N34">
+        <v>-0.38017695718308331</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>-0.2413654618473895</v>
       </c>
@@ -1687,8 +1789,11 @@
       <c r="M35">
         <v>0.62308099523557436</v>
       </c>
-    </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N35">
+        <v>-0.44904618416274072</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>-3.3666092943201373E-2</v>
       </c>
@@ -1725,8 +1830,11 @@
       <c r="M36">
         <v>0.66196447230929989</v>
       </c>
-    </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N36">
+        <v>-0.38017695718308331</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>8.2914515203671879E-2</v>
       </c>
@@ -1763,8 +1871,11 @@
       <c r="M37">
         <v>0.6439243027888446</v>
       </c>
-    </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N37">
+        <v>-0.17356927624411109</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>0.24309810671256463</v>
       </c>
@@ -1801,8 +1912,11 @@
       <c r="M38">
         <v>0.61674789543642006</v>
       </c>
-    </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N38">
+        <v>-0.31130773020342589</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>0.27394148020654058</v>
       </c>
@@ -1839,8 +1953,11 @@
       <c r="M39">
         <v>0.64980544747081703</v>
       </c>
-    </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N39">
+        <v>-0.31130773020342589</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>0.53831325301204835</v>
       </c>
@@ -1877,8 +1994,11 @@
       <c r="M40">
         <v>0.66191520467836251</v>
       </c>
-    </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N40">
+        <v>-0.31130773020342589</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>0.410120481927711</v>
       </c>
@@ -1915,8 +2035,11 @@
       <c r="M41">
         <v>0.64074960127591707</v>
       </c>
-    </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N41">
+        <v>-0.2424385032237685</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>0.39493975903614476</v>
       </c>
@@ -1953,8 +2076,11 @@
       <c r="M42">
         <v>0.62152357920193468</v>
       </c>
-    </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N42">
+        <v>-0.31130773020342589</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>0.33646586345381529</v>
       </c>
@@ -1991,8 +2117,11 @@
       <c r="M43">
         <v>0.6478754732856542</v>
       </c>
-    </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N43">
+        <v>-0.2424385032237685</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>0.11550200803212857</v>
       </c>
@@ -2029,8 +2158,11 @@
       <c r="M44">
         <v>0.65120967741935487</v>
       </c>
-    </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N44">
+        <v>-0.44904618416274072</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>8.6265060240963851E-2</v>
       </c>
@@ -2067,8 +2199,11 @@
       <c r="M45">
         <v>0.62525879917184268</v>
       </c>
-    </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N45">
+        <v>-0.51791541114239814</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>0.12787148594377515</v>
       </c>
@@ -2105,8 +2240,11 @@
       <c r="M46">
         <v>0.62163509471585243</v>
       </c>
-    </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N46">
+        <v>-0.51791541114239814</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>0.26047045324153767</v>
       </c>
@@ -2143,8 +2281,11 @@
       <c r="M47">
         <v>0.57760582612653621</v>
       </c>
-    </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N47">
+        <v>-0.2424385032237685</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>0.16709122203098112</v>
       </c>
@@ -2181,8 +2322,11 @@
       <c r="M48">
         <v>0.64605946201038222</v>
       </c>
-    </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N48">
+        <v>-0.17356927624411109</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>8.1514629948364989E-2</v>
       </c>
@@ -2219,8 +2363,11 @@
       <c r="M49">
         <v>0.65397755002440217</v>
       </c>
-    </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N49">
+        <v>-0.17356927624411109</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>0.28456683878370626</v>
       </c>
@@ -2257,8 +2404,11 @@
       <c r="M50">
         <v>0.64403751674854848</v>
       </c>
-    </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N50">
+        <v>-0.5867846381220555</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>0.24784853700516365</v>
       </c>
@@ -2295,8 +2445,11 @@
       <c r="M51">
         <v>0.70022988505747141</v>
       </c>
-    </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N51">
+        <v>-0.31130773020342589</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>0.25044176706827315</v>
       </c>
@@ -2333,8 +2486,11 @@
       <c r="M52">
         <v>0.65467625899280579</v>
       </c>
-    </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N52">
+        <v>-0.44904618416274072</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>0.22547332185886418</v>
       </c>
@@ -2371,8 +2527,11 @@
       <c r="M53">
         <v>0.65074906367041196</v>
       </c>
-    </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N53">
+        <v>-0.2424385032237685</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>0.22604704532415382</v>
       </c>
@@ -2409,8 +2568,11 @@
       <c r="M54">
         <v>0.6214319138979878</v>
       </c>
-    </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N54">
+        <v>-0.31130773020342589</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>0.38439472174411926</v>
       </c>
@@ -2447,8 +2609,11 @@
       <c r="M55">
         <v>0.65105677579776211</v>
       </c>
-    </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N55">
+        <v>-0.17356927624411109</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>0.41250717154331618</v>
       </c>
@@ -2485,8 +2650,11 @@
       <c r="M56">
         <v>0.66450040617384243</v>
       </c>
-    </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N56">
+        <v>-0.2424385032237685</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>0.3966265060240966</v>
       </c>
@@ -2523,8 +2691,11 @@
       <c r="M57">
         <v>0.68317230273752017</v>
       </c>
-    </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N57">
+        <v>-0.38017695718308331</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>0.51751004016064273</v>
       </c>
@@ -2561,8 +2732,11 @@
       <c r="M58">
         <v>0.67654686921081886</v>
       </c>
-    </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N58">
+        <v>-0.31130773020342589</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>0.45043029259896727</v>
       </c>
@@ -2599,8 +2773,11 @@
       <c r="M59">
         <v>0.6852972588109647</v>
       </c>
-    </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N59">
+        <v>-0.2424385032237685</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>0.37748709122203106</v>
       </c>
@@ -2637,8 +2814,11 @@
       <c r="M60">
         <v>0.66333466613354664</v>
       </c>
-    </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N60">
+        <v>-0.38017695718308331</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>0.37917383820998291</v>
       </c>
@@ -2675,8 +2855,11 @@
       <c r="M61">
         <v>0.68775739423436899</v>
       </c>
-    </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N61">
+        <v>-0.1047000492644537</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>0.20154905335628237</v>
       </c>
@@ -2713,8 +2896,11 @@
       <c r="M62">
         <v>0.65577997421572842</v>
       </c>
-    </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N62">
+        <v>-0.2424385032237685</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>0.214974182444062</v>
       </c>
@@ -2751,8 +2937,11 @@
       <c r="M63">
         <v>0.65150871228219298</v>
       </c>
-    </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N63">
+        <v>-0.38017695718308331</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>0.23247274813539881</v>
       </c>
@@ -2789,8 +2978,11 @@
       <c r="M64">
         <v>0.67194860813704493</v>
       </c>
-    </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N64">
+        <v>-0.38017695718308331</v>
+      </c>
+    </row>
+    <row r="65" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>0.40379804934021801</v>
       </c>
@@ -2827,8 +3019,11 @@
       <c r="M65">
         <v>0.67614291202458698</v>
       </c>
-    </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N65">
+        <v>-0.31130773020342589</v>
+      </c>
+    </row>
+    <row r="66" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>0.34223752151463011</v>
       </c>
@@ -2865,8 +3060,11 @@
       <c r="M66">
         <v>0.68116536725482146</v>
       </c>
-    </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N66">
+        <v>-0.38017695718308331</v>
+      </c>
+    </row>
+    <row r="67" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>0.34489959839357437</v>
       </c>
@@ -2903,8 +3101,11 @@
       <c r="M67">
         <v>0.67516722408026753</v>
       </c>
-    </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N67">
+        <v>-0.38017695718308331</v>
+      </c>
+    </row>
+    <row r="68" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>0.22508318990246703</v>
       </c>
@@ -2941,8 +3142,11 @@
       <c r="M68">
         <v>0.68806548901335629</v>
       </c>
-    </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N68">
+        <v>-0.2424385032237685</v>
+      </c>
+    </row>
+    <row r="69" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>0.39786574870912217</v>
       </c>
@@ -2979,8 +3183,11 @@
       <c r="M69">
         <v>0.67769897557131598</v>
       </c>
-    </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N69">
+        <v>-0.2424385032237685</v>
+      </c>
+    </row>
+    <row r="70" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>0.29686746987951823</v>
       </c>
@@ -3017,8 +3224,11 @@
       <c r="M70">
         <v>0.68701668701668706</v>
       </c>
-    </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N70">
+        <v>-0.2424385032237685</v>
+      </c>
+    </row>
+    <row r="71" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>0.31804934021801512</v>
       </c>
@@ -3055,8 +3265,11 @@
       <c r="M71">
         <v>0.64238952536824878</v>
       </c>
-    </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N71">
+        <v>-0.17356927624411109</v>
+      </c>
+    </row>
+    <row r="72" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>0.42080321285140571</v>
       </c>
@@ -3093,8 +3306,11 @@
       <c r="M72">
         <v>0.62880886426592797</v>
       </c>
-    </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N72">
+        <v>-0.2424385032237685</v>
+      </c>
+    </row>
+    <row r="73" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>0.41180722891566285</v>
       </c>
@@ -3131,8 +3347,11 @@
       <c r="M73">
         <v>0.66786140979689368</v>
       </c>
-    </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N73">
+        <v>-0.1047000492644537</v>
+      </c>
+    </row>
+    <row r="74" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>0.4391738382099829</v>
       </c>
@@ -3169,8 +3388,11 @@
       <c r="M74">
         <v>0.66475315729047069</v>
       </c>
-    </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N74">
+        <v>-0.1047000492644537</v>
+      </c>
+    </row>
+    <row r="75" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>0.31927710843373508</v>
       </c>
@@ -3207,8 +3429,11 @@
       <c r="M75">
         <v>0.68062622309197651</v>
       </c>
-    </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N75">
+        <v>-3.5830822284796282E-2</v>
+      </c>
+    </row>
+    <row r="76" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>0.30953528399311536</v>
       </c>
@@ -3245,8 +3470,11 @@
       <c r="M76">
         <v>0.6823861346231358</v>
       </c>
-    </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N76">
+        <v>-3.5830822284796282E-2</v>
+      </c>
+    </row>
+    <row r="77" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>0.29317269076305241</v>
       </c>
@@ -3283,8 +3511,11 @@
       <c r="M77">
         <v>0.67265306122448976</v>
       </c>
-    </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N77">
+        <v>3.3038404694861127E-2</v>
+      </c>
+    </row>
+    <row r="78" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>0.335926563396443</v>
       </c>
@@ -3321,8 +3552,11 @@
       <c r="M78">
         <v>0.67127617542473328</v>
       </c>
-    </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N78">
+        <v>-3.5830822284796282E-2</v>
+      </c>
+    </row>
+    <row r="79" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>0.32547332185886413</v>
       </c>
@@ -3359,8 +3593,11 @@
       <c r="M79">
         <v>0.68991040124659131</v>
       </c>
-    </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N79">
+        <v>3.3038404694861127E-2</v>
+      </c>
+    </row>
+    <row r="80" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>0.23986230636833059</v>
       </c>
@@ -3397,8 +3634,11 @@
       <c r="M80">
         <v>0.66113239676458069</v>
       </c>
-    </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N80">
+        <v>-3.5830822284796282E-2</v>
+      </c>
+    </row>
+    <row r="81" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>0.28468158347676431</v>
       </c>
@@ -3435,8 +3675,11 @@
       <c r="M81">
         <v>0.68448553054662364</v>
       </c>
-    </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N81">
+        <v>-0.17356927624411109</v>
+      </c>
+    </row>
+    <row r="82" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>0.38134251290877819</v>
       </c>
@@ -3473,8 +3716,11 @@
       <c r="M82">
         <v>0.6849415204678363</v>
       </c>
-    </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N82">
+        <v>0.17077685865417594</v>
+      </c>
+    </row>
+    <row r="83" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>0.44293746414228347</v>
       </c>
@@ -3511,8 +3757,11 @@
       <c r="M83">
         <v>0.66655003498950327</v>
       </c>
-    </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N83">
+        <v>-3.5830822284796282E-2</v>
+      </c>
+    </row>
+    <row r="84" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>0.28794033275960984</v>
       </c>
@@ -3549,8 +3798,11 @@
       <c r="M84">
         <v>0.66954135633085055</v>
       </c>
-    </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N84">
+        <v>-0.1047000492644537</v>
+      </c>
+    </row>
+    <row r="85" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>0.34561101549053358</v>
       </c>
@@ -3587,8 +3839,11 @@
       <c r="M85">
         <v>0.64965464313123567</v>
       </c>
-    </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N85">
+        <v>0.10190763167451854</v>
+      </c>
+    </row>
+    <row r="86" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>0.26269650028686181</v>
       </c>
@@ -3625,8 +3880,11 @@
       <c r="M86">
         <v>0.68532586965213904</v>
       </c>
-    </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N86">
+        <v>-0.1047000492644537</v>
+      </c>
+    </row>
+    <row r="87" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>0.39776247848537</v>
       </c>
@@ -3663,8 +3921,11 @@
       <c r="M87">
         <v>0.65792390099741416</v>
       </c>
-    </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N87">
+        <v>-3.5830822284796282E-2</v>
+      </c>
+    </row>
+    <row r="88" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>0.37349397590361466</v>
       </c>
@@ -3701,8 +3962,11 @@
       <c r="M88">
         <v>0.67406015037593969</v>
       </c>
-    </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N88">
+        <v>0.10190763167451854</v>
+      </c>
+    </row>
+    <row r="89" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>0.33476764199655779</v>
       </c>
@@ -3739,8 +4003,11 @@
       <c r="M89">
         <v>0.63172147001934231</v>
       </c>
-    </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N89">
+        <v>3.3038404694861127E-2</v>
+      </c>
+    </row>
+    <row r="90" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>0.29399885255306935</v>
       </c>
@@ -3777,8 +4044,11 @@
       <c r="M90">
         <v>0.66679672259071399</v>
       </c>
-    </row>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N90">
+        <v>0.30851531261349074</v>
+      </c>
+    </row>
+    <row r="91" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>0.35335628227194493</v>
       </c>
@@ -3815,8 +4085,11 @@
       <c r="M91">
         <v>0.68599771079740568</v>
       </c>
-    </row>
-    <row r="92" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N91">
+        <v>3.3038404694861127E-2</v>
+      </c>
+    </row>
+    <row r="92" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>0.69994262765347115</v>
       </c>
@@ -3853,8 +4126,11 @@
       <c r="M92">
         <v>0.70401619979750252</v>
       </c>
-    </row>
-    <row r="93" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N92">
+        <v>0.17077685865417594</v>
+      </c>
+    </row>
+    <row r="93" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>-0.13453815261044169</v>
       </c>
@@ -3891,8 +4167,11 @@
       <c r="M93">
         <v>0.64733178654292345</v>
       </c>
-    </row>
-    <row r="94" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N93">
+        <v>3.3038404694861127E-2</v>
+      </c>
+    </row>
+    <row r="94" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A94">
         <v>-0.5067125645438898</v>
       </c>
@@ -3929,8 +4208,11 @@
       <c r="M94">
         <v>0.515003489183531</v>
       </c>
-    </row>
-    <row r="95" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N94">
+        <v>0.17077685865417594</v>
+      </c>
+    </row>
+    <row r="95" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A95">
         <v>-0.47401032702237517</v>
       </c>
@@ -3967,8 +4249,11 @@
       <c r="M95">
         <v>0.55890052356020947</v>
       </c>
-    </row>
-    <row r="96" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N95">
+        <v>0.10190763167451854</v>
+      </c>
+    </row>
+    <row r="96" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A96">
         <v>-0.26416523235800332</v>
       </c>
@@ -4005,8 +4290,11 @@
       <c r="M96">
         <v>0.5978043912175649</v>
       </c>
-    </row>
-    <row r="97" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N96">
+        <v>0.23964608563383336</v>
+      </c>
+    </row>
+    <row r="97" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A97">
         <v>-0.33482501434308654</v>
       </c>
@@ -4043,8 +4331,11 @@
       <c r="M97">
         <v>0.57914438502673793</v>
       </c>
-    </row>
-    <row r="98" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N97">
+        <v>0.37738453959314816</v>
+      </c>
+    </row>
+    <row r="98" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A98">
         <v>-0.15542168674698786</v>
       </c>
@@ -4081,8 +4372,11 @@
       <c r="M98">
         <v>0.62006657156443179</v>
       </c>
-    </row>
-    <row r="99" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N98">
+        <v>0.13634224516434723</v>
+      </c>
+    </row>
+    <row r="99" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A99">
         <v>-0.33321858864027531</v>
       </c>
@@ -4119,8 +4413,11 @@
       <c r="M99">
         <v>0.57821373257614872</v>
       </c>
-    </row>
-    <row r="100" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N99">
+        <v>0.10190763167451854</v>
+      </c>
+    </row>
+    <row r="100" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A100">
         <v>-0.36247848537005162</v>
       </c>
@@ -4157,8 +4454,11 @@
       <c r="M100">
         <v>0.61717062634989206</v>
       </c>
-    </row>
-    <row r="101" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N100">
+        <v>-0.2424385032237685</v>
+      </c>
+    </row>
+    <row r="101" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A101">
         <v>-0.34113597246127364</v>
       </c>
@@ -4195,8 +4495,11 @@
       <c r="M101">
         <v>0.59143155694879834</v>
       </c>
-    </row>
-    <row r="102" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N101">
+        <v>-0.44904618416274072</v>
+      </c>
+    </row>
+    <row r="102" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A102">
         <v>-0.27562822719449215</v>
       </c>
@@ -4233,8 +4536,11 @@
       <c r="M102">
         <v>0.61578672242550969</v>
       </c>
-    </row>
-    <row r="103" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N102">
+        <v>-0.38017695718308331</v>
+      </c>
+    </row>
+    <row r="103" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A103">
         <v>-0.4974182444061962</v>
       </c>
@@ -4271,8 +4577,11 @@
       <c r="M103">
         <v>0.52168949771689499</v>
       </c>
-    </row>
-    <row r="104" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N103">
+        <v>1.4104229442880092</v>
+      </c>
+    </row>
+    <row r="104" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A104">
         <v>-0.65806081468732081</v>
       </c>
@@ -4309,8 +4618,11 @@
       <c r="M104">
         <v>0.66577181208053693</v>
       </c>
-    </row>
-    <row r="105" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N104">
+        <v>-0.93113077302034264</v>
+      </c>
+    </row>
+    <row r="105" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A105">
         <v>-0.65679862306368331</v>
       </c>
@@ -4347,8 +4659,11 @@
       <c r="M105">
         <v>0.67368772985623537</v>
       </c>
-    </row>
-    <row r="106" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N105">
+        <v>0.10190763167451854</v>
+      </c>
+    </row>
+    <row r="106" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A106">
         <v>-0.4851979345955249</v>
       </c>
@@ -4385,8 +4700,11 @@
       <c r="M106">
         <v>0.69007021063189566</v>
       </c>
-    </row>
-    <row r="107" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N106">
+        <v>0.10190763167451854</v>
+      </c>
+    </row>
+    <row r="107" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A107">
         <v>-0.66517498565691335</v>
       </c>
@@ -4423,8 +4741,11 @@
       <c r="M107">
         <v>0.70836189170664843</v>
       </c>
-    </row>
-    <row r="108" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N107">
+        <v>0.10190763167451854</v>
+      </c>
+    </row>
+    <row r="108" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A108">
         <v>-0.43293172690763054</v>
       </c>
@@ -4461,8 +4782,11 @@
       <c r="M108">
         <v>0.70295426952650752</v>
       </c>
-    </row>
-    <row r="109" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N108">
+        <v>0.17077685865417594</v>
+      </c>
+    </row>
+    <row r="109" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A109">
         <v>-0.37831325301204816</v>
       </c>
@@ -4499,8 +4823,11 @@
       <c r="M109">
         <v>0.7412329272794389</v>
       </c>
-    </row>
-    <row r="110" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N109">
+        <v>3.3038404694861127E-2</v>
+      </c>
+    </row>
+    <row r="110" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A110">
         <v>-0.36405048766494547</v>
       </c>
@@ -4537,8 +4864,11 @@
       <c r="M110">
         <v>0.73465889612615698</v>
       </c>
-    </row>
-    <row r="111" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N110">
+        <v>0.10190763167451854</v>
+      </c>
+    </row>
+    <row r="111" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A111">
         <v>-0.35576592082616176</v>
       </c>
@@ -4575,8 +4905,11 @@
       <c r="M111">
         <v>0.71844331641285952</v>
       </c>
-    </row>
-    <row r="112" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N111">
+        <v>-0.1047000492644537</v>
+      </c>
+    </row>
+    <row r="112" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A112">
         <v>-0.12908777969018922</v>
       </c>
@@ -4613,8 +4946,11 @@
       <c r="M112">
         <v>0.71739130434782605</v>
       </c>
-    </row>
-    <row r="113" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N112">
+        <v>0.23964608563383336</v>
+      </c>
+    </row>
+    <row r="113" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A113">
         <v>6.6781411359724721E-2</v>
       </c>
@@ -4651,8 +4987,11 @@
       <c r="M113">
         <v>0.73152629880606634</v>
       </c>
-    </row>
-    <row r="114" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N113">
+        <v>0.23964608563383336</v>
+      </c>
+    </row>
+    <row r="114" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A114">
         <v>1.273666092943207E-2</v>
       </c>
@@ -4689,8 +5028,11 @@
       <c r="M114">
         <v>0.69272603670972133</v>
       </c>
-    </row>
-    <row r="115" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N114">
+        <v>-0.1047000492644537</v>
+      </c>
+    </row>
+    <row r="115" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A115">
         <v>-0.67596098680436012</v>
       </c>
@@ -4727,8 +5069,11 @@
       <c r="M115">
         <v>0.66926345609065152</v>
       </c>
-    </row>
-    <row r="116" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N115">
+        <v>0.10190763167451854</v>
+      </c>
+    </row>
+    <row r="116" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A116">
         <v>-0.6923694779116466</v>
       </c>
@@ -4765,8 +5110,11 @@
       <c r="M116">
         <v>0.70309585975382316</v>
       </c>
-    </row>
-    <row r="117" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N116">
+        <v>0.10190763167451854</v>
+      </c>
+    </row>
+    <row r="117" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A117">
         <v>-0.51954102122776824</v>
       </c>
@@ -4803,8 +5151,11 @@
       <c r="M117">
         <v>0.74474589224302634</v>
       </c>
-    </row>
-    <row r="118" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N117">
+        <v>-3.5830822284796282E-2</v>
+      </c>
+    </row>
+    <row r="118" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A118">
         <v>-0.15174985656913367</v>
       </c>
@@ -4841,8 +5192,11 @@
       <c r="M118">
         <v>0.69191748393642205</v>
       </c>
-    </row>
-    <row r="119" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N118">
+        <v>3.3038404694861127E-2</v>
+      </c>
+    </row>
+    <row r="119" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A119">
         <v>0.12771084337349398</v>
       </c>
@@ -4879,8 +5233,11 @@
       <c r="M119">
         <v>0.72720797720797714</v>
       </c>
-    </row>
-    <row r="120" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N119">
+        <v>-0.5867846381220555</v>
+      </c>
+    </row>
+    <row r="120" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A120">
         <v>0.10722891566265068</v>
       </c>
@@ -4917,8 +5274,11 @@
       <c r="M120">
         <v>0.69894813202756623</v>
       </c>
-    </row>
-    <row r="121" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N120">
+        <v>3.3038404694861127E-2</v>
+      </c>
+    </row>
+    <row r="121" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A121">
         <v>0.10562248995983947</v>
       </c>
@@ -4955,8 +5315,11 @@
       <c r="M121">
         <v>0.70650199782055934</v>
       </c>
-    </row>
-    <row r="122" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N121">
+        <v>-0.38017695718308331</v>
+      </c>
+    </row>
+    <row r="122" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A122">
         <v>-0.12984509466437172</v>
       </c>
@@ -4993,8 +5356,11 @@
       <c r="M122">
         <v>0.72410791993037416</v>
       </c>
-    </row>
-    <row r="123" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N122">
+        <v>-0.31130773020342589</v>
+      </c>
+    </row>
+    <row r="123" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A123">
         <v>-3.7751004016064169E-2</v>
       </c>
@@ -5031,8 +5397,11 @@
       <c r="M123">
         <v>0.69616026711185308</v>
       </c>
-    </row>
-    <row r="124" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N123">
+        <v>-0.31130773020342589</v>
+      </c>
+    </row>
+    <row r="124" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A124">
         <v>-1.2449799196787098E-2</v>
       </c>
@@ -5069,8 +5438,11 @@
       <c r="M124">
         <v>0.72671817812118744</v>
       </c>
-    </row>
-    <row r="125" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N124">
+        <v>-0.17356927624411109</v>
+      </c>
+    </row>
+    <row r="125" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A125">
         <v>-0.12690763052208837</v>
       </c>
@@ -5107,8 +5479,11 @@
       <c r="M125">
         <v>0.62603495860165592</v>
       </c>
-    </row>
-    <row r="126" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N125">
+        <v>-0.2424385032237685</v>
+      </c>
+    </row>
+    <row r="126" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A126">
         <v>-0.24125071715433158</v>
       </c>
@@ -5145,8 +5520,11 @@
       <c r="M126">
         <v>0.69754253308128544</v>
       </c>
-    </row>
-    <row r="127" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N126">
+        <v>-0.17356927624411109</v>
+      </c>
+    </row>
+    <row r="127" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A127">
         <v>0.13762478485370061</v>
       </c>
@@ -5183,8 +5561,11 @@
       <c r="M127">
         <v>0.6986201888162672</v>
       </c>
-    </row>
-    <row r="128" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N127">
+        <v>-0.1047000492644537</v>
+      </c>
+    </row>
+    <row r="128" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A128">
         <v>7.9552495697074038E-2</v>
       </c>
@@ -5221,8 +5602,11 @@
       <c r="M128">
         <v>0.66187302700806738</v>
       </c>
-    </row>
-    <row r="129" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N128">
+        <v>-0.5867846381220555</v>
+      </c>
+    </row>
+    <row r="129" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A129">
         <v>0.100562248995984</v>
       </c>
@@ -5259,8 +5643,11 @@
       <c r="M129">
         <v>0.69691598723856785</v>
       </c>
-    </row>
-    <row r="130" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N129">
+        <v>-0.2424385032237685</v>
+      </c>
+    </row>
+    <row r="130" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A130">
         <v>0.16649454962707982</v>
       </c>
@@ -5297,8 +5684,11 @@
       <c r="M130">
         <v>0.71839464882943149</v>
       </c>
-    </row>
-    <row r="131" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N130">
+        <v>-0.2424385032237685</v>
+      </c>
+    </row>
+    <row r="131" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A131">
         <v>8.8812392426850777E-3</v>
       </c>
@@ -5335,8 +5725,11 @@
       <c r="M131">
         <v>0.70185614849187938</v>
       </c>
-    </row>
-    <row r="132" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N131">
+        <v>-0.31130773020342589</v>
+      </c>
+    </row>
+    <row r="132" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A132">
         <v>1.8634538152610531E-2</v>
       </c>
@@ -5373,8 +5766,11 @@
       <c r="M132">
         <v>0.72577556491765605</v>
       </c>
-    </row>
-    <row r="133" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N132">
+        <v>-0.17356927624411109</v>
+      </c>
+    </row>
+    <row r="133" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A133">
         <v>-1.7762478485370013E-2</v>
       </c>
@@ -5411,8 +5807,11 @@
       <c r="M133">
         <v>0.71434078643022358</v>
       </c>
-    </row>
-    <row r="134" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N133">
+        <v>-0.51791541114239814</v>
+      </c>
+    </row>
+    <row r="134" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A134">
         <v>6.6230636833046558E-2</v>
       </c>
@@ -5449,8 +5848,11 @@
       <c r="M134">
         <v>0.72118551042810097</v>
       </c>
-    </row>
-    <row r="135" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N134">
+        <v>-0.31130773020342589</v>
+      </c>
+    </row>
+    <row r="135" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A135">
         <v>3.0636833046472764E-3</v>
       </c>
@@ -5487,8 +5889,11 @@
       <c r="M135">
         <v>0.71876179690449216</v>
       </c>
-    </row>
-    <row r="136" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N135">
+        <v>0.10190763167451854</v>
+      </c>
+    </row>
+    <row r="136" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A136">
         <v>-2.0791738382099762E-2</v>
       </c>
@@ -5525,8 +5930,11 @@
       <c r="M136">
         <v>0.69218870843000768</v>
       </c>
-    </row>
-    <row r="137" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N136">
+        <v>-0.1047000492644537</v>
+      </c>
+    </row>
+    <row r="137" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A137">
         <v>-0.10705679862306361</v>
       </c>
@@ -5563,8 +5971,11 @@
       <c r="M137">
         <v>0.7563608326908251</v>
       </c>
-    </row>
-    <row r="138" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N137">
+        <v>-0.38017695718308331</v>
+      </c>
+    </row>
+    <row r="138" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A138">
         <v>-4.8835341365461749E-2</v>
       </c>
@@ -5601,8 +6012,11 @@
       <c r="M138">
         <v>0.74008975317875847</v>
       </c>
-    </row>
-    <row r="139" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N138">
+        <v>-3.5830822284796282E-2</v>
+      </c>
+    </row>
+    <row r="139" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A139">
         <v>1.1222030981067124E-2</v>
       </c>
@@ -5639,8 +6053,11 @@
       <c r="M139">
         <v>0.74146695715323163</v>
       </c>
-    </row>
-    <row r="140" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N139">
+        <v>-0.17356927624411109</v>
+      </c>
+    </row>
+    <row r="140" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A140">
         <v>0.17871485943775112</v>
       </c>
@@ -5677,8 +6094,11 @@
       <c r="M140">
         <v>0.72027257240204434</v>
       </c>
-    </row>
-    <row r="141" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N140">
+        <v>-0.17356927624411109</v>
+      </c>
+    </row>
+    <row r="141" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A141">
         <v>5.0200803212851405E-2</v>
       </c>
@@ -5715,8 +6135,11 @@
       <c r="M141">
         <v>0.74875717017208421</v>
       </c>
-    </row>
-    <row r="142" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N141">
+        <v>-0.38017695718308331</v>
+      </c>
+    </row>
+    <row r="142" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A142">
         <v>0.10080321285140569</v>
       </c>
@@ -5753,8 +6176,11 @@
       <c r="M142">
         <v>0.73112002918642827</v>
       </c>
-    </row>
-    <row r="143" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N142">
+        <v>-0.31130773020342589</v>
+      </c>
+    </row>
+    <row r="143" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A143">
         <v>0.2040160642570282</v>
       </c>
@@ -5791,8 +6217,11 @@
       <c r="M143">
         <v>0.74716477651767843</v>
       </c>
-    </row>
-    <row r="144" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N143">
+        <v>-3.5830822284796282E-2</v>
+      </c>
+    </row>
+    <row r="144" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A144">
         <v>6.3499713138267383E-2</v>
       </c>
@@ -5829,8 +6258,11 @@
       <c r="M144">
         <v>0.7318415260454878</v>
       </c>
-    </row>
-    <row r="145" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N144">
+        <v>-0.31130773020342589</v>
+      </c>
+    </row>
+    <row r="145" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A145">
         <v>9.7051061388410853E-2</v>
       </c>
@@ -5867,8 +6299,11 @@
       <c r="M145">
         <v>0.75284495021337117</v>
       </c>
-    </row>
-    <row r="146" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N145">
+        <v>-0.44904618416274072</v>
+      </c>
+    </row>
+    <row r="146" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A146">
         <v>4.1686746987951821E-2</v>
       </c>
@@ -5905,8 +6340,11 @@
       <c r="M146">
         <v>0.73718647764449297</v>
       </c>
-    </row>
-    <row r="147" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N146">
+        <v>-0.31130773020342589</v>
+      </c>
+    </row>
+    <row r="147" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A147">
         <v>2.9213998852553085E-2</v>
       </c>
@@ -5943,8 +6381,11 @@
       <c r="M147">
         <v>0.75347841598287546</v>
       </c>
-    </row>
-    <row r="148" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N147">
+        <v>-0.2424385032237685</v>
+      </c>
+    </row>
+    <row r="148" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A148">
         <v>0.12931726907630534</v>
       </c>
@@ -5981,8 +6422,11 @@
       <c r="M148">
         <v>0.73399715504978658</v>
       </c>
-    </row>
-    <row r="149" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N148">
+        <v>-0.2424385032237685</v>
+      </c>
+    </row>
+    <row r="149" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A149">
         <v>0.10037865748709132</v>
       </c>
@@ -6019,8 +6463,11 @@
       <c r="M149">
         <v>0.75086028905712321</v>
       </c>
-    </row>
-    <row r="150" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N149">
+        <v>-0.17356927624411109</v>
+      </c>
+    </row>
+    <row r="150" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A150">
         <v>0.15185312679288585</v>
       </c>
@@ -6057,8 +6504,11 @@
       <c r="M150">
         <v>0.73318457124641379</v>
       </c>
-    </row>
-    <row r="151" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N150">
+        <v>-0.44904618416274072</v>
+      </c>
+    </row>
+    <row r="151" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A151">
         <v>6.5748709122203167E-2</v>
       </c>
@@ -6095,8 +6545,11 @@
       <c r="M151">
         <v>0.7386950904392765</v>
       </c>
-    </row>
-    <row r="152" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N151">
+        <v>-0.44904618416274072</v>
+      </c>
+    </row>
+    <row r="152" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A152">
         <v>-0.12650602409638551</v>
       </c>
@@ -6133,8 +6586,11 @@
       <c r="M152">
         <v>0.74780952380952381</v>
       </c>
-    </row>
-    <row r="153" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N152">
+        <v>-0.5867846381220555</v>
+      </c>
+    </row>
+    <row r="153" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A153">
         <v>-0.22489959839357423</v>
       </c>
@@ -6171,8 +6627,11 @@
       <c r="M153">
         <v>0.6844559585492227</v>
       </c>
-    </row>
-    <row r="154" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N153">
+        <v>-0.65565386510171297</v>
+      </c>
+    </row>
+    <row r="154" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A154">
         <v>-0.16771084337349393</v>
       </c>
@@ -6209,8 +6668,11 @@
       <c r="M154">
         <v>0.73748862602365794</v>
       </c>
-    </row>
-    <row r="155" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N154">
+        <v>-0.65565386510171297</v>
+      </c>
+    </row>
+    <row r="155" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A155">
         <v>-0.14658634538152607</v>
       </c>
@@ -6247,8 +6709,11 @@
       <c r="M155">
         <v>0.69599999999999995</v>
       </c>
-    </row>
-    <row r="156" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N155">
+        <v>-0.1047000492644537</v>
+      </c>
+    </row>
+    <row r="156" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A156">
         <v>0.15863453815261055</v>
       </c>
@@ -6285,8 +6750,11 @@
       <c r="M156">
         <v>0.77053726169844017</v>
       </c>
-    </row>
-    <row r="157" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N156">
+        <v>-0.17356927624411109</v>
+      </c>
+    </row>
+    <row r="157" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A157">
         <v>-0.10728628800917955</v>
       </c>
@@ -6323,8 +6791,11 @@
       <c r="M157">
         <v>0.71625964010282772</v>
       </c>
-    </row>
-    <row r="158" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N157">
+        <v>-0.44904618416274072</v>
+      </c>
+    </row>
+    <row r="158" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A158">
         <v>-0.70877796901893286</v>
       </c>
@@ -6361,8 +6832,11 @@
       <c r="M158">
         <v>0.70330969267139476</v>
       </c>
-    </row>
-    <row r="159" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N158">
+        <v>-0.44904618416274072</v>
+      </c>
+    </row>
+    <row r="159" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A159">
         <v>-4.8995983935742927E-2</v>
       </c>
@@ -6399,8 +6873,11 @@
       <c r="M159">
         <v>0.72471042471042468</v>
       </c>
-    </row>
-    <row r="160" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N159">
+        <v>-0.72452309208137033</v>
+      </c>
+    </row>
+    <row r="160" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A160">
         <v>-4.6345381526104415E-2</v>
       </c>
@@ -6437,8 +6914,11 @@
       <c r="M160">
         <v>0.73256247668780305</v>
       </c>
-    </row>
-    <row r="161" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N160">
+        <v>-0.51791541114239814</v>
+      </c>
+    </row>
+    <row r="161" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A161">
         <v>0.10080321285140569</v>
       </c>
@@ -6475,8 +6955,11 @@
       <c r="M161">
         <v>0.75009120758847136</v>
       </c>
-    </row>
-    <row r="162" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N161">
+        <v>-0.31130773020342589</v>
+      </c>
+    </row>
+    <row r="162" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A162">
         <v>8.9558232931726933E-2</v>
       </c>
@@ -6513,8 +6996,11 @@
       <c r="M162">
         <v>0.73424253593807587</v>
       </c>
-    </row>
-    <row r="163" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N162">
+        <v>-0.44904618416274072</v>
+      </c>
+    </row>
+    <row r="163" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A163">
         <v>4.0963855421686873E-2</v>
       </c>
@@ -6551,8 +7037,11 @@
       <c r="M163">
         <v>0.69444444444444442</v>
       </c>
-    </row>
-    <row r="164" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N163">
+        <v>-0.51791541114239814</v>
+      </c>
+    </row>
+    <row r="164" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A164">
         <v>0.20321285140562259</v>
       </c>
@@ -6589,8 +7078,11 @@
       <c r="M164">
         <v>0.69292389853137526</v>
       </c>
-    </row>
-    <row r="165" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N164">
+        <v>-0.2424385032237685</v>
+      </c>
+    </row>
+    <row r="165" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A165">
         <v>0.206425702811245</v>
       </c>
@@ -6627,8 +7119,11 @@
       <c r="M165">
         <v>0.69141145139813587</v>
       </c>
-    </row>
-    <row r="166" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N165">
+        <v>-0.5867846381220555</v>
+      </c>
+    </row>
+    <row r="166" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A166">
         <v>0.2190017211703959</v>
       </c>
@@ -6665,8 +7160,11 @@
       <c r="M166">
         <v>0.72416130125381228</v>
       </c>
-    </row>
-    <row r="167" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N166">
+        <v>-0.44904618416274072</v>
+      </c>
+    </row>
+    <row r="167" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A167">
         <v>6.7125645438898568E-2</v>
       </c>
@@ -6703,8 +7201,11 @@
       <c r="M167">
         <v>0.68400000000000005</v>
       </c>
-    </row>
-    <row r="168" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N167">
+        <v>-0.44904618416274072</v>
+      </c>
+    </row>
+    <row r="168" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A168">
         <v>0.14450946643717735</v>
       </c>
@@ -6741,8 +7242,11 @@
       <c r="M168">
         <v>0.74013474494706444</v>
       </c>
-    </row>
-    <row r="169" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N168">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="169" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A169">
         <v>0.24859437751004024</v>
       </c>
@@ -6779,8 +7283,11 @@
       <c r="M169">
         <v>0.68607269218398204</v>
       </c>
-    </row>
-    <row r="170" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N169">
+        <v>-0.79339231906102781</v>
+      </c>
+    </row>
+    <row r="170" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A170">
         <v>0.39666092943201398</v>
       </c>
@@ -6817,8 +7324,11 @@
       <c r="M170">
         <v>0.73790451778276189</v>
       </c>
-    </row>
-    <row r="171" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N170">
+        <v>-0.1047000492644537</v>
+      </c>
+    </row>
+    <row r="171" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A171">
         <v>0.30083763625932308</v>
       </c>
@@ -6855,8 +7365,11 @@
       <c r="M171">
         <v>0.7261749347258486</v>
       </c>
-    </row>
-    <row r="172" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N171">
+        <v>-0.17356927624411109</v>
+      </c>
+    </row>
+    <row r="172" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A172">
         <v>0.23924268502581764</v>
       </c>
@@ -6893,8 +7406,11 @@
       <c r="M172">
         <v>0.70433333333333337</v>
       </c>
-    </row>
-    <row r="173" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N172">
+        <v>-0.51791541114239814</v>
+      </c>
+    </row>
+    <row r="173" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A173">
         <v>0.27108433734939763</v>
       </c>
@@ -6931,8 +7447,11 @@
       <c r="M173">
         <v>0.72606635071090042</v>
       </c>
-    </row>
-    <row r="174" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N173">
+        <v>-0.72452309208137033</v>
+      </c>
+    </row>
+    <row r="174" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A174">
         <v>0.18099827882960415</v>
       </c>
@@ -6969,8 +7488,11 @@
       <c r="M174">
         <v>0.57677509618747813</v>
       </c>
-    </row>
-    <row r="175" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N174">
+        <v>-0.31130773020342589</v>
+      </c>
+    </row>
+    <row r="175" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A175">
         <v>0.35903614457831345</v>
       </c>
@@ -7007,8 +7529,11 @@
       <c r="M175">
         <v>0.74255319148936172</v>
       </c>
-    </row>
-    <row r="176" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N175">
+        <v>-0.17356927624411109</v>
+      </c>
+    </row>
+    <row r="176" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A176">
         <v>0.38258175559380375</v>
       </c>
@@ -7045,8 +7570,11 @@
       <c r="M176">
         <v>0.66507319988048996</v>
       </c>
-    </row>
-    <row r="177" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N176">
+        <v>-0.2424385032237685</v>
+      </c>
+    </row>
+    <row r="177" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A177">
         <v>0.32588640275387271</v>
       </c>
@@ -7083,8 +7611,11 @@
       <c r="M177">
         <v>0.71021453730387452</v>
       </c>
-    </row>
-    <row r="178" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N177">
+        <v>-0.44904618416274072</v>
+      </c>
+    </row>
+    <row r="178" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A178">
         <v>0.31909351692484228</v>
       </c>
@@ -7121,8 +7652,11 @@
       <c r="M178">
         <v>0.71000965561635032</v>
       </c>
-    </row>
-    <row r="179" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N178">
+        <v>-0.38017695718308331</v>
+      </c>
+    </row>
+    <row r="179" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A179">
         <v>0.29170395869191046</v>
       </c>
@@ -7159,8 +7693,11 @@
       <c r="M179">
         <v>0.76047329708986244</v>
       </c>
-    </row>
-    <row r="180" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N179">
+        <v>-0.17356927624411109</v>
+      </c>
+    </row>
+    <row r="180" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A180">
         <v>4.3602983362019496E-2</v>
       </c>
@@ -7197,8 +7734,11 @@
       <c r="M180">
         <v>0.72635514018691594</v>
       </c>
-    </row>
-    <row r="181" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N180">
+        <v>-0.51791541114239814</v>
+      </c>
+    </row>
+    <row r="181" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A181">
         <v>0.12192771084337356</v>
       </c>
@@ -7235,8 +7775,11 @@
       <c r="M181">
         <v>0.65905743740795286</v>
       </c>
-    </row>
-    <row r="182" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N181">
+        <v>-0.2424385032237685</v>
+      </c>
+    </row>
+    <row r="182" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A182">
         <v>0.15910499139414808</v>
       </c>
@@ -7273,8 +7816,11 @@
       <c r="M182">
         <v>0.70955096222380609</v>
       </c>
-    </row>
-    <row r="183" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N182">
+        <v>-0.31130773020342589</v>
+      </c>
+    </row>
+    <row r="183" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A183">
         <v>9.6316695352840015E-2</v>
       </c>
@@ -7311,8 +7857,11 @@
       <c r="M183">
         <v>0.67294649585531274</v>
       </c>
-    </row>
-    <row r="184" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N183">
+        <v>-0.38017695718308331</v>
+      </c>
+    </row>
+    <row r="184" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A184">
         <v>0.15988525530694217</v>
       </c>
@@ -7349,8 +7898,11 @@
       <c r="M184">
         <v>0.72144948755490479</v>
       </c>
-    </row>
-    <row r="185" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N184">
+        <v>-0.38017695718308331</v>
+      </c>
+    </row>
+    <row r="185" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A185">
         <v>0.29446930579460712</v>
       </c>
@@ -7387,8 +7939,11 @@
       <c r="M185">
         <v>0.69104624467038378</v>
       </c>
-    </row>
-    <row r="186" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N185">
+        <v>-0.31130773020342589</v>
+      </c>
+    </row>
+    <row r="186" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A186">
         <v>0.37877223178428016</v>
       </c>
@@ -7425,8 +7980,11 @@
       <c r="M186">
         <v>0.68508655126498008</v>
       </c>
-    </row>
-    <row r="187" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N186">
+        <v>0.10190763167451854</v>
+      </c>
+    </row>
+    <row r="187" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A187">
         <v>0.29569707401032713</v>
       </c>
@@ -7463,8 +8021,11 @@
       <c r="M187">
         <v>0.72157279489904358</v>
       </c>
-    </row>
-    <row r="188" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N187">
+        <v>0.51512299355246294</v>
+      </c>
+    </row>
+    <row r="188" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A188">
         <v>0.28925989672977637</v>
       </c>
@@ -7501,8 +8062,11 @@
       <c r="M188">
         <v>0.63589031586254774</v>
       </c>
-    </row>
-    <row r="189" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N188">
+        <v>0.23964608563383336</v>
+      </c>
+    </row>
+    <row r="189" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A189">
         <v>0.2523235800344234</v>
       </c>
@@ -7539,8 +8103,11 @@
       <c r="M189">
         <v>0.67320872274143317</v>
       </c>
-    </row>
-    <row r="190" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N189">
+        <v>-0.38017695718308331</v>
+      </c>
+    </row>
+    <row r="190" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A190">
         <v>0.30808950086058517</v>
       </c>
@@ -7577,8 +8144,11 @@
       <c r="M190">
         <v>0.70933333333333337</v>
       </c>
-    </row>
-    <row r="191" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N190">
+        <v>0.23964608563383336</v>
+      </c>
+    </row>
+    <row r="191" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A191">
         <v>0.25456110154905348</v>
       </c>
@@ -7615,8 +8185,11 @@
       <c r="M191">
         <v>0.75059221658206421</v>
       </c>
-    </row>
-    <row r="192" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N191">
+        <v>0.10190763167451854</v>
+      </c>
+    </row>
+    <row r="192" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A192">
         <v>0.2523235800344234</v>
       </c>
@@ -7653,8 +8226,11 @@
       <c r="M192">
         <v>0.69221183800623054</v>
       </c>
-    </row>
-    <row r="193" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N192">
+        <v>-0.1047000492644537</v>
+      </c>
+    </row>
+    <row r="193" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A193">
         <v>0.29108433734939781</v>
       </c>
@@ -7691,8 +8267,11 @@
       <c r="M193">
         <v>0.70516717325227962</v>
       </c>
-    </row>
-    <row r="194" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N193">
+        <v>-0.44904618416274072</v>
+      </c>
+    </row>
+    <row r="194" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A194">
         <v>0.29675272518646018</v>
       </c>
@@ -7729,8 +8308,11 @@
       <c r="M194">
         <v>0.65669132481506376</v>
       </c>
-    </row>
-    <row r="195" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N194">
+        <v>-0.31130773020342589</v>
+      </c>
+    </row>
+    <row r="195" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A195">
         <v>0.24943201376936322</v>
       </c>
@@ -7767,8 +8349,11 @@
       <c r="M195">
         <v>0.69340974212034379</v>
       </c>
-    </row>
-    <row r="196" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N195">
+        <v>3.3038404694861127E-2</v>
+      </c>
+    </row>
+    <row r="196" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A196">
         <v>0.25969018932874355</v>
       </c>
@@ -7805,8 +8390,11 @@
       <c r="M196">
         <v>0.6583592938733126</v>
       </c>
-    </row>
-    <row r="197" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N196">
+        <v>3.3038404694861127E-2</v>
+      </c>
+    </row>
+    <row r="197" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A197">
         <v>8.8984509466437267E-2</v>
       </c>
@@ -7843,8 +8431,11 @@
       <c r="M197">
         <v>0.70409356725146199</v>
       </c>
-    </row>
-    <row r="198" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N197">
+        <v>-3.5830822284796282E-2</v>
+      </c>
+    </row>
+    <row r="198" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A198">
         <v>0.16030981067125655</v>
       </c>
@@ -7881,8 +8472,11 @@
       <c r="M198">
         <v>0.71752652762532021</v>
       </c>
-    </row>
-    <row r="199" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N198">
+        <v>-0.72452309208137033</v>
+      </c>
+    </row>
+    <row r="199" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A199">
         <v>0.39024670109007475</v>
       </c>
@@ -7919,8 +8513,11 @@
       <c r="M199">
         <v>0.72697259821723337</v>
       </c>
-    </row>
-    <row r="200" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N199">
+        <v>-0.5867846381220555</v>
+      </c>
+    </row>
+    <row r="200" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A200">
         <v>0.30447504302926004</v>
       </c>
@@ -7957,8 +8554,11 @@
       <c r="M200">
         <v>0.67169811320754713</v>
       </c>
-    </row>
-    <row r="201" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N200">
+        <v>-3.5830822284796282E-2</v>
+      </c>
+    </row>
+    <row r="201" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A201">
         <v>0.29283993115318413</v>
       </c>
@@ -7995,8 +8595,11 @@
       <c r="M201">
         <v>0.69331948771201113</v>
       </c>
-    </row>
-    <row r="202" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N201">
+        <v>-0.44904618416274072</v>
+      </c>
+    </row>
+    <row r="202" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A202">
         <v>0.46368330464716023</v>
       </c>
@@ -8033,8 +8636,11 @@
       <c r="M202">
         <v>0.67074317968015051</v>
       </c>
-    </row>
-    <row r="203" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N202">
+        <v>-0.38017695718308331</v>
+      </c>
+    </row>
+    <row r="203" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A203">
         <v>0.37647733792312127</v>
       </c>
@@ -8071,8 +8677,11 @@
       <c r="M203">
         <v>0.71857285761920631</v>
       </c>
-    </row>
-    <row r="204" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N203">
+        <v>-0.17356927624411109</v>
+      </c>
+    </row>
+    <row r="204" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A204">
         <v>0.42888123924268506</v>
       </c>
@@ -8109,8 +8718,11 @@
       <c r="M204">
         <v>0.69621046038208578</v>
       </c>
-    </row>
-    <row r="205" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N204">
+        <v>-3.5830822284796282E-2</v>
+      </c>
+    </row>
+    <row r="205" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A205">
         <v>0.23290877796901907</v>
       </c>
@@ -8147,8 +8759,11 @@
       <c r="M205">
         <v>0.72143734643734647</v>
       </c>
-    </row>
-    <row r="206" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N205">
+        <v>-3.5830822284796282E-2</v>
+      </c>
+    </row>
+    <row r="206" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A206">
         <v>0.42128514056224908</v>
       </c>
@@ -8185,8 +8800,11 @@
       <c r="M206">
         <v>0.72704153715738906</v>
       </c>
-    </row>
-    <row r="207" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N206">
+        <v>-0.44904618416274072</v>
+      </c>
+    </row>
+    <row r="207" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A207">
         <v>-1.2943201376936237E-2</v>
       </c>
@@ -8223,8 +8841,11 @@
       <c r="M207">
         <v>0.74011299435028244</v>
       </c>
-    </row>
-    <row r="208" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N207">
+        <v>-0.44904618416274072</v>
+      </c>
+    </row>
+    <row r="208" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A208">
         <v>0.23975903614457841</v>
       </c>
@@ -8261,8 +8882,11 @@
       <c r="M208">
         <v>0.65338516358924525</v>
       </c>
-    </row>
-    <row r="209" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N208">
+        <v>-3.5830822284796282E-2</v>
+      </c>
+    </row>
+    <row r="209" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A209">
         <v>6.3889845094664374E-2</v>
       </c>
@@ -8299,8 +8923,11 @@
       <c r="M209">
         <v>0.6993032636596993</v>
       </c>
-    </row>
-    <row r="210" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N209">
+        <v>-0.2424385032237685</v>
+      </c>
+    </row>
+    <row r="210" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A210">
         <v>0.1772805507745267</v>
       </c>
@@ -8337,8 +8964,11 @@
       <c r="M210">
         <v>0.69789473684210523</v>
       </c>
-    </row>
-    <row r="211" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N210">
+        <v>0.10190763167451854</v>
+      </c>
+    </row>
+    <row r="211" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A211">
         <v>0.20247848537005175</v>
       </c>
@@ -8375,8 +9005,11 @@
       <c r="M211">
         <v>0.70422535211267601</v>
       </c>
-    </row>
-    <row r="212" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N211">
+        <v>-0.5867846381220555</v>
+      </c>
+    </row>
+    <row r="212" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A212">
         <v>7.6706827309236961E-2</v>
       </c>
@@ -8413,8 +9046,11 @@
       <c r="M212">
         <v>0.73405445729205521</v>
       </c>
-    </row>
-    <row r="213" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N212">
+        <v>-0.31130773020342589</v>
+      </c>
+    </row>
+    <row r="213" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A213">
         <v>0.20082616179001728</v>
       </c>
@@ -8451,8 +9087,11 @@
       <c r="M213">
         <v>0.67561059511523913</v>
       </c>
-    </row>
-    <row r="214" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N213">
+        <v>0.37738453959314816</v>
+      </c>
+    </row>
+    <row r="214" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A214">
         <v>0.21445783132530122</v>
       </c>
@@ -8489,8 +9128,11 @@
       <c r="M214">
         <v>0.70578231292517002</v>
       </c>
-    </row>
-    <row r="215" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N214">
+        <v>-0.31130773020342589</v>
+      </c>
+    </row>
+    <row r="215" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A215">
         <v>0.154974182444062</v>
       </c>
@@ -8527,8 +9169,11 @@
       <c r="M215">
         <v>0.69062947067238911</v>
       </c>
-    </row>
-    <row r="216" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N215">
+        <v>0.10190763167451854</v>
+      </c>
+    </row>
+    <row r="216" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A216">
         <v>0.13483648881239255</v>
       </c>
@@ -8565,8 +9210,11 @@
       <c r="M216">
         <v>0.67489711934156393</v>
       </c>
-    </row>
-    <row r="217" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N216">
+        <v>-3.5830822284796282E-2</v>
+      </c>
+    </row>
+    <row r="217" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A217">
         <v>0.22526678141135986</v>
       </c>
@@ -8603,8 +9251,11 @@
       <c r="M217">
         <v>0.67325017325017322</v>
       </c>
-    </row>
-    <row r="218" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N217">
+        <v>0.37738453959314816</v>
+      </c>
+    </row>
+    <row r="218" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A218">
         <v>0.1080895008605853</v>
       </c>
@@ -8641,8 +9292,11 @@
       <c r="M218">
         <v>0.71202236719478096</v>
       </c>
-    </row>
-    <row r="219" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N218">
+        <v>0.23964608563383336</v>
+      </c>
+    </row>
+    <row r="219" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A219">
         <v>5.8519793459552577E-2</v>
       </c>
@@ -8679,8 +9333,11 @@
       <c r="M219">
         <v>0.72</v>
       </c>
-    </row>
-    <row r="220" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N219">
+        <v>-0.65565386510171297</v>
+      </c>
+    </row>
+    <row r="220" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A220">
         <v>0.33555938037865768</v>
       </c>
@@ -8717,8 +9374,11 @@
       <c r="M220">
         <v>0.73620633365981059</v>
       </c>
-    </row>
-    <row r="221" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N220">
+        <v>-3.5830822284796282E-2</v>
+      </c>
+    </row>
+    <row r="221" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A221">
         <v>0.19002868617326452</v>
       </c>
@@ -8755,8 +9415,11 @@
       <c r="M221">
         <v>0.69711023902961111</v>
       </c>
-    </row>
-    <row r="222" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N221">
+        <v>-0.31130773020342589</v>
+      </c>
+    </row>
+    <row r="222" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A222">
         <v>0.17149741824440629</v>
       </c>
@@ -8793,8 +9456,11 @@
       <c r="M222">
         <v>0.65197461212976027</v>
       </c>
-    </row>
-    <row r="223" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N222">
+        <v>-0.31130773020342589</v>
+      </c>
+    </row>
+    <row r="223" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A223">
         <v>0.20481927710843381</v>
       </c>
@@ -8831,8 +9497,11 @@
       <c r="M223">
         <v>0.73099999999999998</v>
       </c>
-    </row>
-    <row r="224" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N223">
+        <v>-0.1047000492644537</v>
+      </c>
+    </row>
+    <row r="224" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A224">
         <v>-0.12353413654618463</v>
       </c>
@@ -8869,8 +9538,11 @@
       <c r="M224">
         <v>0.6338500209467951</v>
       </c>
-    </row>
-    <row r="225" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N224">
+        <v>-0.5867846381220555</v>
+      </c>
+    </row>
+    <row r="225" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A225">
         <v>-0.3544004589787722</v>
       </c>
@@ -8907,8 +9579,11 @@
       <c r="M225">
         <v>0.60767097966728278</v>
       </c>
-    </row>
-    <row r="226" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N225">
+        <v>-0.65565386510171297</v>
+      </c>
+    </row>
+    <row r="226" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A226">
         <v>0.32570281124497991</v>
       </c>
@@ -8945,8 +9620,11 @@
       <c r="M226">
         <v>0.72159951529839428</v>
       </c>
-    </row>
-    <row r="227" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N226">
+        <v>0.37738453959314816</v>
+      </c>
+    </row>
+    <row r="227" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A227">
         <v>0.40034423407917391</v>
       </c>
@@ -8983,8 +9661,11 @@
       <c r="M227">
         <v>0.66843657817109148</v>
       </c>
-    </row>
-    <row r="228" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N227">
+        <v>0.23964608563383336</v>
+      </c>
+    </row>
+    <row r="228" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A228">
         <v>-0.43390705679862307</v>
       </c>
@@ -9021,8 +9702,11 @@
       <c r="M228">
         <v>0.65551839464882944</v>
       </c>
-    </row>
-    <row r="229" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N228">
+        <v>0.51512299355246294</v>
+      </c>
+    </row>
+    <row r="229" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A229">
         <v>-0.3378313253012048</v>
       </c>
@@ -9059,8 +9743,11 @@
       <c r="M229">
         <v>0.6746724890829694</v>
       </c>
-    </row>
-    <row r="230" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N229">
+        <v>-3.5830822284796282E-2</v>
+      </c>
+    </row>
+    <row r="230" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A230">
         <v>-0.15373493975903613</v>
       </c>
@@ -9097,8 +9784,11 @@
       <c r="M230">
         <v>0.65261958997722092</v>
       </c>
-    </row>
-    <row r="231" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N230">
+        <v>-3.5830822284796282E-2</v>
+      </c>
+    </row>
+    <row r="231" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A231">
         <v>-0.39169248422260461</v>
       </c>
@@ -9135,8 +9825,11 @@
       <c r="M231">
         <v>0.53506620892594414</v>
       </c>
-    </row>
-    <row r="232" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N231">
+        <v>-0.17356927624411109</v>
+      </c>
+    </row>
+    <row r="232" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A232">
         <v>-0.21418244406196213</v>
       </c>
@@ -9173,8 +9866,11 @@
       <c r="M232">
         <v>0.60820045558086555</v>
       </c>
-    </row>
-    <row r="233" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N232">
+        <v>0.10190763167451854</v>
+      </c>
+    </row>
+    <row r="233" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A233">
         <v>-5.5077452667801931E-4</v>
       </c>
@@ -9211,8 +9907,11 @@
       <c r="M233">
         <v>0.66831990080595161</v>
       </c>
-    </row>
-    <row r="234" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N233">
+        <v>0.37738453959314816</v>
+      </c>
+    </row>
+    <row r="234" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A234">
         <v>0.22154905335628242</v>
       </c>
@@ -9249,8 +9948,11 @@
       <c r="M234">
         <v>0.63732176069435831</v>
       </c>
-    </row>
-    <row r="235" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N234">
+        <v>1.8925075331456109</v>
+      </c>
+    </row>
+    <row r="235" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A235">
         <v>-9.0074584050487558E-2</v>
       </c>
@@ -9287,8 +9989,11 @@
       <c r="M235">
         <v>0.66456494325346782</v>
       </c>
-    </row>
-    <row r="236" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N235">
+        <v>0.7905999014710926</v>
+      </c>
+    </row>
+    <row r="236" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A236">
         <v>-0.43086632243258749</v>
       </c>
@@ -9325,8 +10030,11 @@
       <c r="M236">
         <v>0.64516129032258063</v>
       </c>
-    </row>
-    <row r="237" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N236">
+        <v>0.51512299355246294</v>
+      </c>
+    </row>
+    <row r="237" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A237">
         <v>-0.14189328743545607</v>
       </c>
@@ -9363,8 +10071,11 @@
       <c r="M237">
         <v>0.70474967907573816</v>
       </c>
-    </row>
-    <row r="238" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N237">
+        <v>3.3038404694861127E-2</v>
+      </c>
+    </row>
+    <row r="238" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A238">
         <v>-0.12885829030407342</v>
       </c>
@@ -9401,8 +10112,11 @@
       <c r="M238">
         <v>0.65753424657534243</v>
       </c>
-    </row>
-    <row r="239" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N238">
+        <v>0.17077685865417594</v>
+      </c>
+    </row>
+    <row r="239" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A239">
         <v>-0.2719678714859437</v>
       </c>
@@ -9439,8 +10153,11 @@
       <c r="M239">
         <v>0.69486823855755897</v>
       </c>
-    </row>
-    <row r="240" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N239">
+        <v>0.58399222053212041</v>
+      </c>
+    </row>
+    <row r="240" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A240">
         <v>-7.1715433161216258E-2</v>
       </c>
@@ -9477,8 +10194,11 @@
       <c r="M240">
         <v>0.72064276885043266</v>
       </c>
-    </row>
-    <row r="241" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N240">
+        <v>0.37738453959314816</v>
+      </c>
+    </row>
+    <row r="241" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A241">
         <v>5.014343086632253E-2</v>
       </c>
@@ -9515,8 +10235,11 @@
       <c r="M241">
         <v>0.67840909090909096</v>
       </c>
-    </row>
-    <row r="242" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N241">
+        <v>1.5481613982473239</v>
+      </c>
+    </row>
+    <row r="242" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A242">
         <v>-0.17567412507171534</v>
       </c>
@@ -9553,8 +10276,11 @@
       <c r="M242">
         <v>0.68930957683741634</v>
       </c>
-    </row>
-    <row r="243" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N242">
+        <v>0.65286144751177777</v>
+      </c>
+    </row>
+    <row r="243" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A243">
         <v>-0.16282271944922538</v>
       </c>
@@ -9591,8 +10317,11 @@
       <c r="M243">
         <v>0.72916666666666652</v>
       </c>
-    </row>
-    <row r="244" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N243">
+        <v>0.72173067449143524</v>
+      </c>
+    </row>
+    <row r="244" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A244">
         <v>-0.3482501434308663</v>
       </c>
@@ -9629,8 +10358,11 @@
       <c r="M244">
         <v>0.64788732394366211</v>
       </c>
-    </row>
-    <row r="245" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N244">
+        <v>0.92833835543040744</v>
+      </c>
+    </row>
+    <row r="245" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A245">
         <v>-0.13987378083763624</v>
       </c>
@@ -9667,8 +10399,11 @@
       <c r="M245">
         <v>0.712913553895411</v>
       </c>
-    </row>
-    <row r="246" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N245">
+        <v>0.85946912845075008</v>
+      </c>
+    </row>
+    <row r="246" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A246">
         <v>-0.18852553069420533</v>
       </c>
@@ -9705,8 +10440,11 @@
       <c r="M246">
         <v>0.73303167420814475</v>
       </c>
-    </row>
-    <row r="247" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N246">
+        <v>1.1349460363693797</v>
+      </c>
+    </row>
+    <row r="247" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A247">
         <v>-0.30602409638554207</v>
       </c>
@@ -9743,8 +10481,11 @@
       <c r="M247">
         <v>0.68287037037037035</v>
       </c>
-    </row>
-    <row r="248" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N247">
+        <v>0.85946912845075008</v>
+      </c>
+    </row>
+    <row r="248" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A248">
         <v>-0.12292598967297758</v>
       </c>
@@ -9781,8 +10522,11 @@
       <c r="M248">
         <v>0.72010937111608253</v>
       </c>
-    </row>
-    <row r="249" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N248">
+        <v>0.85946912845075008</v>
+      </c>
+    </row>
+    <row r="249" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A249">
         <v>-0.24016064257028102</v>
       </c>
@@ -9819,8 +10563,11 @@
       <c r="M249">
         <v>0.66475385080036242</v>
       </c>
-    </row>
-    <row r="250" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N249">
+        <v>0.85946912845075008</v>
+      </c>
+    </row>
+    <row r="250" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A250">
         <v>-0.32162937464142288</v>
       </c>
@@ -9857,8 +10604,11 @@
       <c r="M250">
         <v>0.60690121786197559</v>
       </c>
-    </row>
-    <row r="251" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N250">
+        <v>0.92833835543040744</v>
+      </c>
+    </row>
+    <row r="251" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A251">
         <v>-6.8502581755593692E-2</v>
       </c>
@@ -9895,8 +10645,11 @@
       <c r="M251">
         <v>0.71470805617147082</v>
       </c>
-    </row>
-    <row r="252" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N251">
+        <v>0.72173067449143524</v>
+      </c>
+    </row>
+    <row r="252" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A252">
         <v>-0.39718875502008028</v>
       </c>
@@ -9933,8 +10686,11 @@
       <c r="M252">
         <v>0.69186256781193489</v>
       </c>
-    </row>
-    <row r="253" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N252">
+        <v>0.30851531261349074</v>
+      </c>
+    </row>
+    <row r="253" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A253">
         <v>-0.26877796901893281</v>
       </c>
@@ -9971,8 +10727,11 @@
       <c r="M253">
         <v>0.7331544424567682</v>
       </c>
-    </row>
-    <row r="254" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N253">
+        <v>0.85946912845075008</v>
+      </c>
+    </row>
+    <row r="254" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A254">
         <v>-0.23580034423407914</v>
       </c>
@@ -10009,8 +10768,11 @@
       <c r="M254">
         <v>0.744054054054054</v>
       </c>
-    </row>
-    <row r="255" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N254">
+        <v>0.30851531261349074</v>
+      </c>
+    </row>
+    <row r="255" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A255">
         <v>-8.8697647733792295E-2</v>
       </c>
@@ -10047,8 +10809,11 @@
       <c r="M255">
         <v>0.74137496852178297</v>
       </c>
-    </row>
-    <row r="256" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N255">
+        <v>0.72173067449143524</v>
+      </c>
+    </row>
+    <row r="256" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A256">
         <v>-0.24383247274813533</v>
       </c>
@@ -10085,8 +10850,11 @@
       <c r="M256">
         <v>0.69924127465857355</v>
       </c>
-    </row>
-    <row r="257" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N256">
+        <v>0.44625376657280558</v>
+      </c>
+    </row>
+    <row r="257" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A257">
         <v>-0.32392426850258177</v>
       </c>
@@ -10123,8 +10891,11 @@
       <c r="M257">
         <v>0.70977596741344195</v>
       </c>
-    </row>
-    <row r="258" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N257">
+        <v>0.44625376657280558</v>
+      </c>
+    </row>
+    <row r="258" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A258">
         <v>-0.47309236947791167</v>
       </c>
@@ -10161,8 +10932,11 @@
       <c r="M258">
         <v>0.63240418118466901</v>
       </c>
-    </row>
-    <row r="259" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N258">
+        <v>0.37738453959314816</v>
+      </c>
+    </row>
+    <row r="259" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A259">
         <v>-0.22488812392426849</v>
       </c>
@@ -10199,8 +10973,11 @@
       <c r="M259">
         <v>0.71671773918964932</v>
       </c>
-    </row>
-    <row r="260" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N259">
+        <v>0.7905999014710926</v>
+      </c>
+    </row>
+    <row r="260" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A260">
         <v>-5.7624784853700421E-2</v>
       </c>
@@ -10237,8 +11014,11 @@
       <c r="M260">
         <v>0.71741671537112794</v>
       </c>
-    </row>
-    <row r="261" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N260">
+        <v>1.0660768093897222</v>
+      </c>
+    </row>
+    <row r="261" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A261">
         <v>-4.9053356282271955E-2</v>
       </c>
@@ -10275,8 +11055,11 @@
       <c r="M261">
         <v>0.69713423831070886</v>
       </c>
-    </row>
-    <row r="262" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N261">
+        <v>1.2038152633490371</v>
+      </c>
+    </row>
+    <row r="262" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A262">
         <v>-0.21670682730923685</v>
       </c>
@@ -10313,8 +11096,11 @@
       <c r="M262">
         <v>0.63746630727762799</v>
       </c>
-    </row>
-    <row r="263" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N262">
+        <v>2.7189382569014997</v>
+      </c>
+    </row>
+    <row r="263" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A263">
         <v>-0.11242685025817555</v>
       </c>
@@ -10351,8 +11137,11 @@
       <c r="M263">
         <v>0.67359602854483402</v>
       </c>
-    </row>
-    <row r="264" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N263">
+        <v>1.6170306252269813</v>
+      </c>
+    </row>
+    <row r="264" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A264">
         <v>-0.29863453815261043</v>
       </c>
@@ -10389,8 +11178,11 @@
       <c r="M264">
         <v>0.6243701328447091</v>
       </c>
-    </row>
-    <row r="265" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N264">
+        <v>0.21898531753993616</v>
+      </c>
+    </row>
+    <row r="265" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A265">
         <v>-0.13234652897303492</v>
       </c>
@@ -10427,8 +11219,11 @@
       <c r="M265">
         <v>0.59542953872196358</v>
       </c>
-    </row>
-    <row r="266" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N265">
+        <v>1.6170306252269813</v>
+      </c>
+    </row>
+    <row r="266" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A266">
         <v>-0.18081468732071135</v>
       </c>
@@ -10465,8 +11260,11 @@
       <c r="M266">
         <v>0.58045719408337071</v>
       </c>
-    </row>
-    <row r="267" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N266">
+        <v>1.5481613982473239</v>
+      </c>
+    </row>
+    <row r="267" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A267">
         <v>-4.8192771084337324E-2</v>
       </c>
@@ -10503,8 +11301,11 @@
       <c r="M267">
         <v>0.6468354430379748</v>
       </c>
-    </row>
-    <row r="268" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N267">
+        <v>0.58399222053212041</v>
+      </c>
+    </row>
+    <row r="268" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A268">
         <v>-0.37666092943201374</v>
       </c>
@@ -10541,8 +11342,11 @@
       <c r="M268">
         <v>0.56461232604373757</v>
       </c>
-    </row>
-    <row r="269" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N268">
+        <v>0.17077685865417594</v>
+      </c>
+    </row>
+    <row r="269" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A269">
         <v>-0.32658634538152603</v>
       </c>
@@ -10579,8 +11383,11 @@
       <c r="M269">
         <v>0.68845419847328249</v>
       </c>
-    </row>
-    <row r="270" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N269">
+        <v>-3.5830822284796282E-2</v>
+      </c>
+    </row>
+    <row r="270" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A270">
         <v>-6.1962134251290803E-2</v>
       </c>
@@ -10617,8 +11424,11 @@
       <c r="M270">
         <v>0.72073394495412846</v>
       </c>
-    </row>
-    <row r="271" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N270">
+        <v>0.85946912845075008</v>
+      </c>
+    </row>
+    <row r="271" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A271">
         <v>2.1135972461273755E-2</v>
       </c>
@@ -10655,8 +11465,11 @@
       <c r="M271">
         <v>0.59870550161812297</v>
       </c>
-    </row>
-    <row r="272" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N271">
+        <v>0.65286144751177777</v>
+      </c>
+    </row>
+    <row r="272" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A272">
         <v>-4.6540447504302834E-2</v>
       </c>
@@ -10693,8 +11506,11 @@
       <c r="M272">
         <v>0.68030182684670359</v>
       </c>
-    </row>
-    <row r="273" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N272">
+        <v>0.17077685865417594</v>
+      </c>
+    </row>
+    <row r="273" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A273">
         <v>3.0705679862306393E-2</v>
       </c>
@@ -10731,8 +11547,11 @@
       <c r="M273">
         <v>0.61351947097722259</v>
       </c>
-    </row>
-    <row r="274" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N273">
+        <v>1.3415537173083518</v>
+      </c>
+    </row>
+    <row r="274" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A274">
         <v>0.12865174985656927</v>
       </c>
@@ -10769,8 +11588,11 @@
       <c r="M274">
         <v>0.48047010024196335</v>
       </c>
-    </row>
-    <row r="275" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N274">
+        <v>2.1679844410642408</v>
+      </c>
+    </row>
+    <row r="275" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A275">
         <v>-0.17617900172117038</v>
       </c>
@@ -10807,8 +11629,11 @@
       <c r="M275">
         <v>0.59455958549222798</v>
       </c>
-    </row>
-    <row r="276" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N275">
+        <v>0.65286144751177777</v>
+      </c>
+    </row>
+    <row r="276" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A276">
         <v>2.4796328169822184E-2</v>
       </c>
@@ -10845,8 +11670,11 @@
       <c r="M276">
         <v>0.64456785838250608</v>
       </c>
-    </row>
-    <row r="277" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N276">
+        <v>-0.17356927624411109</v>
+      </c>
+    </row>
+    <row r="277" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A277">
         <v>-5.3413654618473833E-2</v>
       </c>
@@ -10883,8 +11711,11 @@
       <c r="M277">
         <v>0.68646584641493424</v>
       </c>
-    </row>
-    <row r="278" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N277">
+        <v>0.72173067449143524</v>
+      </c>
+    </row>
+    <row r="278" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A278">
         <v>-4.5989672977624678E-2</v>
       </c>
@@ -10921,8 +11752,11 @@
       <c r="M278">
         <v>0.74235645041014164</v>
       </c>
-    </row>
-    <row r="279" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N278">
+        <v>0.92833835543040744</v>
+      </c>
+    </row>
+    <row r="279" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A279">
         <v>0.22208835341365468</v>
       </c>
@@ -10959,8 +11793,11 @@
       <c r="M279">
         <v>0.70883996056523169</v>
       </c>
-    </row>
-    <row r="280" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N279">
+        <v>0.58399222053212041</v>
+      </c>
+    </row>
+    <row r="280" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A280">
         <v>0.19375788869764785</v>
       </c>
@@ -10997,8 +11834,11 @@
       <c r="M280">
         <v>0.72646007151370684</v>
       </c>
-    </row>
-    <row r="281" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N280">
+        <v>0.44625376657280558</v>
+      </c>
+    </row>
+    <row r="281" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A281">
         <v>0.22639127940332768</v>
       </c>
@@ -11035,8 +11875,11 @@
       <c r="M281">
         <v>0.66916167664670656</v>
       </c>
-    </row>
-    <row r="282" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N281">
+        <v>0.23964608563383336</v>
+      </c>
+    </row>
+    <row r="282" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A282">
         <v>0.28950086058519808</v>
       </c>
@@ -11073,8 +11916,11 @@
       <c r="M282">
         <v>0.66364121729845171</v>
       </c>
-    </row>
-    <row r="283" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N282">
+        <v>0.92833835543040744</v>
+      </c>
+    </row>
+    <row r="283" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A283">
         <v>0.11738382099827886</v>
       </c>
@@ -11111,8 +11957,11 @@
       <c r="M283">
         <v>0.6857670979667283</v>
       </c>
-    </row>
-    <row r="284" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N283">
+        <v>1.1349460363693797</v>
+      </c>
+    </row>
+    <row r="284" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A284">
         <v>-0.34146873207114176</v>
       </c>
@@ -11149,8 +11998,11 @@
       <c r="M284">
         <v>0.54623547246083881</v>
       </c>
-    </row>
-    <row r="285" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N284">
+        <v>-0.1047000492644537</v>
+      </c>
+    </row>
+    <row r="285" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A285">
         <v>-0.21413654618473885</v>
       </c>
@@ -11187,8 +12039,11 @@
       <c r="M285">
         <v>0.55478331970564188</v>
       </c>
-    </row>
-    <row r="286" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N285">
+        <v>0.30851531261349074</v>
+      </c>
+    </row>
+    <row r="286" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A286">
         <v>9.6385542168674787E-2</v>
       </c>
@@ -11225,8 +12080,11 @@
       <c r="M286">
         <v>0.63014128728414442</v>
       </c>
-    </row>
-    <row r="287" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N286">
+        <v>1.2726844903286945</v>
+      </c>
+    </row>
+    <row r="287" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A287">
         <v>3.0361445783132542E-2</v>
       </c>
@@ -11263,8 +12121,11 @@
       <c r="M287">
         <v>0.68444028687246639</v>
       </c>
-    </row>
-    <row r="288" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N287">
+        <v>0.72173067449143524</v>
+      </c>
+    </row>
+    <row r="288" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A288">
         <v>-3.9655765920826098E-2</v>
       </c>
@@ -11301,8 +12162,11 @@
       <c r="M288">
         <v>0.66181566181566187</v>
       </c>
-    </row>
-    <row r="289" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N288">
+        <v>0.72173067449143524</v>
+      </c>
+    </row>
+    <row r="289" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A289">
         <v>9.8450946643717757E-2</v>
       </c>
@@ -11339,8 +12203,11 @@
       <c r="M289">
         <v>0.6483860858664996</v>
       </c>
-    </row>
-    <row r="290" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N289">
+        <v>2.0991152140845832</v>
+      </c>
+    </row>
+    <row r="290" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A290">
         <v>3.6833046471600801E-2</v>
       </c>
@@ -11377,8 +12244,11 @@
       <c r="M290">
         <v>0.62350597609561753</v>
       </c>
-    </row>
-    <row r="291" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N290">
+        <v>1.5481613982473239</v>
+      </c>
+    </row>
+    <row r="291" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A291">
         <v>-0.10017211703958687</v>
       </c>
@@ -11415,8 +12285,11 @@
       <c r="M291">
         <v>0.67329762815608263</v>
       </c>
-    </row>
-    <row r="292" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N291">
+        <v>0.72173067449143524</v>
+      </c>
+    </row>
+    <row r="292" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A292">
         <v>-3.8554216867469772E-2</v>
       </c>
@@ -11453,8 +12326,11 @@
       <c r="M292">
         <v>0.75259577515216625</v>
       </c>
-    </row>
-    <row r="293" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N292">
+        <v>-3.5830822284796282E-2</v>
+      </c>
+    </row>
+    <row r="293" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A293">
         <v>1.8588640275387255E-2</v>
       </c>
@@ -11491,8 +12367,11 @@
       <c r="M293">
         <v>0.71409259885096321</v>
       </c>
-    </row>
-    <row r="294" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N293">
+        <v>0.44625376657280558</v>
+      </c>
+    </row>
+    <row r="294" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A294">
         <v>-2.5358577165806091E-2</v>
       </c>
@@ -11529,8 +12408,11 @@
       <c r="M294">
         <v>0.68248175182481741</v>
       </c>
-    </row>
-    <row r="295" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N294">
+        <v>0.51512299355246294</v>
+      </c>
+    </row>
+    <row r="295" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A295">
         <v>-0.14492254733218582</v>
       </c>
@@ -11567,8 +12449,11 @@
       <c r="M295">
         <v>0.68397745571658619</v>
       </c>
-    </row>
-    <row r="296" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N295">
+        <v>-0.2424385032237685</v>
+      </c>
+    </row>
+    <row r="296" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A296">
         <v>-0.11290877796901894</v>
       </c>
@@ -11605,8 +12490,11 @@
       <c r="M296">
         <v>0.63174233604967012</v>
       </c>
-    </row>
-    <row r="297" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N296">
+        <v>0.37738453959314816</v>
+      </c>
+    </row>
+    <row r="297" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A297">
         <v>-0.26265060240963856</v>
       </c>
@@ -11643,8 +12531,11 @@
       <c r="M297">
         <v>0.65266106442577021</v>
       </c>
-    </row>
-    <row r="298" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N297">
+        <v>0.17077685865417594</v>
+      </c>
+    </row>
+    <row r="298" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A298">
         <v>-0.1745266781411359</v>
       </c>
@@ -11681,8 +12572,11 @@
       <c r="M298">
         <v>0.68223519599666393</v>
       </c>
-    </row>
-    <row r="299" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N298">
+        <v>-0.17356927624411109</v>
+      </c>
+    </row>
+    <row r="299" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A299">
         <v>-0.14629948364888123</v>
       </c>
@@ -11719,8 +12613,11 @@
       <c r="M299">
         <v>0.6411290322580645</v>
       </c>
-    </row>
-    <row r="300" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N299">
+        <v>-3.5830822284796282E-2</v>
+      </c>
+    </row>
+    <row r="300" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A300">
         <v>-0.10076878944348816</v>
       </c>
@@ -11757,8 +12654,11 @@
       <c r="M300">
         <v>0.69382911392405067</v>
       </c>
-    </row>
-    <row r="301" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N300">
+        <v>-0.51791541114239814</v>
+      </c>
+    </row>
+    <row r="301" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A301">
         <v>-0.21826735513482493</v>
       </c>
@@ -11795,8 +12695,11 @@
       <c r="M301">
         <v>0.73508689525598869</v>
       </c>
-    </row>
-    <row r="302" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N301">
+        <v>-0.65565386510171297</v>
+      </c>
+    </row>
+    <row r="302" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A302">
         <v>-0.32250143430866324</v>
       </c>
@@ -11833,8 +12736,11 @@
       <c r="M302">
         <v>0.62377210216110024</v>
       </c>
-    </row>
-    <row r="303" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N302">
+        <v>-0.51791541114239814</v>
+      </c>
+    </row>
+    <row r="303" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A303">
         <v>-8.4911072862880077E-2</v>
       </c>
@@ -11871,8 +12777,11 @@
       <c r="M303">
         <v>0.73890909090909096</v>
       </c>
-    </row>
-    <row r="304" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N303">
+        <v>-0.1047000492644537</v>
+      </c>
+    </row>
+    <row r="304" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A304">
         <v>-0.133849684452094</v>
       </c>
@@ -11909,8 +12818,11 @@
       <c r="M304">
         <v>0.6788501026694046</v>
       </c>
-    </row>
-    <row r="305" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N304">
+        <v>-0.17356927624411109</v>
+      </c>
+    </row>
+    <row r="305" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A305">
         <v>-0.12977624784853695</v>
       </c>
@@ -11947,8 +12859,11 @@
       <c r="M305">
         <v>0.69857594936708844</v>
       </c>
-    </row>
-    <row r="306" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N305">
+        <v>-0.1047000492644537</v>
+      </c>
+    </row>
+    <row r="306" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A306">
         <v>-0.11641996557659208</v>
       </c>
@@ -11985,8 +12900,11 @@
       <c r="M306">
         <v>0.70772946859903385</v>
       </c>
-    </row>
-    <row r="307" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N306">
+        <v>-0.44904618416274072</v>
+      </c>
+    </row>
+    <row r="307" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A307">
         <v>-4.0654044750430267E-2</v>
       </c>
@@ -12023,8 +12941,11 @@
       <c r="M307">
         <v>0.73971078976640714</v>
       </c>
-    </row>
-    <row r="308" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N307">
+        <v>-0.2424385032237685</v>
+      </c>
+    </row>
+    <row r="308" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A308">
         <v>-0.49975903614457828</v>
       </c>
@@ -12061,8 +12982,11 @@
       <c r="M308">
         <v>0.70857418111753356</v>
       </c>
-    </row>
-    <row r="309" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N308">
+        <v>-0.17356927624411109</v>
+      </c>
+    </row>
+    <row r="309" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A309">
         <v>-0.42317842799770505</v>
       </c>
@@ -12099,8 +13023,11 @@
       <c r="M309">
         <v>0.73873085339168487</v>
       </c>
-    </row>
-    <row r="310" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N309">
+        <v>-0.72452309208137033</v>
+      </c>
+    </row>
+    <row r="310" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A310">
         <v>-0.51068273092369476</v>
       </c>
@@ -12137,8 +13064,11 @@
       <c r="M310">
         <v>0.61851608667104396</v>
       </c>
-    </row>
-    <row r="311" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N310">
+        <v>-0.51791541114239814</v>
+      </c>
+    </row>
+    <row r="311" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A311">
         <v>-0.56722891566265055</v>
       </c>
@@ -12175,8 +13105,11 @@
       <c r="M311">
         <v>0.58648849294729033</v>
       </c>
-    </row>
-    <row r="312" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N311">
+        <v>-0.44904618416274072</v>
+      </c>
+    </row>
+    <row r="312" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A312">
         <v>-0.52803212851405612</v>
       </c>
@@ -12213,8 +13146,11 @@
       <c r="M312">
         <v>0.57726344452008171</v>
       </c>
-    </row>
-    <row r="313" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N312">
+        <v>-0.44904618416274072</v>
+      </c>
+    </row>
+    <row r="313" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A313">
         <v>-0.62339644291451513</v>
       </c>
@@ -12251,8 +13187,11 @@
       <c r="M313">
         <v>0.58163980378416258</v>
       </c>
-    </row>
-    <row r="314" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N313">
+        <v>-0.2424385032237685</v>
+      </c>
+    </row>
+    <row r="314" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A314">
         <v>-0.59640849110728633</v>
       </c>
@@ -12289,8 +13228,11 @@
       <c r="M314">
         <v>0.66408893185113582</v>
       </c>
-    </row>
-    <row r="315" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N314">
+        <v>-0.38017695718308331</v>
+      </c>
+    </row>
+    <row r="315" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A315">
         <v>-0.64182444061962129</v>
       </c>
@@ -12327,8 +13269,11 @@
       <c r="M315">
         <v>0.64392119173474294</v>
       </c>
-    </row>
-    <row r="316" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N315">
+        <v>-0.65565386510171297</v>
+      </c>
+    </row>
+    <row r="316" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A316">
         <v>-0.27967871485943774</v>
       </c>
@@ -12365,8 +13310,11 @@
       <c r="M316">
         <v>0.66726137377341654</v>
       </c>
-    </row>
-    <row r="317" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N316">
+        <v>0.10190763167451854</v>
+      </c>
+    </row>
+    <row r="317" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A317">
         <v>-0.52243258749282839</v>
       </c>
@@ -12403,8 +13351,11 @@
       <c r="M317">
         <v>0.66025949062950506</v>
       </c>
-    </row>
-    <row r="318" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N317">
+        <v>-0.31130773020342589</v>
+      </c>
+    </row>
+    <row r="318" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A318">
         <v>-0.74586345381526109</v>
       </c>
@@ -12441,8 +13392,11 @@
       <c r="M318">
         <v>0.55309734513274333</v>
       </c>
-    </row>
-    <row r="319" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N318">
+        <v>-0.31130773020342589</v>
+      </c>
+    </row>
+    <row r="319" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A319">
         <v>-0.30137693631669538</v>
       </c>
@@ -12479,8 +13433,11 @@
       <c r="M319">
         <v>0.64878048780487807</v>
       </c>
-    </row>
-    <row r="320" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N319">
+        <v>-0.38017695718308331</v>
+      </c>
+    </row>
+    <row r="320" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A320">
         <v>-0.22981067125645441</v>
       </c>
@@ -12517,8 +13474,11 @@
       <c r="M320">
         <v>0.66224188790560456</v>
       </c>
-    </row>
-    <row r="321" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N320">
+        <v>-0.2424385032237685</v>
+      </c>
+    </row>
+    <row r="321" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A321">
         <v>-0.49012048192771085</v>
       </c>
@@ -12555,8 +13515,11 @@
       <c r="M321">
         <v>0.68100189035916825</v>
       </c>
-    </row>
-    <row r="322" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N321">
+        <v>-0.51791541114239814</v>
+      </c>
+    </row>
+    <row r="322" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A322">
         <v>-0.69053356282271938</v>
       </c>
@@ -12593,8 +13556,11 @@
       <c r="M322">
         <v>0.65962180200222464</v>
       </c>
-    </row>
-    <row r="323" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N322">
+        <v>-0.65565386510171297</v>
+      </c>
+    </row>
+    <row r="323" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A323">
         <v>-0.60585197934595525</v>
       </c>
@@ -12631,8 +13597,11 @@
       <c r="M323">
         <v>0.54294032023289662</v>
       </c>
-    </row>
-    <row r="324" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N323">
+        <v>-0.79339231906102781</v>
+      </c>
+    </row>
+    <row r="324" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A324">
         <v>-0.35036144578313255</v>
       </c>
@@ -12669,8 +13638,11 @@
       <c r="M324">
         <v>0.4638971315529179</v>
       </c>
-    </row>
-    <row r="325" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N324">
+        <v>-0.38017695718308331</v>
+      </c>
+    </row>
+    <row r="325" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A325">
         <v>6.5863453815261069E-2</v>
       </c>
@@ -12707,8 +13679,11 @@
       <c r="M325">
         <v>0.63338357196684247</v>
       </c>
-    </row>
-    <row r="326" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N325">
+        <v>-0.51791541114239814</v>
+      </c>
+    </row>
+    <row r="326" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A326">
         <v>-1.4297188755020005E-2</v>
       </c>
@@ -12745,8 +13720,11 @@
       <c r="M326">
         <v>0.73826597131681881</v>
       </c>
-    </row>
-    <row r="327" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N326">
+        <v>0.17077685865417594</v>
+      </c>
+    </row>
+    <row r="327" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A327">
         <v>-3.7808376362593189E-2</v>
       </c>
@@ -12783,8 +13761,11 @@
       <c r="M327">
         <v>0.65027726432532351</v>
       </c>
-    </row>
-    <row r="328" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N327">
+        <v>-0.1047000492644537</v>
+      </c>
+    </row>
+    <row r="328" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A328">
         <v>-0.29156626506024091</v>
       </c>
@@ -12821,8 +13802,11 @@
       <c r="M328">
         <v>0.67925170068027219</v>
       </c>
-    </row>
-    <row r="329" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N328">
+        <v>-0.38017695718308331</v>
+      </c>
+    </row>
+    <row r="329" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A329">
         <v>-0.16034423407917378</v>
       </c>
@@ -12859,8 +13843,11 @@
       <c r="M329">
         <v>0.73204329288291248</v>
       </c>
-    </row>
-    <row r="330" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N329">
+        <v>-0.17356927624411109</v>
+      </c>
+    </row>
+    <row r="330" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A330">
         <v>-0.16518646012621907</v>
       </c>
@@ -12897,8 +13884,11 @@
       <c r="M330">
         <v>0.7623223465376473</v>
       </c>
-    </row>
-    <row r="331" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N330">
+        <v>-3.5830822284796282E-2</v>
+      </c>
+    </row>
+    <row r="331" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A331">
         <v>-0.22771084337349393</v>
       </c>
@@ -12935,8 +13925,11 @@
       <c r="M331">
         <v>0.71950078003120121</v>
       </c>
-    </row>
-    <row r="332" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N331">
+        <v>-0.31130773020342589</v>
+      </c>
+    </row>
+    <row r="332" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A332">
         <v>-0.1818473895582329</v>
       </c>
@@ -12973,8 +13966,11 @@
       <c r="M332">
         <v>0.77074976858994138</v>
       </c>
-    </row>
-    <row r="333" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N332">
+        <v>-0.31130773020342589</v>
+      </c>
+    </row>
+    <row r="333" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A333">
         <v>-8.1124497991967859E-2</v>
       </c>
@@ -13011,8 +14007,11 @@
       <c r="M333">
         <v>0.60032467532467537</v>
       </c>
-    </row>
-    <row r="334" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N333">
+        <v>-0.17356927624411109</v>
+      </c>
+    </row>
+    <row r="334" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A334">
         <v>3.3138267355134844E-2</v>
       </c>
@@ -13049,8 +14048,11 @@
       <c r="M334">
         <v>0.74501876985272886</v>
       </c>
-    </row>
-    <row r="335" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N334">
+        <v>-0.17356927624411109</v>
+      </c>
+    </row>
+    <row r="335" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A335">
         <v>-5.1841652323580005E-2</v>
       </c>
@@ -13087,8 +14089,11 @@
       <c r="M335">
         <v>0.76677316293929709</v>
       </c>
-    </row>
-    <row r="336" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N335">
+        <v>-0.1047000492644537</v>
+      </c>
+    </row>
+    <row r="336" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A336">
         <v>-0.19472174411933449</v>
       </c>
@@ -13125,8 +14130,11 @@
       <c r="M336">
         <v>0.69122257053291536</v>
       </c>
-    </row>
-    <row r="337" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N336">
+        <v>-0.17356927624411109</v>
+      </c>
+    </row>
+    <row r="337" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A337">
         <v>-0.20557659208261614</v>
       </c>
@@ -13163,8 +14171,11 @@
       <c r="M337">
         <v>0.68954559898315859</v>
       </c>
-    </row>
-    <row r="338" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N337">
+        <v>0.10190763167451854</v>
+      </c>
+    </row>
+    <row r="338" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A338">
         <v>-0.19820998278829599</v>
       </c>
@@ -13201,8 +14212,11 @@
       <c r="M338">
         <v>0.65726429675425035</v>
       </c>
-    </row>
-    <row r="339" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N338">
+        <v>-3.5830822284796282E-2</v>
+      </c>
+    </row>
+    <row r="339" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A339">
         <v>-7.409638554216863E-2</v>
       </c>
@@ -13239,8 +14253,11 @@
       <c r="M339">
         <v>0.79605911330049262</v>
       </c>
-    </row>
-    <row r="340" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N339">
+        <v>-3.5830822284796282E-2</v>
+      </c>
+    </row>
+    <row r="340" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A340">
         <v>-0.22285714285714275</v>
       </c>
@@ -13277,8 +14294,11 @@
       <c r="M340">
         <v>0.67859673990077962</v>
       </c>
-    </row>
-    <row r="341" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N340">
+        <v>-3.5830822284796282E-2</v>
+      </c>
+    </row>
+    <row r="341" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A341">
         <v>-0.39854274239816406</v>
       </c>
@@ -13315,8 +14335,11 @@
       <c r="M341">
         <v>0.65686704695041687</v>
       </c>
-    </row>
-    <row r="342" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N341">
+        <v>-0.51791541114239814</v>
+      </c>
+    </row>
+    <row r="342" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A342">
         <v>-0.20642570281124487</v>
       </c>
@@ -13353,8 +14376,11 @@
       <c r="M342">
         <v>0.63007518796992479</v>
       </c>
-    </row>
-    <row r="343" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N342">
+        <v>-3.5830822284796282E-2</v>
+      </c>
+    </row>
+    <row r="343" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A343">
         <v>-0.13624784853700506</v>
       </c>
@@ -13391,8 +14417,11 @@
       <c r="M343">
         <v>0.67718794835007179</v>
       </c>
-    </row>
-    <row r="344" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N343">
+        <v>-0.1047000492644537</v>
+      </c>
+    </row>
+    <row r="344" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A344">
         <v>-8.7963281698221471E-2</v>
       </c>
@@ -13429,8 +14458,11 @@
       <c r="M344">
         <v>0.62168486739469575</v>
       </c>
-    </row>
-    <row r="345" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N344">
+        <v>-3.5830822284796282E-2</v>
+      </c>
+    </row>
+    <row r="345" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A345">
         <v>-2.9627079747561562E-2</v>
       </c>
@@ -13467,8 +14499,11 @@
       <c r="M345">
         <v>0.66422287390029322</v>
       </c>
-    </row>
-    <row r="346" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N345">
+        <v>0.10190763167451854</v>
+      </c>
+    </row>
+    <row r="346" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A346">
         <v>-0.1468043602983361</v>
       </c>
@@ -13505,8 +14540,11 @@
       <c r="M346">
         <v>0.68174726989079559</v>
       </c>
-    </row>
-    <row r="347" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N346">
+        <v>-0.17356927624411109</v>
+      </c>
+    </row>
+    <row r="347" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A347">
         <v>-7.0567986230636801E-2</v>
       </c>
@@ -13543,8 +14581,11 @@
       <c r="M347">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="348" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N347">
+        <v>-0.31130773020342589</v>
+      </c>
+    </row>
+    <row r="348" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A348">
         <v>-8.7550200803212838E-2</v>
       </c>
@@ -13581,8 +14622,11 @@
       <c r="M348">
         <v>0.68309859154929564</v>
       </c>
-    </row>
-    <row r="349" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N348">
+        <v>-0.17356927624411109</v>
+      </c>
+    </row>
+    <row r="349" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A349">
         <v>-3.6741250717154249E-2</v>
       </c>
@@ -13619,8 +14663,11 @@
       <c r="M349">
         <v>0.68685376661742981</v>
       </c>
-    </row>
-    <row r="350" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N349">
+        <v>-0.31130773020342589</v>
+      </c>
+    </row>
+    <row r="350" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A350">
         <v>0.14010327022375219</v>
       </c>
@@ -13657,8 +14704,11 @@
       <c r="M350">
         <v>0.65217391304347827</v>
       </c>
-    </row>
-    <row r="351" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N350">
+        <v>3.3038404694861127E-2</v>
+      </c>
+    </row>
+    <row r="351" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A351">
         <v>6.1158921399885338E-2</v>
       </c>
@@ -13695,8 +14745,11 @@
       <c r="M351">
         <v>0.66176470588235292</v>
       </c>
-    </row>
-    <row r="352" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N351">
+        <v>-0.31130773020342589</v>
+      </c>
+    </row>
+    <row r="352" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A352">
         <v>8.4337349397590425E-2</v>
       </c>
@@ -13733,8 +14786,11 @@
       <c r="M352">
         <v>0.70370370370370372</v>
       </c>
-    </row>
-    <row r="353" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N352">
+        <v>-0.44904618416274072</v>
+      </c>
+    </row>
+    <row r="353" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A353">
         <v>-2.9076305220883544E-2</v>
       </c>
@@ -13771,8 +14827,11 @@
       <c r="M353">
         <v>0.73692918596955659</v>
       </c>
-    </row>
-    <row r="354" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N353">
+        <v>-0.1047000492644537</v>
+      </c>
+    </row>
+    <row r="354" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A354">
         <v>6.7469879518072276E-2</v>
       </c>
@@ -13809,8 +14868,11 @@
       <c r="M354">
         <v>0.69880683650435349</v>
       </c>
-    </row>
-    <row r="355" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N354">
+        <v>-0.1047000492644537</v>
+      </c>
+    </row>
+    <row r="355" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A355">
         <v>9.9827882960414008E-3</v>
       </c>
@@ -13847,8 +14909,11 @@
       <c r="M355">
         <v>0.66666666666666652</v>
       </c>
-    </row>
-    <row r="356" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N355">
+        <v>-0.31130773020342589</v>
+      </c>
+    </row>
+    <row r="356" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A356">
         <v>-6.120481927710833E-2</v>
       </c>
@@ -13885,8 +14950,11 @@
       <c r="M356">
         <v>0.70088980150581792</v>
       </c>
-    </row>
-    <row r="357" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N356">
+        <v>-0.31130773020342589</v>
+      </c>
+    </row>
+    <row r="357" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A357">
         <v>0.41794606999426276</v>
       </c>
@@ -13923,8 +14991,11 @@
       <c r="M357">
         <v>0.72295952222959525</v>
       </c>
-    </row>
-    <row r="358" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N357">
+        <v>-0.44904618416274072</v>
+      </c>
+    </row>
+    <row r="358" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A358">
         <v>0.24698795180722902</v>
       </c>
@@ -13961,8 +15032,11 @@
       <c r="M358">
         <v>0.71819645732689208</v>
       </c>
-    </row>
-    <row r="359" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N358">
+        <v>-0.2424385032237685</v>
+      </c>
+    </row>
+    <row r="359" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A359">
         <v>-1.0556511761330488E-3</v>
       </c>
@@ -13999,8 +15073,11 @@
       <c r="M359">
         <v>0.72185209860093269</v>
       </c>
-    </row>
-    <row r="360" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N359">
+        <v>-0.65565386510171297</v>
+      </c>
+    </row>
+    <row r="360" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A360">
         <v>0.17510040160642584</v>
       </c>
@@ -14037,8 +15114,11 @@
       <c r="M360">
         <v>0.73376623376623373</v>
       </c>
-    </row>
-    <row r="361" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N360">
+        <v>-0.72452309208137033</v>
+      </c>
+    </row>
+    <row r="361" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A361">
         <v>6.9879518072289246E-2</v>
       </c>
@@ -14075,8 +15155,11 @@
       <c r="M361">
         <v>0.7357357357357357</v>
       </c>
-    </row>
-    <row r="362" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N361">
+        <v>-0.72452309208137033</v>
+      </c>
+    </row>
+    <row r="362" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A362">
         <v>0.20562248995983942</v>
       </c>
@@ -14113,8 +15196,11 @@
       <c r="M362">
         <v>0.69653564290473013</v>
       </c>
-    </row>
-    <row r="363" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N362">
+        <v>-0.31130773020342589</v>
+      </c>
+    </row>
+    <row r="363" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A363">
         <v>0.24377510040160646</v>
       </c>
@@ -14151,8 +15237,11 @@
       <c r="M363">
         <v>0.72909267032612202</v>
       </c>
-    </row>
-    <row r="364" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N363">
+        <v>-0.44904618416274072</v>
+      </c>
+    </row>
+    <row r="364" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A364">
         <v>9.9242685025817609E-2</v>
       </c>
@@ -14189,8 +15278,11 @@
       <c r="M364">
         <v>0.71374440234240444</v>
       </c>
-    </row>
-    <row r="365" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N364">
+        <v>-0.65565386510171297</v>
+      </c>
+    </row>
+    <row r="365" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A365">
         <v>6.7469879518072276E-2</v>
       </c>
@@ -14226,6 +15318,9 @@
       </c>
       <c r="M365">
         <v>0.73073202192841014</v>
+      </c>
+      <c r="N365">
+        <v>-0.38017695718308331</v>
       </c>
     </row>
   </sheetData>

--- a/Emh/SVR/#1decentralization++.xlsx
+++ b/Emh/SVR/#1decentralization++.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WINTER\Project\HuaShui\Emh\SVR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{770E0812-D9C6-4830-A565-6936901707A3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9B2DEFD-EA38-4869-B29E-7EB3BDF89EFC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4380" yWindow="2610" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -352,8 +352,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N365"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A340" workbookViewId="0">
-      <selection activeCell="O355" sqref="O355"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O9" sqref="O9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -396,7 +396,7 @@
         <v>0.60779944289693599</v>
       </c>
       <c r="N1">
-        <v>0.30851531261349074</v>
+        <v>0.35185185185185186</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.2">
@@ -437,7 +437,7 @@
         <v>0.62550881953867032</v>
       </c>
       <c r="N2">
-        <v>0.37738453959314816</v>
+        <v>0.37037037037037035</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
@@ -478,7 +478,7 @@
         <v>0.55192629815745398</v>
       </c>
       <c r="N3">
-        <v>0.58399222053212041</v>
+        <v>0.42592592592592593</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
@@ -519,7 +519,7 @@
         <v>0.6762360446570973</v>
       </c>
       <c r="N4">
-        <v>0.51512299355246294</v>
+        <v>0.40740740740740738</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
@@ -560,7 +560,7 @@
         <v>0.62375745526838966</v>
       </c>
       <c r="N5">
-        <v>0.23964608563383336</v>
+        <v>0.33333333333333331</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
@@ -601,7 +601,7 @@
         <v>0.65460375629867107</v>
       </c>
       <c r="N6">
-        <v>3.3038404694861127E-2</v>
+        <v>0.27777777777777779</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
@@ -642,7 +642,7 @@
         <v>0.60222222222222221</v>
       </c>
       <c r="N7">
-        <v>0.53578376164636032</v>
+        <v>0.41296296296296298</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
@@ -683,7 +683,7 @@
         <v>0.61257695690413372</v>
       </c>
       <c r="N8">
-        <v>0.55644452974025738</v>
+        <v>0.41851851851851851</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.2">
@@ -724,7 +724,7 @@
         <v>0.64189189189189189</v>
       </c>
       <c r="N9">
-        <v>0.23964608563383336</v>
+        <v>0.33333333333333331</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.2">
@@ -765,7 +765,7 @@
         <v>0.60398332561371004</v>
       </c>
       <c r="N10">
-        <v>0.14322916786231291</v>
+        <v>0.30740740740740741</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
@@ -806,7 +806,7 @@
         <v>0.65137238836542399</v>
       </c>
       <c r="N11">
-        <v>0.6046529886260178</v>
+        <v>0.43148148148148152</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.2">
@@ -847,7 +847,7 @@
         <v>0.65595134665508259</v>
       </c>
       <c r="N12">
-        <v>0.21898531753993616</v>
+        <v>0.32777777777777778</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.2">
@@ -888,7 +888,7 @@
         <v>0.64229249011857703</v>
       </c>
       <c r="N13">
-        <v>0.53578376164636032</v>
+        <v>0.41296296296296298</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.2">
@@ -929,7 +929,7 @@
         <v>0.61143628995947774</v>
       </c>
       <c r="N14">
-        <v>0.90767758733651005</v>
+        <v>0.51296296296296295</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.2">
@@ -970,7 +970,7 @@
         <v>0.59261213720316619</v>
       </c>
       <c r="N15">
-        <v>0.6046529886260178</v>
+        <v>0.43148148148148152</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.2">
@@ -1011,7 +1011,7 @@
         <v>0.59702922855773843</v>
       </c>
       <c r="N16">
-        <v>1.3622144854022493</v>
+        <v>0.63518518518518519</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.2">
@@ -1052,7 +1052,7 @@
         <v>0.61527713088029812</v>
       </c>
       <c r="N17">
-        <v>1.2726844903286945</v>
+        <v>0.61111111111111116</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.2">
@@ -1093,7 +1093,7 @@
         <v>0.6420959147424512</v>
       </c>
       <c r="N18">
-        <v>1.1349460363693797</v>
+        <v>0.57407407407407407</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.2">
@@ -1134,7 +1134,7 @@
         <v>0.5828667413213886</v>
       </c>
       <c r="N19">
-        <v>0.96965989161820176</v>
+        <v>0.52962962962962956</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.2">
@@ -1175,7 +1175,7 @@
         <v>0.60860329261816248</v>
       </c>
       <c r="N20">
-        <v>0.72173067449143524</v>
+        <v>0.46296296296296297</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.2">
@@ -1216,7 +1216,7 @@
         <v>0.648620510150963</v>
       </c>
       <c r="N21">
-        <v>0.72173067449143524</v>
+        <v>0.46296296296296297</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.2">
@@ -1257,7 +1257,7 @@
         <v>0.56209503239740821</v>
       </c>
       <c r="N22">
-        <v>0.65286144751177777</v>
+        <v>0.44444444444444442</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.2">
@@ -1298,7 +1298,7 @@
         <v>0.62002152852529602</v>
       </c>
       <c r="N23">
-        <v>0.44625376657280558</v>
+        <v>0.3888888888888889</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.2">
@@ -1339,7 +1339,7 @@
         <v>0.64639397201291715</v>
       </c>
       <c r="N24">
-        <v>-0.17356927624411109</v>
+        <v>0.22222222222222221</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.2">
@@ -1380,7 +1380,7 @@
         <v>0.59373186302959957</v>
       </c>
       <c r="N25">
-        <v>-0.51791541114239814</v>
+        <v>0.12962962962962962</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.2">
@@ -1421,7 +1421,7 @@
         <v>0.58836689038031298</v>
       </c>
       <c r="N26">
-        <v>-0.38017695718308331</v>
+        <v>0.16666666666666666</v>
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.2">
@@ -1462,7 +1462,7 @@
         <v>0.60097719869706845</v>
       </c>
       <c r="N27">
-        <v>-0.31130773020342589</v>
+        <v>0.18518518518518517</v>
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.2">
@@ -1503,7 +1503,7 @@
         <v>0.57645553422904672</v>
       </c>
       <c r="N28">
-        <v>-0.31130773020342589</v>
+        <v>0.18518518518518517</v>
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.2">
@@ -1544,7 +1544,7 @@
         <v>0.59005275056518458</v>
       </c>
       <c r="N29">
-        <v>-0.31130773020342589</v>
+        <v>0.18518518518518517</v>
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.2">
@@ -1585,7 +1585,7 @@
         <v>0.58800521512385917</v>
       </c>
       <c r="N30">
-        <v>-0.44904618416274072</v>
+        <v>0.14814814814814814</v>
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.2">
@@ -1626,7 +1626,7 @@
         <v>0.57773386034255603</v>
       </c>
       <c r="N31">
-        <v>-0.44904618416274072</v>
+        <v>0.14814814814814814</v>
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.2">
@@ -1667,7 +1667,7 @@
         <v>0.51011863224005582</v>
       </c>
       <c r="N32">
-        <v>-0.31130773020342589</v>
+        <v>0.18518518518518517</v>
       </c>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.2">
@@ -1708,7 +1708,7 @@
         <v>0.58393207054212937</v>
       </c>
       <c r="N33">
-        <v>-0.44904618416274072</v>
+        <v>0.14814814814814814</v>
       </c>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.2">
@@ -1749,7 +1749,7 @@
         <v>0.68467078189300412</v>
       </c>
       <c r="N34">
-        <v>-0.38017695718308331</v>
+        <v>0.16666666666666666</v>
       </c>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.2">
@@ -1790,7 +1790,7 @@
         <v>0.62308099523557436</v>
       </c>
       <c r="N35">
-        <v>-0.44904618416274072</v>
+        <v>0.14814814814814814</v>
       </c>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.2">
@@ -1831,7 +1831,7 @@
         <v>0.66196447230929989</v>
       </c>
       <c r="N36">
-        <v>-0.38017695718308331</v>
+        <v>0.16666666666666666</v>
       </c>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.2">
@@ -1872,7 +1872,7 @@
         <v>0.6439243027888446</v>
       </c>
       <c r="N37">
-        <v>-0.17356927624411109</v>
+        <v>0.22222222222222221</v>
       </c>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.2">
@@ -1913,7 +1913,7 @@
         <v>0.61674789543642006</v>
       </c>
       <c r="N38">
-        <v>-0.31130773020342589</v>
+        <v>0.18518518518518517</v>
       </c>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.2">
@@ -1954,7 +1954,7 @@
         <v>0.64980544747081703</v>
       </c>
       <c r="N39">
-        <v>-0.31130773020342589</v>
+        <v>0.18518518518518517</v>
       </c>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.2">
@@ -1995,7 +1995,7 @@
         <v>0.66191520467836251</v>
       </c>
       <c r="N40">
-        <v>-0.31130773020342589</v>
+        <v>0.18518518518518517</v>
       </c>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.2">
@@ -2036,7 +2036,7 @@
         <v>0.64074960127591707</v>
       </c>
       <c r="N41">
-        <v>-0.2424385032237685</v>
+        <v>0.20370370370370369</v>
       </c>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.2">
@@ -2077,7 +2077,7 @@
         <v>0.62152357920193468</v>
       </c>
       <c r="N42">
-        <v>-0.31130773020342589</v>
+        <v>0.18518518518518517</v>
       </c>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.2">
@@ -2118,7 +2118,7 @@
         <v>0.6478754732856542</v>
       </c>
       <c r="N43">
-        <v>-0.2424385032237685</v>
+        <v>0.20370370370370369</v>
       </c>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.2">
@@ -2159,7 +2159,7 @@
         <v>0.65120967741935487</v>
       </c>
       <c r="N44">
-        <v>-0.44904618416274072</v>
+        <v>0.14814814814814814</v>
       </c>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.2">
@@ -2200,7 +2200,7 @@
         <v>0.62525879917184268</v>
       </c>
       <c r="N45">
-        <v>-0.51791541114239814</v>
+        <v>0.12962962962962962</v>
       </c>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.2">
@@ -2241,7 +2241,7 @@
         <v>0.62163509471585243</v>
       </c>
       <c r="N46">
-        <v>-0.51791541114239814</v>
+        <v>0.12962962962962962</v>
       </c>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.2">
@@ -2282,7 +2282,7 @@
         <v>0.57760582612653621</v>
       </c>
       <c r="N47">
-        <v>-0.2424385032237685</v>
+        <v>0.20370370370370369</v>
       </c>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.2">
@@ -2323,7 +2323,7 @@
         <v>0.64605946201038222</v>
       </c>
       <c r="N48">
-        <v>-0.17356927624411109</v>
+        <v>0.22222222222222221</v>
       </c>
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.2">
@@ -2364,7 +2364,7 @@
         <v>0.65397755002440217</v>
       </c>
       <c r="N49">
-        <v>-0.17356927624411109</v>
+        <v>0.22222222222222221</v>
       </c>
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.2">
@@ -2405,7 +2405,7 @@
         <v>0.64403751674854848</v>
       </c>
       <c r="N50">
-        <v>-0.5867846381220555</v>
+        <v>0.1111111111111111</v>
       </c>
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.2">
@@ -2446,7 +2446,7 @@
         <v>0.70022988505747141</v>
       </c>
       <c r="N51">
-        <v>-0.31130773020342589</v>
+        <v>0.18518518518518517</v>
       </c>
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.2">
@@ -2487,7 +2487,7 @@
         <v>0.65467625899280579</v>
       </c>
       <c r="N52">
-        <v>-0.44904618416274072</v>
+        <v>0.14814814814814814</v>
       </c>
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.2">
@@ -2528,7 +2528,7 @@
         <v>0.65074906367041196</v>
       </c>
       <c r="N53">
-        <v>-0.2424385032237685</v>
+        <v>0.20370370370370369</v>
       </c>
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.2">
@@ -2569,7 +2569,7 @@
         <v>0.6214319138979878</v>
       </c>
       <c r="N54">
-        <v>-0.31130773020342589</v>
+        <v>0.18518518518518517</v>
       </c>
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.2">
@@ -2610,7 +2610,7 @@
         <v>0.65105677579776211</v>
       </c>
       <c r="N55">
-        <v>-0.17356927624411109</v>
+        <v>0.22222222222222221</v>
       </c>
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.2">
@@ -2651,7 +2651,7 @@
         <v>0.66450040617384243</v>
       </c>
       <c r="N56">
-        <v>-0.2424385032237685</v>
+        <v>0.20370370370370369</v>
       </c>
     </row>
     <row r="57" spans="1:14" x14ac:dyDescent="0.2">
@@ -2692,7 +2692,7 @@
         <v>0.68317230273752017</v>
       </c>
       <c r="N57">
-        <v>-0.38017695718308331</v>
+        <v>0.16666666666666666</v>
       </c>
     </row>
     <row r="58" spans="1:14" x14ac:dyDescent="0.2">
@@ -2733,7 +2733,7 @@
         <v>0.67654686921081886</v>
       </c>
       <c r="N58">
-        <v>-0.31130773020342589</v>
+        <v>0.18518518518518517</v>
       </c>
     </row>
     <row r="59" spans="1:14" x14ac:dyDescent="0.2">
@@ -2774,7 +2774,7 @@
         <v>0.6852972588109647</v>
       </c>
       <c r="N59">
-        <v>-0.2424385032237685</v>
+        <v>0.20370370370370369</v>
       </c>
     </row>
     <row r="60" spans="1:14" x14ac:dyDescent="0.2">
@@ -2815,7 +2815,7 @@
         <v>0.66333466613354664</v>
       </c>
       <c r="N60">
-        <v>-0.38017695718308331</v>
+        <v>0.16666666666666666</v>
       </c>
     </row>
     <row r="61" spans="1:14" x14ac:dyDescent="0.2">
@@ -2856,7 +2856,7 @@
         <v>0.68775739423436899</v>
       </c>
       <c r="N61">
-        <v>-0.1047000492644537</v>
+        <v>0.24074074074074073</v>
       </c>
     </row>
     <row r="62" spans="1:14" x14ac:dyDescent="0.2">
@@ -2897,7 +2897,7 @@
         <v>0.65577997421572842</v>
       </c>
       <c r="N62">
-        <v>-0.2424385032237685</v>
+        <v>0.20370370370370369</v>
       </c>
     </row>
     <row r="63" spans="1:14" x14ac:dyDescent="0.2">
@@ -2938,7 +2938,7 @@
         <v>0.65150871228219298</v>
       </c>
       <c r="N63">
-        <v>-0.38017695718308331</v>
+        <v>0.16666666666666666</v>
       </c>
     </row>
     <row r="64" spans="1:14" x14ac:dyDescent="0.2">
@@ -2979,7 +2979,7 @@
         <v>0.67194860813704493</v>
       </c>
       <c r="N64">
-        <v>-0.38017695718308331</v>
+        <v>0.16666666666666666</v>
       </c>
     </row>
     <row r="65" spans="1:14" x14ac:dyDescent="0.2">
@@ -3020,7 +3020,7 @@
         <v>0.67614291202458698</v>
       </c>
       <c r="N65">
-        <v>-0.31130773020342589</v>
+        <v>0.18518518518518517</v>
       </c>
     </row>
     <row r="66" spans="1:14" x14ac:dyDescent="0.2">
@@ -3061,7 +3061,7 @@
         <v>0.68116536725482146</v>
       </c>
       <c r="N66">
-        <v>-0.38017695718308331</v>
+        <v>0.16666666666666666</v>
       </c>
     </row>
     <row r="67" spans="1:14" x14ac:dyDescent="0.2">
@@ -3102,7 +3102,7 @@
         <v>0.67516722408026753</v>
       </c>
       <c r="N67">
-        <v>-0.38017695718308331</v>
+        <v>0.16666666666666666</v>
       </c>
     </row>
     <row r="68" spans="1:14" x14ac:dyDescent="0.2">
@@ -3143,7 +3143,7 @@
         <v>0.68806548901335629</v>
       </c>
       <c r="N68">
-        <v>-0.2424385032237685</v>
+        <v>0.20370370370370369</v>
       </c>
     </row>
     <row r="69" spans="1:14" x14ac:dyDescent="0.2">
@@ -3184,7 +3184,7 @@
         <v>0.67769897557131598</v>
       </c>
       <c r="N69">
-        <v>-0.2424385032237685</v>
+        <v>0.20370370370370369</v>
       </c>
     </row>
     <row r="70" spans="1:14" x14ac:dyDescent="0.2">
@@ -3225,7 +3225,7 @@
         <v>0.68701668701668706</v>
       </c>
       <c r="N70">
-        <v>-0.2424385032237685</v>
+        <v>0.20370370370370369</v>
       </c>
     </row>
     <row r="71" spans="1:14" x14ac:dyDescent="0.2">
@@ -3266,7 +3266,7 @@
         <v>0.64238952536824878</v>
       </c>
       <c r="N71">
-        <v>-0.17356927624411109</v>
+        <v>0.22222222222222221</v>
       </c>
     </row>
     <row r="72" spans="1:14" x14ac:dyDescent="0.2">
@@ -3307,7 +3307,7 @@
         <v>0.62880886426592797</v>
       </c>
       <c r="N72">
-        <v>-0.2424385032237685</v>
+        <v>0.20370370370370369</v>
       </c>
     </row>
     <row r="73" spans="1:14" x14ac:dyDescent="0.2">
@@ -3348,7 +3348,7 @@
         <v>0.66786140979689368</v>
       </c>
       <c r="N73">
-        <v>-0.1047000492644537</v>
+        <v>0.24074074074074073</v>
       </c>
     </row>
     <row r="74" spans="1:14" x14ac:dyDescent="0.2">
@@ -3389,7 +3389,7 @@
         <v>0.66475315729047069</v>
       </c>
       <c r="N74">
-        <v>-0.1047000492644537</v>
+        <v>0.24074074074074073</v>
       </c>
     </row>
     <row r="75" spans="1:14" x14ac:dyDescent="0.2">
@@ -3430,7 +3430,7 @@
         <v>0.68062622309197651</v>
       </c>
       <c r="N75">
-        <v>-3.5830822284796282E-2</v>
+        <v>0.25925925925925924</v>
       </c>
     </row>
     <row r="76" spans="1:14" x14ac:dyDescent="0.2">
@@ -3471,7 +3471,7 @@
         <v>0.6823861346231358</v>
       </c>
       <c r="N76">
-        <v>-3.5830822284796282E-2</v>
+        <v>0.25925925925925924</v>
       </c>
     </row>
     <row r="77" spans="1:14" x14ac:dyDescent="0.2">
@@ -3512,7 +3512,7 @@
         <v>0.67265306122448976</v>
       </c>
       <c r="N77">
-        <v>3.3038404694861127E-2</v>
+        <v>0.27777777777777779</v>
       </c>
     </row>
     <row r="78" spans="1:14" x14ac:dyDescent="0.2">
@@ -3553,7 +3553,7 @@
         <v>0.67127617542473328</v>
       </c>
       <c r="N78">
-        <v>-3.5830822284796282E-2</v>
+        <v>0.25925925925925924</v>
       </c>
     </row>
     <row r="79" spans="1:14" x14ac:dyDescent="0.2">
@@ -3594,7 +3594,7 @@
         <v>0.68991040124659131</v>
       </c>
       <c r="N79">
-        <v>3.3038404694861127E-2</v>
+        <v>0.27777777777777779</v>
       </c>
     </row>
     <row r="80" spans="1:14" x14ac:dyDescent="0.2">
@@ -3635,7 +3635,7 @@
         <v>0.66113239676458069</v>
       </c>
       <c r="N80">
-        <v>-3.5830822284796282E-2</v>
+        <v>0.25925925925925924</v>
       </c>
     </row>
     <row r="81" spans="1:14" x14ac:dyDescent="0.2">
@@ -3676,7 +3676,7 @@
         <v>0.68448553054662364</v>
       </c>
       <c r="N81">
-        <v>-0.17356927624411109</v>
+        <v>0.22222222222222221</v>
       </c>
     </row>
     <row r="82" spans="1:14" x14ac:dyDescent="0.2">
@@ -3717,7 +3717,7 @@
         <v>0.6849415204678363</v>
       </c>
       <c r="N82">
-        <v>0.17077685865417594</v>
+        <v>0.31481481481481483</v>
       </c>
     </row>
     <row r="83" spans="1:14" x14ac:dyDescent="0.2">
@@ -3758,7 +3758,7 @@
         <v>0.66655003498950327</v>
       </c>
       <c r="N83">
-        <v>-3.5830822284796282E-2</v>
+        <v>0.25925925925925924</v>
       </c>
     </row>
     <row r="84" spans="1:14" x14ac:dyDescent="0.2">
@@ -3799,7 +3799,7 @@
         <v>0.66954135633085055</v>
       </c>
       <c r="N84">
-        <v>-0.1047000492644537</v>
+        <v>0.24074074074074073</v>
       </c>
     </row>
     <row r="85" spans="1:14" x14ac:dyDescent="0.2">
@@ -3840,7 +3840,7 @@
         <v>0.64965464313123567</v>
       </c>
       <c r="N85">
-        <v>0.10190763167451854</v>
+        <v>0.29629629629629628</v>
       </c>
     </row>
     <row r="86" spans="1:14" x14ac:dyDescent="0.2">
@@ -3881,7 +3881,7 @@
         <v>0.68532586965213904</v>
       </c>
       <c r="N86">
-        <v>-0.1047000492644537</v>
+        <v>0.24074074074074073</v>
       </c>
     </row>
     <row r="87" spans="1:14" x14ac:dyDescent="0.2">
@@ -3922,7 +3922,7 @@
         <v>0.65792390099741416</v>
       </c>
       <c r="N87">
-        <v>-3.5830822284796282E-2</v>
+        <v>0.25925925925925924</v>
       </c>
     </row>
     <row r="88" spans="1:14" x14ac:dyDescent="0.2">
@@ -3963,7 +3963,7 @@
         <v>0.67406015037593969</v>
       </c>
       <c r="N88">
-        <v>0.10190763167451854</v>
+        <v>0.29629629629629628</v>
       </c>
     </row>
     <row r="89" spans="1:14" x14ac:dyDescent="0.2">
@@ -4004,7 +4004,7 @@
         <v>0.63172147001934231</v>
       </c>
       <c r="N89">
-        <v>3.3038404694861127E-2</v>
+        <v>0.27777777777777779</v>
       </c>
     </row>
     <row r="90" spans="1:14" x14ac:dyDescent="0.2">
@@ -4045,7 +4045,7 @@
         <v>0.66679672259071399</v>
       </c>
       <c r="N90">
-        <v>0.30851531261349074</v>
+        <v>0.35185185185185186</v>
       </c>
     </row>
     <row r="91" spans="1:14" x14ac:dyDescent="0.2">
@@ -4086,7 +4086,7 @@
         <v>0.68599771079740568</v>
       </c>
       <c r="N91">
-        <v>3.3038404694861127E-2</v>
+        <v>0.27777777777777779</v>
       </c>
     </row>
     <row r="92" spans="1:14" x14ac:dyDescent="0.2">
@@ -4127,7 +4127,7 @@
         <v>0.70401619979750252</v>
       </c>
       <c r="N92">
-        <v>0.17077685865417594</v>
+        <v>0.31481481481481483</v>
       </c>
     </row>
     <row r="93" spans="1:14" x14ac:dyDescent="0.2">
@@ -4168,7 +4168,7 @@
         <v>0.64733178654292345</v>
       </c>
       <c r="N93">
-        <v>3.3038404694861127E-2</v>
+        <v>0.27777777777777779</v>
       </c>
     </row>
     <row r="94" spans="1:14" x14ac:dyDescent="0.2">
@@ -4209,7 +4209,7 @@
         <v>0.515003489183531</v>
       </c>
       <c r="N94">
-        <v>0.17077685865417594</v>
+        <v>0.31481481481481483</v>
       </c>
     </row>
     <row r="95" spans="1:14" x14ac:dyDescent="0.2">
@@ -4250,7 +4250,7 @@
         <v>0.55890052356020947</v>
       </c>
       <c r="N95">
-        <v>0.10190763167451854</v>
+        <v>0.29629629629629628</v>
       </c>
     </row>
     <row r="96" spans="1:14" x14ac:dyDescent="0.2">
@@ -4291,7 +4291,7 @@
         <v>0.5978043912175649</v>
       </c>
       <c r="N96">
-        <v>0.23964608563383336</v>
+        <v>0.33333333333333331</v>
       </c>
     </row>
     <row r="97" spans="1:14" x14ac:dyDescent="0.2">
@@ -4332,7 +4332,7 @@
         <v>0.57914438502673793</v>
       </c>
       <c r="N97">
-        <v>0.37738453959314816</v>
+        <v>0.37037037037037035</v>
       </c>
     </row>
     <row r="98" spans="1:14" x14ac:dyDescent="0.2">
@@ -4373,7 +4373,7 @@
         <v>0.62006657156443179</v>
       </c>
       <c r="N98">
-        <v>0.13634224516434723</v>
+        <v>0.30555555555555558</v>
       </c>
     </row>
     <row r="99" spans="1:14" x14ac:dyDescent="0.2">
@@ -4414,7 +4414,7 @@
         <v>0.57821373257614872</v>
       </c>
       <c r="N99">
-        <v>0.10190763167451854</v>
+        <v>0.29629629629629628</v>
       </c>
     </row>
     <row r="100" spans="1:14" x14ac:dyDescent="0.2">
@@ -4455,7 +4455,7 @@
         <v>0.61717062634989206</v>
       </c>
       <c r="N100">
-        <v>-0.2424385032237685</v>
+        <v>0.20370370370370369</v>
       </c>
     </row>
     <row r="101" spans="1:14" x14ac:dyDescent="0.2">
@@ -4496,7 +4496,7 @@
         <v>0.59143155694879834</v>
       </c>
       <c r="N101">
-        <v>-0.44904618416274072</v>
+        <v>0.14814814814814814</v>
       </c>
     </row>
     <row r="102" spans="1:14" x14ac:dyDescent="0.2">
@@ -4537,7 +4537,7 @@
         <v>0.61578672242550969</v>
       </c>
       <c r="N102">
-        <v>-0.38017695718308331</v>
+        <v>0.16666666666666666</v>
       </c>
     </row>
     <row r="103" spans="1:14" x14ac:dyDescent="0.2">
@@ -4578,7 +4578,7 @@
         <v>0.52168949771689499</v>
       </c>
       <c r="N103">
-        <v>1.4104229442880092</v>
+        <v>0.64814814814814814</v>
       </c>
     </row>
     <row r="104" spans="1:14" x14ac:dyDescent="0.2">
@@ -4619,7 +4619,7 @@
         <v>0.66577181208053693</v>
       </c>
       <c r="N104">
-        <v>-0.93113077302034264</v>
+        <v>1.8518518518518517E-2</v>
       </c>
     </row>
     <row r="105" spans="1:14" x14ac:dyDescent="0.2">
@@ -4660,7 +4660,7 @@
         <v>0.67368772985623537</v>
       </c>
       <c r="N105">
-        <v>0.10190763167451854</v>
+        <v>0.29629629629629628</v>
       </c>
     </row>
     <row r="106" spans="1:14" x14ac:dyDescent="0.2">
@@ -4701,7 +4701,7 @@
         <v>0.69007021063189566</v>
       </c>
       <c r="N106">
-        <v>0.10190763167451854</v>
+        <v>0.29629629629629628</v>
       </c>
     </row>
     <row r="107" spans="1:14" x14ac:dyDescent="0.2">
@@ -4742,7 +4742,7 @@
         <v>0.70836189170664843</v>
       </c>
       <c r="N107">
-        <v>0.10190763167451854</v>
+        <v>0.29629629629629628</v>
       </c>
     </row>
     <row r="108" spans="1:14" x14ac:dyDescent="0.2">
@@ -4783,7 +4783,7 @@
         <v>0.70295426952650752</v>
       </c>
       <c r="N108">
-        <v>0.17077685865417594</v>
+        <v>0.31481481481481483</v>
       </c>
     </row>
     <row r="109" spans="1:14" x14ac:dyDescent="0.2">
@@ -4824,7 +4824,7 @@
         <v>0.7412329272794389</v>
       </c>
       <c r="N109">
-        <v>3.3038404694861127E-2</v>
+        <v>0.27777777777777779</v>
       </c>
     </row>
     <row r="110" spans="1:14" x14ac:dyDescent="0.2">
@@ -4865,7 +4865,7 @@
         <v>0.73465889612615698</v>
       </c>
       <c r="N110">
-        <v>0.10190763167451854</v>
+        <v>0.29629629629629628</v>
       </c>
     </row>
     <row r="111" spans="1:14" x14ac:dyDescent="0.2">
@@ -4906,7 +4906,7 @@
         <v>0.71844331641285952</v>
       </c>
       <c r="N111">
-        <v>-0.1047000492644537</v>
+        <v>0.24074074074074073</v>
       </c>
     </row>
     <row r="112" spans="1:14" x14ac:dyDescent="0.2">
@@ -4947,7 +4947,7 @@
         <v>0.71739130434782605</v>
       </c>
       <c r="N112">
-        <v>0.23964608563383336</v>
+        <v>0.33333333333333331</v>
       </c>
     </row>
     <row r="113" spans="1:14" x14ac:dyDescent="0.2">
@@ -4988,7 +4988,7 @@
         <v>0.73152629880606634</v>
       </c>
       <c r="N113">
-        <v>0.23964608563383336</v>
+        <v>0.33333333333333331</v>
       </c>
     </row>
     <row r="114" spans="1:14" x14ac:dyDescent="0.2">
@@ -5029,7 +5029,7 @@
         <v>0.69272603670972133</v>
       </c>
       <c r="N114">
-        <v>-0.1047000492644537</v>
+        <v>0.24074074074074073</v>
       </c>
     </row>
     <row r="115" spans="1:14" x14ac:dyDescent="0.2">
@@ -5070,7 +5070,7 @@
         <v>0.66926345609065152</v>
       </c>
       <c r="N115">
-        <v>0.10190763167451854</v>
+        <v>0.29629629629629628</v>
       </c>
     </row>
     <row r="116" spans="1:14" x14ac:dyDescent="0.2">
@@ -5111,7 +5111,7 @@
         <v>0.70309585975382316</v>
       </c>
       <c r="N116">
-        <v>0.10190763167451854</v>
+        <v>0.29629629629629628</v>
       </c>
     </row>
     <row r="117" spans="1:14" x14ac:dyDescent="0.2">
@@ -5152,7 +5152,7 @@
         <v>0.74474589224302634</v>
       </c>
       <c r="N117">
-        <v>-3.5830822284796282E-2</v>
+        <v>0.25925925925925924</v>
       </c>
     </row>
     <row r="118" spans="1:14" x14ac:dyDescent="0.2">
@@ -5193,7 +5193,7 @@
         <v>0.69191748393642205</v>
       </c>
       <c r="N118">
-        <v>3.3038404694861127E-2</v>
+        <v>0.27777777777777779</v>
       </c>
     </row>
     <row r="119" spans="1:14" x14ac:dyDescent="0.2">
@@ -5234,7 +5234,7 @@
         <v>0.72720797720797714</v>
       </c>
       <c r="N119">
-        <v>-0.5867846381220555</v>
+        <v>0.1111111111111111</v>
       </c>
     </row>
     <row r="120" spans="1:14" x14ac:dyDescent="0.2">
@@ -5275,7 +5275,7 @@
         <v>0.69894813202756623</v>
       </c>
       <c r="N120">
-        <v>3.3038404694861127E-2</v>
+        <v>0.27777777777777779</v>
       </c>
     </row>
     <row r="121" spans="1:14" x14ac:dyDescent="0.2">
@@ -5316,7 +5316,7 @@
         <v>0.70650199782055934</v>
       </c>
       <c r="N121">
-        <v>-0.38017695718308331</v>
+        <v>0.16666666666666666</v>
       </c>
     </row>
     <row r="122" spans="1:14" x14ac:dyDescent="0.2">
@@ -5357,7 +5357,7 @@
         <v>0.72410791993037416</v>
       </c>
       <c r="N122">
-        <v>-0.31130773020342589</v>
+        <v>0.18518518518518517</v>
       </c>
     </row>
     <row r="123" spans="1:14" x14ac:dyDescent="0.2">
@@ -5398,7 +5398,7 @@
         <v>0.69616026711185308</v>
       </c>
       <c r="N123">
-        <v>-0.31130773020342589</v>
+        <v>0.18518518518518517</v>
       </c>
     </row>
     <row r="124" spans="1:14" x14ac:dyDescent="0.2">
@@ -5439,7 +5439,7 @@
         <v>0.72671817812118744</v>
       </c>
       <c r="N124">
-        <v>-0.17356927624411109</v>
+        <v>0.22222222222222221</v>
       </c>
     </row>
     <row r="125" spans="1:14" x14ac:dyDescent="0.2">
@@ -5480,7 +5480,7 @@
         <v>0.62603495860165592</v>
       </c>
       <c r="N125">
-        <v>-0.2424385032237685</v>
+        <v>0.20370370370370369</v>
       </c>
     </row>
     <row r="126" spans="1:14" x14ac:dyDescent="0.2">
@@ -5521,7 +5521,7 @@
         <v>0.69754253308128544</v>
       </c>
       <c r="N126">
-        <v>-0.17356927624411109</v>
+        <v>0.22222222222222221</v>
       </c>
     </row>
     <row r="127" spans="1:14" x14ac:dyDescent="0.2">
@@ -5562,7 +5562,7 @@
         <v>0.6986201888162672</v>
       </c>
       <c r="N127">
-        <v>-0.1047000492644537</v>
+        <v>0.24074074074074073</v>
       </c>
     </row>
     <row r="128" spans="1:14" x14ac:dyDescent="0.2">
@@ -5603,7 +5603,7 @@
         <v>0.66187302700806738</v>
       </c>
       <c r="N128">
-        <v>-0.5867846381220555</v>
+        <v>0.1111111111111111</v>
       </c>
     </row>
     <row r="129" spans="1:14" x14ac:dyDescent="0.2">
@@ -5644,7 +5644,7 @@
         <v>0.69691598723856785</v>
       </c>
       <c r="N129">
-        <v>-0.2424385032237685</v>
+        <v>0.20370370370370369</v>
       </c>
     </row>
     <row r="130" spans="1:14" x14ac:dyDescent="0.2">
@@ -5685,7 +5685,7 @@
         <v>0.71839464882943149</v>
       </c>
       <c r="N130">
-        <v>-0.2424385032237685</v>
+        <v>0.20370370370370369</v>
       </c>
     </row>
     <row r="131" spans="1:14" x14ac:dyDescent="0.2">
@@ -5726,7 +5726,7 @@
         <v>0.70185614849187938</v>
       </c>
       <c r="N131">
-        <v>-0.31130773020342589</v>
+        <v>0.18518518518518517</v>
       </c>
     </row>
     <row r="132" spans="1:14" x14ac:dyDescent="0.2">
@@ -5767,7 +5767,7 @@
         <v>0.72577556491765605</v>
       </c>
       <c r="N132">
-        <v>-0.17356927624411109</v>
+        <v>0.22222222222222221</v>
       </c>
     </row>
     <row r="133" spans="1:14" x14ac:dyDescent="0.2">
@@ -5808,7 +5808,7 @@
         <v>0.71434078643022358</v>
       </c>
       <c r="N133">
-        <v>-0.51791541114239814</v>
+        <v>0.12962962962962962</v>
       </c>
     </row>
     <row r="134" spans="1:14" x14ac:dyDescent="0.2">
@@ -5849,7 +5849,7 @@
         <v>0.72118551042810097</v>
       </c>
       <c r="N134">
-        <v>-0.31130773020342589</v>
+        <v>0.18518518518518517</v>
       </c>
     </row>
     <row r="135" spans="1:14" x14ac:dyDescent="0.2">
@@ -5890,7 +5890,7 @@
         <v>0.71876179690449216</v>
       </c>
       <c r="N135">
-        <v>0.10190763167451854</v>
+        <v>0.29629629629629628</v>
       </c>
     </row>
     <row r="136" spans="1:14" x14ac:dyDescent="0.2">
@@ -5931,7 +5931,7 @@
         <v>0.69218870843000768</v>
       </c>
       <c r="N136">
-        <v>-0.1047000492644537</v>
+        <v>0.24074074074074073</v>
       </c>
     </row>
     <row r="137" spans="1:14" x14ac:dyDescent="0.2">
@@ -5972,7 +5972,7 @@
         <v>0.7563608326908251</v>
       </c>
       <c r="N137">
-        <v>-0.38017695718308331</v>
+        <v>0.16666666666666666</v>
       </c>
     </row>
     <row r="138" spans="1:14" x14ac:dyDescent="0.2">
@@ -6013,7 +6013,7 @@
         <v>0.74008975317875847</v>
       </c>
       <c r="N138">
-        <v>-3.5830822284796282E-2</v>
+        <v>0.25925925925925924</v>
       </c>
     </row>
     <row r="139" spans="1:14" x14ac:dyDescent="0.2">
@@ -6054,7 +6054,7 @@
         <v>0.74146695715323163</v>
       </c>
       <c r="N139">
-        <v>-0.17356927624411109</v>
+        <v>0.22222222222222221</v>
       </c>
     </row>
     <row r="140" spans="1:14" x14ac:dyDescent="0.2">
@@ -6095,7 +6095,7 @@
         <v>0.72027257240204434</v>
       </c>
       <c r="N140">
-        <v>-0.17356927624411109</v>
+        <v>0.22222222222222221</v>
       </c>
     </row>
     <row r="141" spans="1:14" x14ac:dyDescent="0.2">
@@ -6136,7 +6136,7 @@
         <v>0.74875717017208421</v>
       </c>
       <c r="N141">
-        <v>-0.38017695718308331</v>
+        <v>0.16666666666666666</v>
       </c>
     </row>
     <row r="142" spans="1:14" x14ac:dyDescent="0.2">
@@ -6177,7 +6177,7 @@
         <v>0.73112002918642827</v>
       </c>
       <c r="N142">
-        <v>-0.31130773020342589</v>
+        <v>0.18518518518518517</v>
       </c>
     </row>
     <row r="143" spans="1:14" x14ac:dyDescent="0.2">
@@ -6218,7 +6218,7 @@
         <v>0.74716477651767843</v>
       </c>
       <c r="N143">
-        <v>-3.5830822284796282E-2</v>
+        <v>0.25925925925925924</v>
       </c>
     </row>
     <row r="144" spans="1:14" x14ac:dyDescent="0.2">
@@ -6259,7 +6259,7 @@
         <v>0.7318415260454878</v>
       </c>
       <c r="N144">
-        <v>-0.31130773020342589</v>
+        <v>0.18518518518518517</v>
       </c>
     </row>
     <row r="145" spans="1:14" x14ac:dyDescent="0.2">
@@ -6300,7 +6300,7 @@
         <v>0.75284495021337117</v>
       </c>
       <c r="N145">
-        <v>-0.44904618416274072</v>
+        <v>0.14814814814814814</v>
       </c>
     </row>
     <row r="146" spans="1:14" x14ac:dyDescent="0.2">
@@ -6341,7 +6341,7 @@
         <v>0.73718647764449297</v>
       </c>
       <c r="N146">
-        <v>-0.31130773020342589</v>
+        <v>0.18518518518518517</v>
       </c>
     </row>
     <row r="147" spans="1:14" x14ac:dyDescent="0.2">
@@ -6382,7 +6382,7 @@
         <v>0.75347841598287546</v>
       </c>
       <c r="N147">
-        <v>-0.2424385032237685</v>
+        <v>0.20370370370370369</v>
       </c>
     </row>
     <row r="148" spans="1:14" x14ac:dyDescent="0.2">
@@ -6423,7 +6423,7 @@
         <v>0.73399715504978658</v>
       </c>
       <c r="N148">
-        <v>-0.2424385032237685</v>
+        <v>0.20370370370370369</v>
       </c>
     </row>
     <row r="149" spans="1:14" x14ac:dyDescent="0.2">
@@ -6464,7 +6464,7 @@
         <v>0.75086028905712321</v>
       </c>
       <c r="N149">
-        <v>-0.17356927624411109</v>
+        <v>0.22222222222222221</v>
       </c>
     </row>
     <row r="150" spans="1:14" x14ac:dyDescent="0.2">
@@ -6505,7 +6505,7 @@
         <v>0.73318457124641379</v>
       </c>
       <c r="N150">
-        <v>-0.44904618416274072</v>
+        <v>0.14814814814814814</v>
       </c>
     </row>
     <row r="151" spans="1:14" x14ac:dyDescent="0.2">
@@ -6546,7 +6546,7 @@
         <v>0.7386950904392765</v>
       </c>
       <c r="N151">
-        <v>-0.44904618416274072</v>
+        <v>0.14814814814814814</v>
       </c>
     </row>
     <row r="152" spans="1:14" x14ac:dyDescent="0.2">
@@ -6587,7 +6587,7 @@
         <v>0.74780952380952381</v>
       </c>
       <c r="N152">
-        <v>-0.5867846381220555</v>
+        <v>0.1111111111111111</v>
       </c>
     </row>
     <row r="153" spans="1:14" x14ac:dyDescent="0.2">
@@ -6628,7 +6628,7 @@
         <v>0.6844559585492227</v>
       </c>
       <c r="N153">
-        <v>-0.65565386510171297</v>
+        <v>9.2592592592592587E-2</v>
       </c>
     </row>
     <row r="154" spans="1:14" x14ac:dyDescent="0.2">
@@ -6669,7 +6669,7 @@
         <v>0.73748862602365794</v>
       </c>
       <c r="N154">
-        <v>-0.65565386510171297</v>
+        <v>9.2592592592592587E-2</v>
       </c>
     </row>
     <row r="155" spans="1:14" x14ac:dyDescent="0.2">
@@ -6710,7 +6710,7 @@
         <v>0.69599999999999995</v>
       </c>
       <c r="N155">
-        <v>-0.1047000492644537</v>
+        <v>0.24074074074074073</v>
       </c>
     </row>
     <row r="156" spans="1:14" x14ac:dyDescent="0.2">
@@ -6751,7 +6751,7 @@
         <v>0.77053726169844017</v>
       </c>
       <c r="N156">
-        <v>-0.17356927624411109</v>
+        <v>0.22222222222222221</v>
       </c>
     </row>
     <row r="157" spans="1:14" x14ac:dyDescent="0.2">
@@ -6792,7 +6792,7 @@
         <v>0.71625964010282772</v>
       </c>
       <c r="N157">
-        <v>-0.44904618416274072</v>
+        <v>0.14814814814814814</v>
       </c>
     </row>
     <row r="158" spans="1:14" x14ac:dyDescent="0.2">
@@ -6833,7 +6833,7 @@
         <v>0.70330969267139476</v>
       </c>
       <c r="N158">
-        <v>-0.44904618416274072</v>
+        <v>0.14814814814814814</v>
       </c>
     </row>
     <row r="159" spans="1:14" x14ac:dyDescent="0.2">
@@ -6874,7 +6874,7 @@
         <v>0.72471042471042468</v>
       </c>
       <c r="N159">
-        <v>-0.72452309208137033</v>
+        <v>7.407407407407407E-2</v>
       </c>
     </row>
     <row r="160" spans="1:14" x14ac:dyDescent="0.2">
@@ -6915,7 +6915,7 @@
         <v>0.73256247668780305</v>
       </c>
       <c r="N160">
-        <v>-0.51791541114239814</v>
+        <v>0.12962962962962962</v>
       </c>
     </row>
     <row r="161" spans="1:14" x14ac:dyDescent="0.2">
@@ -6956,7 +6956,7 @@
         <v>0.75009120758847136</v>
       </c>
       <c r="N161">
-        <v>-0.31130773020342589</v>
+        <v>0.18518518518518517</v>
       </c>
     </row>
     <row r="162" spans="1:14" x14ac:dyDescent="0.2">
@@ -6997,7 +6997,7 @@
         <v>0.73424253593807587</v>
       </c>
       <c r="N162">
-        <v>-0.44904618416274072</v>
+        <v>0.14814814814814814</v>
       </c>
     </row>
     <row r="163" spans="1:14" x14ac:dyDescent="0.2">
@@ -7038,7 +7038,7 @@
         <v>0.69444444444444442</v>
       </c>
       <c r="N163">
-        <v>-0.51791541114239814</v>
+        <v>0.12962962962962962</v>
       </c>
     </row>
     <row r="164" spans="1:14" x14ac:dyDescent="0.2">
@@ -7079,7 +7079,7 @@
         <v>0.69292389853137526</v>
       </c>
       <c r="N164">
-        <v>-0.2424385032237685</v>
+        <v>0.20370370370370369</v>
       </c>
     </row>
     <row r="165" spans="1:14" x14ac:dyDescent="0.2">
@@ -7120,7 +7120,7 @@
         <v>0.69141145139813587</v>
       </c>
       <c r="N165">
-        <v>-0.5867846381220555</v>
+        <v>0.1111111111111111</v>
       </c>
     </row>
     <row r="166" spans="1:14" x14ac:dyDescent="0.2">
@@ -7161,7 +7161,7 @@
         <v>0.72416130125381228</v>
       </c>
       <c r="N166">
-        <v>-0.44904618416274072</v>
+        <v>0.14814814814814814</v>
       </c>
     </row>
     <row r="167" spans="1:14" x14ac:dyDescent="0.2">
@@ -7202,7 +7202,7 @@
         <v>0.68400000000000005</v>
       </c>
       <c r="N167">
-        <v>-0.44904618416274072</v>
+        <v>0.14814814814814814</v>
       </c>
     </row>
     <row r="168" spans="1:14" x14ac:dyDescent="0.2">
@@ -7243,7 +7243,7 @@
         <v>0.74013474494706444</v>
       </c>
       <c r="N168">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="169" spans="1:14" x14ac:dyDescent="0.2">
@@ -7284,7 +7284,7 @@
         <v>0.68607269218398204</v>
       </c>
       <c r="N169">
-        <v>-0.79339231906102781</v>
+        <v>5.5555555555555552E-2</v>
       </c>
     </row>
     <row r="170" spans="1:14" x14ac:dyDescent="0.2">
@@ -7325,7 +7325,7 @@
         <v>0.73790451778276189</v>
       </c>
       <c r="N170">
-        <v>-0.1047000492644537</v>
+        <v>0.24074074074074073</v>
       </c>
     </row>
     <row r="171" spans="1:14" x14ac:dyDescent="0.2">
@@ -7357,7 +7357,7 @@
         <v>0.20585980704411408</v>
       </c>
       <c r="J171">
-        <v>0.83121315909776128</v>
+        <v>0.83121315909776095</v>
       </c>
       <c r="K171">
         <v>0.30109892191294774</v>
@@ -7366,7 +7366,7 @@
         <v>0.7261749347258486</v>
       </c>
       <c r="N171">
-        <v>-0.17356927624411109</v>
+        <v>0.22222222222222221</v>
       </c>
     </row>
     <row r="172" spans="1:14" x14ac:dyDescent="0.2">
@@ -7407,7 +7407,7 @@
         <v>0.70433333333333337</v>
       </c>
       <c r="N172">
-        <v>-0.51791541114239814</v>
+        <v>0.12962962962962962</v>
       </c>
     </row>
     <row r="173" spans="1:14" x14ac:dyDescent="0.2">
@@ -7448,7 +7448,7 @@
         <v>0.72606635071090042</v>
       </c>
       <c r="N173">
-        <v>-0.72452309208137033</v>
+        <v>7.407407407407407E-2</v>
       </c>
     </row>
     <row r="174" spans="1:14" x14ac:dyDescent="0.2">
@@ -7489,7 +7489,7 @@
         <v>0.57677509618747813</v>
       </c>
       <c r="N174">
-        <v>-0.31130773020342589</v>
+        <v>0.18518518518518517</v>
       </c>
     </row>
     <row r="175" spans="1:14" x14ac:dyDescent="0.2">
@@ -7530,7 +7530,7 @@
         <v>0.74255319148936172</v>
       </c>
       <c r="N175">
-        <v>-0.17356927624411109</v>
+        <v>0.22222222222222221</v>
       </c>
     </row>
     <row r="176" spans="1:14" x14ac:dyDescent="0.2">
@@ -7571,7 +7571,7 @@
         <v>0.66507319988048996</v>
       </c>
       <c r="N176">
-        <v>-0.2424385032237685</v>
+        <v>0.20370370370370369</v>
       </c>
     </row>
     <row r="177" spans="1:14" x14ac:dyDescent="0.2">
@@ -7612,7 +7612,7 @@
         <v>0.71021453730387452</v>
       </c>
       <c r="N177">
-        <v>-0.44904618416274072</v>
+        <v>0.14814814814814814</v>
       </c>
     </row>
     <row r="178" spans="1:14" x14ac:dyDescent="0.2">
@@ -7653,7 +7653,7 @@
         <v>0.71000965561635032</v>
       </c>
       <c r="N178">
-        <v>-0.38017695718308331</v>
+        <v>0.16666666666666666</v>
       </c>
     </row>
     <row r="179" spans="1:14" x14ac:dyDescent="0.2">
@@ -7694,7 +7694,7 @@
         <v>0.76047329708986244</v>
       </c>
       <c r="N179">
-        <v>-0.17356927624411109</v>
+        <v>0.22222222222222221</v>
       </c>
     </row>
     <row r="180" spans="1:14" x14ac:dyDescent="0.2">
@@ -7735,7 +7735,7 @@
         <v>0.72635514018691594</v>
       </c>
       <c r="N180">
-        <v>-0.51791541114239814</v>
+        <v>0.12962962962962962</v>
       </c>
     </row>
     <row r="181" spans="1:14" x14ac:dyDescent="0.2">
@@ -7776,7 +7776,7 @@
         <v>0.65905743740795286</v>
       </c>
       <c r="N181">
-        <v>-0.2424385032237685</v>
+        <v>0.20370370370370369</v>
       </c>
     </row>
     <row r="182" spans="1:14" x14ac:dyDescent="0.2">
@@ -7817,7 +7817,7 @@
         <v>0.70955096222380609</v>
       </c>
       <c r="N182">
-        <v>-0.31130773020342589</v>
+        <v>0.18518518518518517</v>
       </c>
     </row>
     <row r="183" spans="1:14" x14ac:dyDescent="0.2">
@@ -7858,7 +7858,7 @@
         <v>0.67294649585531274</v>
       </c>
       <c r="N183">
-        <v>-0.38017695718308331</v>
+        <v>0.16666666666666666</v>
       </c>
     </row>
     <row r="184" spans="1:14" x14ac:dyDescent="0.2">
@@ -7899,7 +7899,7 @@
         <v>0.72144948755490479</v>
       </c>
       <c r="N184">
-        <v>-0.38017695718308331</v>
+        <v>0.16666666666666666</v>
       </c>
     </row>
     <row r="185" spans="1:14" x14ac:dyDescent="0.2">
@@ -7940,7 +7940,7 @@
         <v>0.69104624467038378</v>
       </c>
       <c r="N185">
-        <v>-0.31130773020342589</v>
+        <v>0.18518518518518517</v>
       </c>
     </row>
     <row r="186" spans="1:14" x14ac:dyDescent="0.2">
@@ -7981,7 +7981,7 @@
         <v>0.68508655126498008</v>
       </c>
       <c r="N186">
-        <v>0.10190763167451854</v>
+        <v>0.29629629629629628</v>
       </c>
     </row>
     <row r="187" spans="1:14" x14ac:dyDescent="0.2">
@@ -8022,7 +8022,7 @@
         <v>0.72157279489904358</v>
       </c>
       <c r="N187">
-        <v>0.51512299355246294</v>
+        <v>0.40740740740740738</v>
       </c>
     </row>
     <row r="188" spans="1:14" x14ac:dyDescent="0.2">
@@ -8063,7 +8063,7 @@
         <v>0.63589031586254774</v>
       </c>
       <c r="N188">
-        <v>0.23964608563383336</v>
+        <v>0.33333333333333331</v>
       </c>
     </row>
     <row r="189" spans="1:14" x14ac:dyDescent="0.2">
@@ -8104,7 +8104,7 @@
         <v>0.67320872274143317</v>
       </c>
       <c r="N189">
-        <v>-0.38017695718308331</v>
+        <v>0.16666666666666666</v>
       </c>
     </row>
     <row r="190" spans="1:14" x14ac:dyDescent="0.2">
@@ -8145,7 +8145,7 @@
         <v>0.70933333333333337</v>
       </c>
       <c r="N190">
-        <v>0.23964608563383336</v>
+        <v>0.33333333333333331</v>
       </c>
     </row>
     <row r="191" spans="1:14" x14ac:dyDescent="0.2">
@@ -8186,7 +8186,7 @@
         <v>0.75059221658206421</v>
       </c>
       <c r="N191">
-        <v>0.10190763167451854</v>
+        <v>0.29629629629629628</v>
       </c>
     </row>
     <row r="192" spans="1:14" x14ac:dyDescent="0.2">
@@ -8227,7 +8227,7 @@
         <v>0.69221183800623054</v>
       </c>
       <c r="N192">
-        <v>-0.1047000492644537</v>
+        <v>0.24074074074074073</v>
       </c>
     </row>
     <row r="193" spans="1:14" x14ac:dyDescent="0.2">
@@ -8268,7 +8268,7 @@
         <v>0.70516717325227962</v>
       </c>
       <c r="N193">
-        <v>-0.44904618416274072</v>
+        <v>0.14814814814814814</v>
       </c>
     </row>
     <row r="194" spans="1:14" x14ac:dyDescent="0.2">
@@ -8309,7 +8309,7 @@
         <v>0.65669132481506376</v>
       </c>
       <c r="N194">
-        <v>-0.31130773020342589</v>
+        <v>0.18518518518518517</v>
       </c>
     </row>
     <row r="195" spans="1:14" x14ac:dyDescent="0.2">
@@ -8350,7 +8350,7 @@
         <v>0.69340974212034379</v>
       </c>
       <c r="N195">
-        <v>3.3038404694861127E-2</v>
+        <v>0.27777777777777779</v>
       </c>
     </row>
     <row r="196" spans="1:14" x14ac:dyDescent="0.2">
@@ -8391,7 +8391,7 @@
         <v>0.6583592938733126</v>
       </c>
       <c r="N196">
-        <v>3.3038404694861127E-2</v>
+        <v>0.27777777777777779</v>
       </c>
     </row>
     <row r="197" spans="1:14" x14ac:dyDescent="0.2">
@@ -8432,7 +8432,7 @@
         <v>0.70409356725146199</v>
       </c>
       <c r="N197">
-        <v>-3.5830822284796282E-2</v>
+        <v>0.25925925925925924</v>
       </c>
     </row>
     <row r="198" spans="1:14" x14ac:dyDescent="0.2">
@@ -8473,7 +8473,7 @@
         <v>0.71752652762532021</v>
       </c>
       <c r="N198">
-        <v>-0.72452309208137033</v>
+        <v>7.407407407407407E-2</v>
       </c>
     </row>
     <row r="199" spans="1:14" x14ac:dyDescent="0.2">
@@ -8514,7 +8514,7 @@
         <v>0.72697259821723337</v>
       </c>
       <c r="N199">
-        <v>-0.5867846381220555</v>
+        <v>0.1111111111111111</v>
       </c>
     </row>
     <row r="200" spans="1:14" x14ac:dyDescent="0.2">
@@ -8555,7 +8555,7 @@
         <v>0.67169811320754713</v>
       </c>
       <c r="N200">
-        <v>-3.5830822284796282E-2</v>
+        <v>0.25925925925925924</v>
       </c>
     </row>
     <row r="201" spans="1:14" x14ac:dyDescent="0.2">
@@ -8596,7 +8596,7 @@
         <v>0.69331948771201113</v>
       </c>
       <c r="N201">
-        <v>-0.44904618416274072</v>
+        <v>0.14814814814814814</v>
       </c>
     </row>
     <row r="202" spans="1:14" x14ac:dyDescent="0.2">
@@ -8637,7 +8637,7 @@
         <v>0.67074317968015051</v>
       </c>
       <c r="N202">
-        <v>-0.38017695718308331</v>
+        <v>0.16666666666666666</v>
       </c>
     </row>
     <row r="203" spans="1:14" x14ac:dyDescent="0.2">
@@ -8678,7 +8678,7 @@
         <v>0.71857285761920631</v>
       </c>
       <c r="N203">
-        <v>-0.17356927624411109</v>
+        <v>0.22222222222222221</v>
       </c>
     </row>
     <row r="204" spans="1:14" x14ac:dyDescent="0.2">
@@ -8719,7 +8719,7 @@
         <v>0.69621046038208578</v>
       </c>
       <c r="N204">
-        <v>-3.5830822284796282E-2</v>
+        <v>0.25925925925925924</v>
       </c>
     </row>
     <row r="205" spans="1:14" x14ac:dyDescent="0.2">
@@ -8760,7 +8760,7 @@
         <v>0.72143734643734647</v>
       </c>
       <c r="N205">
-        <v>-3.5830822284796282E-2</v>
+        <v>0.25925925925925924</v>
       </c>
     </row>
     <row r="206" spans="1:14" x14ac:dyDescent="0.2">
@@ -8801,7 +8801,7 @@
         <v>0.72704153715738906</v>
       </c>
       <c r="N206">
-        <v>-0.44904618416274072</v>
+        <v>0.14814814814814814</v>
       </c>
     </row>
     <row r="207" spans="1:14" x14ac:dyDescent="0.2">
@@ -8842,7 +8842,7 @@
         <v>0.74011299435028244</v>
       </c>
       <c r="N207">
-        <v>-0.44904618416274072</v>
+        <v>0.14814814814814814</v>
       </c>
     </row>
     <row r="208" spans="1:14" x14ac:dyDescent="0.2">
@@ -8883,7 +8883,7 @@
         <v>0.65338516358924525</v>
       </c>
       <c r="N208">
-        <v>-3.5830822284796282E-2</v>
+        <v>0.25925925925925924</v>
       </c>
     </row>
     <row r="209" spans="1:14" x14ac:dyDescent="0.2">
@@ -8924,7 +8924,7 @@
         <v>0.6993032636596993</v>
       </c>
       <c r="N209">
-        <v>-0.2424385032237685</v>
+        <v>0.20370370370370369</v>
       </c>
     </row>
     <row r="210" spans="1:14" x14ac:dyDescent="0.2">
@@ -8965,7 +8965,7 @@
         <v>0.69789473684210523</v>
       </c>
       <c r="N210">
-        <v>0.10190763167451854</v>
+        <v>0.29629629629629628</v>
       </c>
     </row>
     <row r="211" spans="1:14" x14ac:dyDescent="0.2">
@@ -9006,7 +9006,7 @@
         <v>0.70422535211267601</v>
       </c>
       <c r="N211">
-        <v>-0.5867846381220555</v>
+        <v>0.1111111111111111</v>
       </c>
     </row>
     <row r="212" spans="1:14" x14ac:dyDescent="0.2">
@@ -9047,7 +9047,7 @@
         <v>0.73405445729205521</v>
       </c>
       <c r="N212">
-        <v>-0.31130773020342589</v>
+        <v>0.18518518518518517</v>
       </c>
     </row>
     <row r="213" spans="1:14" x14ac:dyDescent="0.2">
@@ -9088,7 +9088,7 @@
         <v>0.67561059511523913</v>
       </c>
       <c r="N213">
-        <v>0.37738453959314816</v>
+        <v>0.37037037037037035</v>
       </c>
     </row>
     <row r="214" spans="1:14" x14ac:dyDescent="0.2">
@@ -9129,7 +9129,7 @@
         <v>0.70578231292517002</v>
       </c>
       <c r="N214">
-        <v>-0.31130773020342589</v>
+        <v>0.18518518518518517</v>
       </c>
     </row>
     <row r="215" spans="1:14" x14ac:dyDescent="0.2">
@@ -9170,7 +9170,7 @@
         <v>0.69062947067238911</v>
       </c>
       <c r="N215">
-        <v>0.10190763167451854</v>
+        <v>0.29629629629629628</v>
       </c>
     </row>
     <row r="216" spans="1:14" x14ac:dyDescent="0.2">
@@ -9211,7 +9211,7 @@
         <v>0.67489711934156393</v>
       </c>
       <c r="N216">
-        <v>-3.5830822284796282E-2</v>
+        <v>0.25925925925925924</v>
       </c>
     </row>
     <row r="217" spans="1:14" x14ac:dyDescent="0.2">
@@ -9252,7 +9252,7 @@
         <v>0.67325017325017322</v>
       </c>
       <c r="N217">
-        <v>0.37738453959314816</v>
+        <v>0.37037037037037035</v>
       </c>
     </row>
     <row r="218" spans="1:14" x14ac:dyDescent="0.2">
@@ -9293,7 +9293,7 @@
         <v>0.71202236719478096</v>
       </c>
       <c r="N218">
-        <v>0.23964608563383336</v>
+        <v>0.33333333333333331</v>
       </c>
     </row>
     <row r="219" spans="1:14" x14ac:dyDescent="0.2">
@@ -9334,7 +9334,7 @@
         <v>0.72</v>
       </c>
       <c r="N219">
-        <v>-0.65565386510171297</v>
+        <v>9.2592592592592587E-2</v>
       </c>
     </row>
     <row r="220" spans="1:14" x14ac:dyDescent="0.2">
@@ -9375,7 +9375,7 @@
         <v>0.73620633365981059</v>
       </c>
       <c r="N220">
-        <v>-3.5830822284796282E-2</v>
+        <v>0.25925925925925924</v>
       </c>
     </row>
     <row r="221" spans="1:14" x14ac:dyDescent="0.2">
@@ -9416,7 +9416,7 @@
         <v>0.69711023902961111</v>
       </c>
       <c r="N221">
-        <v>-0.31130773020342589</v>
+        <v>0.18518518518518517</v>
       </c>
     </row>
     <row r="222" spans="1:14" x14ac:dyDescent="0.2">
@@ -9457,7 +9457,7 @@
         <v>0.65197461212976027</v>
       </c>
       <c r="N222">
-        <v>-0.31130773020342589</v>
+        <v>0.18518518518518517</v>
       </c>
     </row>
     <row r="223" spans="1:14" x14ac:dyDescent="0.2">
@@ -9498,7 +9498,7 @@
         <v>0.73099999999999998</v>
       </c>
       <c r="N223">
-        <v>-0.1047000492644537</v>
+        <v>0.24074074074074073</v>
       </c>
     </row>
     <row r="224" spans="1:14" x14ac:dyDescent="0.2">
@@ -9539,7 +9539,7 @@
         <v>0.6338500209467951</v>
       </c>
       <c r="N224">
-        <v>-0.5867846381220555</v>
+        <v>0.1111111111111111</v>
       </c>
     </row>
     <row r="225" spans="1:14" x14ac:dyDescent="0.2">
@@ -9580,7 +9580,7 @@
         <v>0.60767097966728278</v>
       </c>
       <c r="N225">
-        <v>-0.65565386510171297</v>
+        <v>9.2592592592592587E-2</v>
       </c>
     </row>
     <row r="226" spans="1:14" x14ac:dyDescent="0.2">
@@ -9621,7 +9621,7 @@
         <v>0.72159951529839428</v>
       </c>
       <c r="N226">
-        <v>0.37738453959314816</v>
+        <v>0.37037037037037035</v>
       </c>
     </row>
     <row r="227" spans="1:14" x14ac:dyDescent="0.2">
@@ -9662,7 +9662,7 @@
         <v>0.66843657817109148</v>
       </c>
       <c r="N227">
-        <v>0.23964608563383336</v>
+        <v>0.33333333333333331</v>
       </c>
     </row>
     <row r="228" spans="1:14" x14ac:dyDescent="0.2">
@@ -9703,7 +9703,7 @@
         <v>0.65551839464882944</v>
       </c>
       <c r="N228">
-        <v>0.51512299355246294</v>
+        <v>0.40740740740740738</v>
       </c>
     </row>
     <row r="229" spans="1:14" x14ac:dyDescent="0.2">
@@ -9744,7 +9744,7 @@
         <v>0.6746724890829694</v>
       </c>
       <c r="N229">
-        <v>-3.5830822284796282E-2</v>
+        <v>0.25925925925925924</v>
       </c>
     </row>
     <row r="230" spans="1:14" x14ac:dyDescent="0.2">
@@ -9785,7 +9785,7 @@
         <v>0.65261958997722092</v>
       </c>
       <c r="N230">
-        <v>-3.5830822284796282E-2</v>
+        <v>0.25925925925925924</v>
       </c>
     </row>
     <row r="231" spans="1:14" x14ac:dyDescent="0.2">
@@ -9826,7 +9826,7 @@
         <v>0.53506620892594414</v>
       </c>
       <c r="N231">
-        <v>-0.17356927624411109</v>
+        <v>0.22222222222222221</v>
       </c>
     </row>
     <row r="232" spans="1:14" x14ac:dyDescent="0.2">
@@ -9867,7 +9867,7 @@
         <v>0.60820045558086555</v>
       </c>
       <c r="N232">
-        <v>0.10190763167451854</v>
+        <v>0.29629629629629628</v>
       </c>
     </row>
     <row r="233" spans="1:14" x14ac:dyDescent="0.2">
@@ -9908,7 +9908,7 @@
         <v>0.66831990080595161</v>
       </c>
       <c r="N233">
-        <v>0.37738453959314816</v>
+        <v>0.37037037037037035</v>
       </c>
     </row>
     <row r="234" spans="1:14" x14ac:dyDescent="0.2">
@@ -9949,7 +9949,7 @@
         <v>0.63732176069435831</v>
       </c>
       <c r="N234">
-        <v>1.8925075331456109</v>
+        <v>0.77777777777777779</v>
       </c>
     </row>
     <row r="235" spans="1:14" x14ac:dyDescent="0.2">
@@ -9990,7 +9990,7 @@
         <v>0.66456494325346782</v>
       </c>
       <c r="N235">
-        <v>0.7905999014710926</v>
+        <v>0.48148148148148145</v>
       </c>
     </row>
     <row r="236" spans="1:14" x14ac:dyDescent="0.2">
@@ -10031,7 +10031,7 @@
         <v>0.64516129032258063</v>
       </c>
       <c r="N236">
-        <v>0.51512299355246294</v>
+        <v>0.40740740740740738</v>
       </c>
     </row>
     <row r="237" spans="1:14" x14ac:dyDescent="0.2">
@@ -10072,7 +10072,7 @@
         <v>0.70474967907573816</v>
       </c>
       <c r="N237">
-        <v>3.3038404694861127E-2</v>
+        <v>0.27777777777777779</v>
       </c>
     </row>
     <row r="238" spans="1:14" x14ac:dyDescent="0.2">
@@ -10113,7 +10113,7 @@
         <v>0.65753424657534243</v>
       </c>
       <c r="N238">
-        <v>0.17077685865417594</v>
+        <v>0.31481481481481483</v>
       </c>
     </row>
     <row r="239" spans="1:14" x14ac:dyDescent="0.2">
@@ -10154,7 +10154,7 @@
         <v>0.69486823855755897</v>
       </c>
       <c r="N239">
-        <v>0.58399222053212041</v>
+        <v>0.42592592592592593</v>
       </c>
     </row>
     <row r="240" spans="1:14" x14ac:dyDescent="0.2">
@@ -10195,7 +10195,7 @@
         <v>0.72064276885043266</v>
       </c>
       <c r="N240">
-        <v>0.37738453959314816</v>
+        <v>0.37037037037037035</v>
       </c>
     </row>
     <row r="241" spans="1:14" x14ac:dyDescent="0.2">
@@ -10236,7 +10236,7 @@
         <v>0.67840909090909096</v>
       </c>
       <c r="N241">
-        <v>1.5481613982473239</v>
+        <v>0.68518518518518523</v>
       </c>
     </row>
     <row r="242" spans="1:14" x14ac:dyDescent="0.2">
@@ -10277,7 +10277,7 @@
         <v>0.68930957683741634</v>
       </c>
       <c r="N242">
-        <v>0.65286144751177777</v>
+        <v>0.44444444444444442</v>
       </c>
     </row>
     <row r="243" spans="1:14" x14ac:dyDescent="0.2">
@@ -10318,7 +10318,7 @@
         <v>0.72916666666666652</v>
       </c>
       <c r="N243">
-        <v>0.72173067449143524</v>
+        <v>0.46296296296296297</v>
       </c>
     </row>
     <row r="244" spans="1:14" x14ac:dyDescent="0.2">
@@ -10359,7 +10359,7 @@
         <v>0.64788732394366211</v>
       </c>
       <c r="N244">
-        <v>0.92833835543040744</v>
+        <v>0.51851851851851849</v>
       </c>
     </row>
     <row r="245" spans="1:14" x14ac:dyDescent="0.2">
@@ -10400,7 +10400,7 @@
         <v>0.712913553895411</v>
       </c>
       <c r="N245">
-        <v>0.85946912845075008</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="246" spans="1:14" x14ac:dyDescent="0.2">
@@ -10441,7 +10441,7 @@
         <v>0.73303167420814475</v>
       </c>
       <c r="N246">
-        <v>1.1349460363693797</v>
+        <v>0.57407407407407407</v>
       </c>
     </row>
     <row r="247" spans="1:14" x14ac:dyDescent="0.2">
@@ -10482,7 +10482,7 @@
         <v>0.68287037037037035</v>
       </c>
       <c r="N247">
-        <v>0.85946912845075008</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="248" spans="1:14" x14ac:dyDescent="0.2">
@@ -10523,7 +10523,7 @@
         <v>0.72010937111608253</v>
       </c>
       <c r="N248">
-        <v>0.85946912845075008</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="249" spans="1:14" x14ac:dyDescent="0.2">
@@ -10564,7 +10564,7 @@
         <v>0.66475385080036242</v>
       </c>
       <c r="N249">
-        <v>0.85946912845075008</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="250" spans="1:14" x14ac:dyDescent="0.2">
@@ -10605,7 +10605,7 @@
         <v>0.60690121786197559</v>
       </c>
       <c r="N250">
-        <v>0.92833835543040744</v>
+        <v>0.51851851851851849</v>
       </c>
     </row>
     <row r="251" spans="1:14" x14ac:dyDescent="0.2">
@@ -10646,7 +10646,7 @@
         <v>0.71470805617147082</v>
       </c>
       <c r="N251">
-        <v>0.72173067449143524</v>
+        <v>0.46296296296296297</v>
       </c>
     </row>
     <row r="252" spans="1:14" x14ac:dyDescent="0.2">
@@ -10687,7 +10687,7 @@
         <v>0.69186256781193489</v>
       </c>
       <c r="N252">
-        <v>0.30851531261349074</v>
+        <v>0.35185185185185186</v>
       </c>
     </row>
     <row r="253" spans="1:14" x14ac:dyDescent="0.2">
@@ -10728,7 +10728,7 @@
         <v>0.7331544424567682</v>
       </c>
       <c r="N253">
-        <v>0.85946912845075008</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="254" spans="1:14" x14ac:dyDescent="0.2">
@@ -10769,7 +10769,7 @@
         <v>0.744054054054054</v>
       </c>
       <c r="N254">
-        <v>0.30851531261349074</v>
+        <v>0.35185185185185186</v>
       </c>
     </row>
     <row r="255" spans="1:14" x14ac:dyDescent="0.2">
@@ -10810,7 +10810,7 @@
         <v>0.74137496852178297</v>
       </c>
       <c r="N255">
-        <v>0.72173067449143524</v>
+        <v>0.46296296296296297</v>
       </c>
     </row>
     <row r="256" spans="1:14" x14ac:dyDescent="0.2">
@@ -10851,7 +10851,7 @@
         <v>0.69924127465857355</v>
       </c>
       <c r="N256">
-        <v>0.44625376657280558</v>
+        <v>0.3888888888888889</v>
       </c>
     </row>
     <row r="257" spans="1:14" x14ac:dyDescent="0.2">
@@ -10892,7 +10892,7 @@
         <v>0.70977596741344195</v>
       </c>
       <c r="N257">
-        <v>0.44625376657280558</v>
+        <v>0.3888888888888889</v>
       </c>
     </row>
     <row r="258" spans="1:14" x14ac:dyDescent="0.2">
@@ -10933,7 +10933,7 @@
         <v>0.63240418118466901</v>
       </c>
       <c r="N258">
-        <v>0.37738453959314816</v>
+        <v>0.37037037037037035</v>
       </c>
     </row>
     <row r="259" spans="1:14" x14ac:dyDescent="0.2">
@@ -10974,7 +10974,7 @@
         <v>0.71671773918964932</v>
       </c>
       <c r="N259">
-        <v>0.7905999014710926</v>
+        <v>0.48148148148148145</v>
       </c>
     </row>
     <row r="260" spans="1:14" x14ac:dyDescent="0.2">
@@ -11015,7 +11015,7 @@
         <v>0.71741671537112794</v>
       </c>
       <c r="N260">
-        <v>1.0660768093897222</v>
+        <v>0.55555555555555558</v>
       </c>
     </row>
     <row r="261" spans="1:14" x14ac:dyDescent="0.2">
@@ -11056,7 +11056,7 @@
         <v>0.69713423831070886</v>
       </c>
       <c r="N261">
-        <v>1.2038152633490371</v>
+        <v>0.59259259259259256</v>
       </c>
     </row>
     <row r="262" spans="1:14" x14ac:dyDescent="0.2">
@@ -11097,7 +11097,7 @@
         <v>0.63746630727762799</v>
       </c>
       <c r="N262">
-        <v>2.7189382569014997</v>
+        <v>1</v>
       </c>
     </row>
     <row r="263" spans="1:14" x14ac:dyDescent="0.2">
@@ -11138,7 +11138,7 @@
         <v>0.67359602854483402</v>
       </c>
       <c r="N263">
-        <v>1.6170306252269813</v>
+        <v>0.70370370370370372</v>
       </c>
     </row>
     <row r="264" spans="1:14" x14ac:dyDescent="0.2">
@@ -11179,7 +11179,7 @@
         <v>0.6243701328447091</v>
       </c>
       <c r="N264">
-        <v>0.21898531753993616</v>
+        <v>0.32777777777777778</v>
       </c>
     </row>
     <row r="265" spans="1:14" x14ac:dyDescent="0.2">
@@ -11220,7 +11220,7 @@
         <v>0.59542953872196358</v>
       </c>
       <c r="N265">
-        <v>1.6170306252269813</v>
+        <v>0.70370370370370372</v>
       </c>
     </row>
     <row r="266" spans="1:14" x14ac:dyDescent="0.2">
@@ -11261,7 +11261,7 @@
         <v>0.58045719408337071</v>
       </c>
       <c r="N266">
-        <v>1.5481613982473239</v>
+        <v>0.68518518518518523</v>
       </c>
     </row>
     <row r="267" spans="1:14" x14ac:dyDescent="0.2">
@@ -11302,7 +11302,7 @@
         <v>0.6468354430379748</v>
       </c>
       <c r="N267">
-        <v>0.58399222053212041</v>
+        <v>0.42592592592592593</v>
       </c>
     </row>
     <row r="268" spans="1:14" x14ac:dyDescent="0.2">
@@ -11343,7 +11343,7 @@
         <v>0.56461232604373757</v>
       </c>
       <c r="N268">
-        <v>0.17077685865417594</v>
+        <v>0.31481481481481483</v>
       </c>
     </row>
     <row r="269" spans="1:14" x14ac:dyDescent="0.2">
@@ -11384,7 +11384,7 @@
         <v>0.68845419847328249</v>
       </c>
       <c r="N269">
-        <v>-3.5830822284796282E-2</v>
+        <v>0.25925925925925924</v>
       </c>
     </row>
     <row r="270" spans="1:14" x14ac:dyDescent="0.2">
@@ -11425,7 +11425,7 @@
         <v>0.72073394495412846</v>
       </c>
       <c r="N270">
-        <v>0.85946912845075008</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="271" spans="1:14" x14ac:dyDescent="0.2">
@@ -11466,7 +11466,7 @@
         <v>0.59870550161812297</v>
       </c>
       <c r="N271">
-        <v>0.65286144751177777</v>
+        <v>0.44444444444444442</v>
       </c>
     </row>
     <row r="272" spans="1:14" x14ac:dyDescent="0.2">
@@ -11507,7 +11507,7 @@
         <v>0.68030182684670359</v>
       </c>
       <c r="N272">
-        <v>0.17077685865417594</v>
+        <v>0.31481481481481483</v>
       </c>
     </row>
     <row r="273" spans="1:14" x14ac:dyDescent="0.2">
@@ -11548,7 +11548,7 @@
         <v>0.61351947097722259</v>
       </c>
       <c r="N273">
-        <v>1.3415537173083518</v>
+        <v>0.62962962962962965</v>
       </c>
     </row>
     <row r="274" spans="1:14" x14ac:dyDescent="0.2">
@@ -11589,7 +11589,7 @@
         <v>0.48047010024196335</v>
       </c>
       <c r="N274">
-        <v>2.1679844410642408</v>
+        <v>0.85185185185185186</v>
       </c>
     </row>
     <row r="275" spans="1:14" x14ac:dyDescent="0.2">
@@ -11630,7 +11630,7 @@
         <v>0.59455958549222798</v>
       </c>
       <c r="N275">
-        <v>0.65286144751177777</v>
+        <v>0.44444444444444442</v>
       </c>
     </row>
     <row r="276" spans="1:14" x14ac:dyDescent="0.2">
@@ -11671,7 +11671,7 @@
         <v>0.64456785838250608</v>
       </c>
       <c r="N276">
-        <v>-0.17356927624411109</v>
+        <v>0.22222222222222221</v>
       </c>
     </row>
     <row r="277" spans="1:14" x14ac:dyDescent="0.2">
@@ -11712,7 +11712,7 @@
         <v>0.68646584641493424</v>
       </c>
       <c r="N277">
-        <v>0.72173067449143524</v>
+        <v>0.46296296296296297</v>
       </c>
     </row>
     <row r="278" spans="1:14" x14ac:dyDescent="0.2">
@@ -11753,7 +11753,7 @@
         <v>0.74235645041014164</v>
       </c>
       <c r="N278">
-        <v>0.92833835543040744</v>
+        <v>0.51851851851851849</v>
       </c>
     </row>
     <row r="279" spans="1:14" x14ac:dyDescent="0.2">
@@ -11794,7 +11794,7 @@
         <v>0.70883996056523169</v>
       </c>
       <c r="N279">
-        <v>0.58399222053212041</v>
+        <v>0.42592592592592593</v>
       </c>
     </row>
     <row r="280" spans="1:14" x14ac:dyDescent="0.2">
@@ -11835,7 +11835,7 @@
         <v>0.72646007151370684</v>
       </c>
       <c r="N280">
-        <v>0.44625376657280558</v>
+        <v>0.3888888888888889</v>
       </c>
     </row>
     <row r="281" spans="1:14" x14ac:dyDescent="0.2">
@@ -11876,7 +11876,7 @@
         <v>0.66916167664670656</v>
       </c>
       <c r="N281">
-        <v>0.23964608563383336</v>
+        <v>0.33333333333333331</v>
       </c>
     </row>
     <row r="282" spans="1:14" x14ac:dyDescent="0.2">
@@ -11917,7 +11917,7 @@
         <v>0.66364121729845171</v>
       </c>
       <c r="N282">
-        <v>0.92833835543040744</v>
+        <v>0.51851851851851849</v>
       </c>
     </row>
     <row r="283" spans="1:14" x14ac:dyDescent="0.2">
@@ -11958,7 +11958,7 @@
         <v>0.6857670979667283</v>
       </c>
       <c r="N283">
-        <v>1.1349460363693797</v>
+        <v>0.57407407407407407</v>
       </c>
     </row>
     <row r="284" spans="1:14" x14ac:dyDescent="0.2">
@@ -11999,7 +11999,7 @@
         <v>0.54623547246083881</v>
       </c>
       <c r="N284">
-        <v>-0.1047000492644537</v>
+        <v>0.24074074074074073</v>
       </c>
     </row>
     <row r="285" spans="1:14" x14ac:dyDescent="0.2">
@@ -12040,7 +12040,7 @@
         <v>0.55478331970564188</v>
       </c>
       <c r="N285">
-        <v>0.30851531261349074</v>
+        <v>0.35185185185185186</v>
       </c>
     </row>
     <row r="286" spans="1:14" x14ac:dyDescent="0.2">
@@ -12081,7 +12081,7 @@
         <v>0.63014128728414442</v>
       </c>
       <c r="N286">
-        <v>1.2726844903286945</v>
+        <v>0.61111111111111116</v>
       </c>
     </row>
     <row r="287" spans="1:14" x14ac:dyDescent="0.2">
@@ -12122,7 +12122,7 @@
         <v>0.68444028687246639</v>
       </c>
       <c r="N287">
-        <v>0.72173067449143524</v>
+        <v>0.46296296296296297</v>
       </c>
     </row>
     <row r="288" spans="1:14" x14ac:dyDescent="0.2">
@@ -12163,7 +12163,7 @@
         <v>0.66181566181566187</v>
       </c>
       <c r="N288">
-        <v>0.72173067449143524</v>
+        <v>0.46296296296296297</v>
       </c>
     </row>
     <row r="289" spans="1:14" x14ac:dyDescent="0.2">
@@ -12204,7 +12204,7 @@
         <v>0.6483860858664996</v>
       </c>
       <c r="N289">
-        <v>2.0991152140845832</v>
+        <v>0.83333333333333337</v>
       </c>
     </row>
     <row r="290" spans="1:14" x14ac:dyDescent="0.2">
@@ -12245,7 +12245,7 @@
         <v>0.62350597609561753</v>
       </c>
       <c r="N290">
-        <v>1.5481613982473239</v>
+        <v>0.68518518518518523</v>
       </c>
     </row>
     <row r="291" spans="1:14" x14ac:dyDescent="0.2">
@@ -12286,7 +12286,7 @@
         <v>0.67329762815608263</v>
       </c>
       <c r="N291">
-        <v>0.72173067449143524</v>
+        <v>0.46296296296296297</v>
       </c>
     </row>
     <row r="292" spans="1:14" x14ac:dyDescent="0.2">
@@ -12327,7 +12327,7 @@
         <v>0.75259577515216625</v>
       </c>
       <c r="N292">
-        <v>-3.5830822284796282E-2</v>
+        <v>0.25925925925925924</v>
       </c>
     </row>
     <row r="293" spans="1:14" x14ac:dyDescent="0.2">
@@ -12368,7 +12368,7 @@
         <v>0.71409259885096321</v>
       </c>
       <c r="N293">
-        <v>0.44625376657280558</v>
+        <v>0.3888888888888889</v>
       </c>
     </row>
     <row r="294" spans="1:14" x14ac:dyDescent="0.2">
@@ -12409,7 +12409,7 @@
         <v>0.68248175182481741</v>
       </c>
       <c r="N294">
-        <v>0.51512299355246294</v>
+        <v>0.40740740740740738</v>
       </c>
     </row>
     <row r="295" spans="1:14" x14ac:dyDescent="0.2">
@@ -12450,7 +12450,7 @@
         <v>0.68397745571658619</v>
       </c>
       <c r="N295">
-        <v>-0.2424385032237685</v>
+        <v>0.20370370370370369</v>
       </c>
     </row>
     <row r="296" spans="1:14" x14ac:dyDescent="0.2">
@@ -12491,7 +12491,7 @@
         <v>0.63174233604967012</v>
       </c>
       <c r="N296">
-        <v>0.37738453959314816</v>
+        <v>0.37037037037037035</v>
       </c>
     </row>
     <row r="297" spans="1:14" x14ac:dyDescent="0.2">
@@ -12532,7 +12532,7 @@
         <v>0.65266106442577021</v>
       </c>
       <c r="N297">
-        <v>0.17077685865417594</v>
+        <v>0.31481481481481483</v>
       </c>
     </row>
     <row r="298" spans="1:14" x14ac:dyDescent="0.2">
@@ -12573,7 +12573,7 @@
         <v>0.68223519599666393</v>
       </c>
       <c r="N298">
-        <v>-0.17356927624411109</v>
+        <v>0.22222222222222221</v>
       </c>
     </row>
     <row r="299" spans="1:14" x14ac:dyDescent="0.2">
@@ -12614,7 +12614,7 @@
         <v>0.6411290322580645</v>
       </c>
       <c r="N299">
-        <v>-3.5830822284796282E-2</v>
+        <v>0.25925925925925924</v>
       </c>
     </row>
     <row r="300" spans="1:14" x14ac:dyDescent="0.2">
@@ -12655,7 +12655,7 @@
         <v>0.69382911392405067</v>
       </c>
       <c r="N300">
-        <v>-0.51791541114239814</v>
+        <v>0.12962962962962962</v>
       </c>
     </row>
     <row r="301" spans="1:14" x14ac:dyDescent="0.2">
@@ -12696,7 +12696,7 @@
         <v>0.73508689525598869</v>
       </c>
       <c r="N301">
-        <v>-0.65565386510171297</v>
+        <v>9.2592592592592587E-2</v>
       </c>
     </row>
     <row r="302" spans="1:14" x14ac:dyDescent="0.2">
@@ -12737,7 +12737,7 @@
         <v>0.62377210216110024</v>
       </c>
       <c r="N302">
-        <v>-0.51791541114239814</v>
+        <v>0.12962962962962962</v>
       </c>
     </row>
     <row r="303" spans="1:14" x14ac:dyDescent="0.2">
@@ -12778,7 +12778,7 @@
         <v>0.73890909090909096</v>
       </c>
       <c r="N303">
-        <v>-0.1047000492644537</v>
+        <v>0.24074074074074073</v>
       </c>
     </row>
     <row r="304" spans="1:14" x14ac:dyDescent="0.2">
@@ -12819,7 +12819,7 @@
         <v>0.6788501026694046</v>
       </c>
       <c r="N304">
-        <v>-0.17356927624411109</v>
+        <v>0.22222222222222221</v>
       </c>
     </row>
     <row r="305" spans="1:14" x14ac:dyDescent="0.2">
@@ -12860,7 +12860,7 @@
         <v>0.69857594936708844</v>
       </c>
       <c r="N305">
-        <v>-0.1047000492644537</v>
+        <v>0.24074074074074073</v>
       </c>
     </row>
     <row r="306" spans="1:14" x14ac:dyDescent="0.2">
@@ -12901,7 +12901,7 @@
         <v>0.70772946859903385</v>
       </c>
       <c r="N306">
-        <v>-0.44904618416274072</v>
+        <v>0.14814814814814814</v>
       </c>
     </row>
     <row r="307" spans="1:14" x14ac:dyDescent="0.2">
@@ -12942,7 +12942,7 @@
         <v>0.73971078976640714</v>
       </c>
       <c r="N307">
-        <v>-0.2424385032237685</v>
+        <v>0.20370370370370369</v>
       </c>
     </row>
     <row r="308" spans="1:14" x14ac:dyDescent="0.2">
@@ -12983,7 +12983,7 @@
         <v>0.70857418111753356</v>
       </c>
       <c r="N308">
-        <v>-0.17356927624411109</v>
+        <v>0.22222222222222221</v>
       </c>
     </row>
     <row r="309" spans="1:14" x14ac:dyDescent="0.2">
@@ -13024,7 +13024,7 @@
         <v>0.73873085339168487</v>
       </c>
       <c r="N309">
-        <v>-0.72452309208137033</v>
+        <v>7.407407407407407E-2</v>
       </c>
     </row>
     <row r="310" spans="1:14" x14ac:dyDescent="0.2">
@@ -13065,7 +13065,7 @@
         <v>0.61851608667104396</v>
       </c>
       <c r="N310">
-        <v>-0.51791541114239814</v>
+        <v>0.12962962962962962</v>
       </c>
     </row>
     <row r="311" spans="1:14" x14ac:dyDescent="0.2">
@@ -13106,7 +13106,7 @@
         <v>0.58648849294729033</v>
       </c>
       <c r="N311">
-        <v>-0.44904618416274072</v>
+        <v>0.14814814814814814</v>
       </c>
     </row>
     <row r="312" spans="1:14" x14ac:dyDescent="0.2">
@@ -13147,7 +13147,7 @@
         <v>0.57726344452008171</v>
       </c>
       <c r="N312">
-        <v>-0.44904618416274072</v>
+        <v>0.14814814814814814</v>
       </c>
     </row>
     <row r="313" spans="1:14" x14ac:dyDescent="0.2">
@@ -13188,7 +13188,7 @@
         <v>0.58163980378416258</v>
       </c>
       <c r="N313">
-        <v>-0.2424385032237685</v>
+        <v>0.20370370370370369</v>
       </c>
     </row>
     <row r="314" spans="1:14" x14ac:dyDescent="0.2">
@@ -13229,7 +13229,7 @@
         <v>0.66408893185113582</v>
       </c>
       <c r="N314">
-        <v>-0.38017695718308331</v>
+        <v>0.16666666666666666</v>
       </c>
     </row>
     <row r="315" spans="1:14" x14ac:dyDescent="0.2">
@@ -13270,7 +13270,7 @@
         <v>0.64392119173474294</v>
       </c>
       <c r="N315">
-        <v>-0.65565386510171297</v>
+        <v>9.2592592592592587E-2</v>
       </c>
     </row>
     <row r="316" spans="1:14" x14ac:dyDescent="0.2">
@@ -13311,7 +13311,7 @@
         <v>0.66726137377341654</v>
       </c>
       <c r="N316">
-        <v>0.10190763167451854</v>
+        <v>0.29629629629629628</v>
       </c>
     </row>
     <row r="317" spans="1:14" x14ac:dyDescent="0.2">
@@ -13352,7 +13352,7 @@
         <v>0.66025949062950506</v>
       </c>
       <c r="N317">
-        <v>-0.31130773020342589</v>
+        <v>0.18518518518518517</v>
       </c>
     </row>
     <row r="318" spans="1:14" x14ac:dyDescent="0.2">
@@ -13393,7 +13393,7 @@
         <v>0.55309734513274333</v>
       </c>
       <c r="N318">
-        <v>-0.31130773020342589</v>
+        <v>0.18518518518518517</v>
       </c>
     </row>
     <row r="319" spans="1:14" x14ac:dyDescent="0.2">
@@ -13434,7 +13434,7 @@
         <v>0.64878048780487807</v>
       </c>
       <c r="N319">
-        <v>-0.38017695718308331</v>
+        <v>0.16666666666666666</v>
       </c>
     </row>
     <row r="320" spans="1:14" x14ac:dyDescent="0.2">
@@ -13475,7 +13475,7 @@
         <v>0.66224188790560456</v>
       </c>
       <c r="N320">
-        <v>-0.2424385032237685</v>
+        <v>0.20370370370370369</v>
       </c>
     </row>
     <row r="321" spans="1:14" x14ac:dyDescent="0.2">
@@ -13516,7 +13516,7 @@
         <v>0.68100189035916825</v>
       </c>
       <c r="N321">
-        <v>-0.51791541114239814</v>
+        <v>0.12962962962962962</v>
       </c>
     </row>
     <row r="322" spans="1:14" x14ac:dyDescent="0.2">
@@ -13557,7 +13557,7 @@
         <v>0.65962180200222464</v>
       </c>
       <c r="N322">
-        <v>-0.65565386510171297</v>
+        <v>9.2592592592592587E-2</v>
       </c>
     </row>
     <row r="323" spans="1:14" x14ac:dyDescent="0.2">
@@ -13598,7 +13598,7 @@
         <v>0.54294032023289662</v>
       </c>
       <c r="N323">
-        <v>-0.79339231906102781</v>
+        <v>5.5555555555555552E-2</v>
       </c>
     </row>
     <row r="324" spans="1:14" x14ac:dyDescent="0.2">
@@ -13639,7 +13639,7 @@
         <v>0.4638971315529179</v>
       </c>
       <c r="N324">
-        <v>-0.38017695718308331</v>
+        <v>0.16666666666666666</v>
       </c>
     </row>
     <row r="325" spans="1:14" x14ac:dyDescent="0.2">
@@ -13680,7 +13680,7 @@
         <v>0.63338357196684247</v>
       </c>
       <c r="N325">
-        <v>-0.51791541114239814</v>
+        <v>0.12962962962962962</v>
       </c>
     </row>
     <row r="326" spans="1:14" x14ac:dyDescent="0.2">
@@ -13721,7 +13721,7 @@
         <v>0.73826597131681881</v>
       </c>
       <c r="N326">
-        <v>0.17077685865417594</v>
+        <v>0.31481481481481483</v>
       </c>
     </row>
     <row r="327" spans="1:14" x14ac:dyDescent="0.2">
@@ -13762,7 +13762,7 @@
         <v>0.65027726432532351</v>
       </c>
       <c r="N327">
-        <v>-0.1047000492644537</v>
+        <v>0.24074074074074073</v>
       </c>
     </row>
     <row r="328" spans="1:14" x14ac:dyDescent="0.2">
@@ -13803,7 +13803,7 @@
         <v>0.67925170068027219</v>
       </c>
       <c r="N328">
-        <v>-0.38017695718308331</v>
+        <v>0.16666666666666666</v>
       </c>
     </row>
     <row r="329" spans="1:14" x14ac:dyDescent="0.2">
@@ -13844,7 +13844,7 @@
         <v>0.73204329288291248</v>
       </c>
       <c r="N329">
-        <v>-0.17356927624411109</v>
+        <v>0.22222222222222221</v>
       </c>
     </row>
     <row r="330" spans="1:14" x14ac:dyDescent="0.2">
@@ -13885,7 +13885,7 @@
         <v>0.7623223465376473</v>
       </c>
       <c r="N330">
-        <v>-3.5830822284796282E-2</v>
+        <v>0.25925925925925924</v>
       </c>
     </row>
     <row r="331" spans="1:14" x14ac:dyDescent="0.2">
@@ -13926,7 +13926,7 @@
         <v>0.71950078003120121</v>
       </c>
       <c r="N331">
-        <v>-0.31130773020342589</v>
+        <v>0.18518518518518517</v>
       </c>
     </row>
     <row r="332" spans="1:14" x14ac:dyDescent="0.2">
@@ -13967,7 +13967,7 @@
         <v>0.77074976858994138</v>
       </c>
       <c r="N332">
-        <v>-0.31130773020342589</v>
+        <v>0.18518518518518517</v>
       </c>
     </row>
     <row r="333" spans="1:14" x14ac:dyDescent="0.2">
@@ -14008,7 +14008,7 @@
         <v>0.60032467532467537</v>
       </c>
       <c r="N333">
-        <v>-0.17356927624411109</v>
+        <v>0.22222222222222221</v>
       </c>
     </row>
     <row r="334" spans="1:14" x14ac:dyDescent="0.2">
@@ -14049,7 +14049,7 @@
         <v>0.74501876985272886</v>
       </c>
       <c r="N334">
-        <v>-0.17356927624411109</v>
+        <v>0.22222222222222221</v>
       </c>
     </row>
     <row r="335" spans="1:14" x14ac:dyDescent="0.2">
@@ -14090,7 +14090,7 @@
         <v>0.76677316293929709</v>
       </c>
       <c r="N335">
-        <v>-0.1047000492644537</v>
+        <v>0.24074074074074073</v>
       </c>
     </row>
     <row r="336" spans="1:14" x14ac:dyDescent="0.2">
@@ -14131,7 +14131,7 @@
         <v>0.69122257053291536</v>
       </c>
       <c r="N336">
-        <v>-0.17356927624411109</v>
+        <v>0.22222222222222221</v>
       </c>
     </row>
     <row r="337" spans="1:14" x14ac:dyDescent="0.2">
@@ -14172,7 +14172,7 @@
         <v>0.68954559898315859</v>
       </c>
       <c r="N337">
-        <v>0.10190763167451854</v>
+        <v>0.29629629629629628</v>
       </c>
     </row>
     <row r="338" spans="1:14" x14ac:dyDescent="0.2">
@@ -14213,7 +14213,7 @@
         <v>0.65726429675425035</v>
       </c>
       <c r="N338">
-        <v>-3.5830822284796282E-2</v>
+        <v>0.25925925925925924</v>
       </c>
     </row>
     <row r="339" spans="1:14" x14ac:dyDescent="0.2">
@@ -14254,7 +14254,7 @@
         <v>0.79605911330049262</v>
       </c>
       <c r="N339">
-        <v>-3.5830822284796282E-2</v>
+        <v>0.25925925925925924</v>
       </c>
     </row>
     <row r="340" spans="1:14" x14ac:dyDescent="0.2">
@@ -14295,7 +14295,7 @@
         <v>0.67859673990077962</v>
       </c>
       <c r="N340">
-        <v>-3.5830822284796282E-2</v>
+        <v>0.25925925925925924</v>
       </c>
     </row>
     <row r="341" spans="1:14" x14ac:dyDescent="0.2">
@@ -14336,7 +14336,7 @@
         <v>0.65686704695041687</v>
       </c>
       <c r="N341">
-        <v>-0.51791541114239814</v>
+        <v>0.12962962962962962</v>
       </c>
     </row>
     <row r="342" spans="1:14" x14ac:dyDescent="0.2">
@@ -14377,7 +14377,7 @@
         <v>0.63007518796992479</v>
       </c>
       <c r="N342">
-        <v>-3.5830822284796282E-2</v>
+        <v>0.25925925925925924</v>
       </c>
     </row>
     <row r="343" spans="1:14" x14ac:dyDescent="0.2">
@@ -14418,7 +14418,7 @@
         <v>0.67718794835007179</v>
       </c>
       <c r="N343">
-        <v>-0.1047000492644537</v>
+        <v>0.24074074074074073</v>
       </c>
     </row>
     <row r="344" spans="1:14" x14ac:dyDescent="0.2">
@@ -14459,7 +14459,7 @@
         <v>0.62168486739469575</v>
       </c>
       <c r="N344">
-        <v>-3.5830822284796282E-2</v>
+        <v>0.25925925925925924</v>
       </c>
     </row>
     <row r="345" spans="1:14" x14ac:dyDescent="0.2">
@@ -14500,7 +14500,7 @@
         <v>0.66422287390029322</v>
       </c>
       <c r="N345">
-        <v>0.10190763167451854</v>
+        <v>0.29629629629629628</v>
       </c>
     </row>
     <row r="346" spans="1:14" x14ac:dyDescent="0.2">
@@ -14541,7 +14541,7 @@
         <v>0.68174726989079559</v>
       </c>
       <c r="N346">
-        <v>-0.17356927624411109</v>
+        <v>0.22222222222222221</v>
       </c>
     </row>
     <row r="347" spans="1:14" x14ac:dyDescent="0.2">
@@ -14582,7 +14582,7 @@
         <v>0.6</v>
       </c>
       <c r="N347">
-        <v>-0.31130773020342589</v>
+        <v>0.18518518518518517</v>
       </c>
     </row>
     <row r="348" spans="1:14" x14ac:dyDescent="0.2">
@@ -14623,7 +14623,7 @@
         <v>0.68309859154929564</v>
       </c>
       <c r="N348">
-        <v>-0.17356927624411109</v>
+        <v>0.22222222222222221</v>
       </c>
     </row>
     <row r="349" spans="1:14" x14ac:dyDescent="0.2">
@@ -14664,7 +14664,7 @@
         <v>0.68685376661742981</v>
       </c>
       <c r="N349">
-        <v>-0.31130773020342589</v>
+        <v>0.18518518518518517</v>
       </c>
     </row>
     <row r="350" spans="1:14" x14ac:dyDescent="0.2">
@@ -14705,7 +14705,7 @@
         <v>0.65217391304347827</v>
       </c>
       <c r="N350">
-        <v>3.3038404694861127E-2</v>
+        <v>0.27777777777777779</v>
       </c>
     </row>
     <row r="351" spans="1:14" x14ac:dyDescent="0.2">
@@ -14746,7 +14746,7 @@
         <v>0.66176470588235292</v>
       </c>
       <c r="N351">
-        <v>-0.31130773020342589</v>
+        <v>0.18518518518518517</v>
       </c>
     </row>
     <row r="352" spans="1:14" x14ac:dyDescent="0.2">
@@ -14787,7 +14787,7 @@
         <v>0.70370370370370372</v>
       </c>
       <c r="N352">
-        <v>-0.44904618416274072</v>
+        <v>0.14814814814814814</v>
       </c>
     </row>
     <row r="353" spans="1:14" x14ac:dyDescent="0.2">
@@ -14828,7 +14828,7 @@
         <v>0.73692918596955659</v>
       </c>
       <c r="N353">
-        <v>-0.1047000492644537</v>
+        <v>0.24074074074074073</v>
       </c>
     </row>
     <row r="354" spans="1:14" x14ac:dyDescent="0.2">
@@ -14869,7 +14869,7 @@
         <v>0.69880683650435349</v>
       </c>
       <c r="N354">
-        <v>-0.1047000492644537</v>
+        <v>0.24074074074074073</v>
       </c>
     </row>
     <row r="355" spans="1:14" x14ac:dyDescent="0.2">
@@ -14910,7 +14910,7 @@
         <v>0.66666666666666652</v>
       </c>
       <c r="N355">
-        <v>-0.31130773020342589</v>
+        <v>0.18518518518518517</v>
       </c>
     </row>
     <row r="356" spans="1:14" x14ac:dyDescent="0.2">
@@ -14951,7 +14951,7 @@
         <v>0.70088980150581792</v>
       </c>
       <c r="N356">
-        <v>-0.31130773020342589</v>
+        <v>0.18518518518518517</v>
       </c>
     </row>
     <row r="357" spans="1:14" x14ac:dyDescent="0.2">
@@ -14992,7 +14992,7 @@
         <v>0.72295952222959525</v>
       </c>
       <c r="N357">
-        <v>-0.44904618416274072</v>
+        <v>0.14814814814814814</v>
       </c>
     </row>
     <row r="358" spans="1:14" x14ac:dyDescent="0.2">
@@ -15033,7 +15033,7 @@
         <v>0.71819645732689208</v>
       </c>
       <c r="N358">
-        <v>-0.2424385032237685</v>
+        <v>0.20370370370370369</v>
       </c>
     </row>
     <row r="359" spans="1:14" x14ac:dyDescent="0.2">
@@ -15074,7 +15074,7 @@
         <v>0.72185209860093269</v>
       </c>
       <c r="N359">
-        <v>-0.65565386510171297</v>
+        <v>9.2592592592592587E-2</v>
       </c>
     </row>
     <row r="360" spans="1:14" x14ac:dyDescent="0.2">
@@ -15115,7 +15115,7 @@
         <v>0.73376623376623373</v>
       </c>
       <c r="N360">
-        <v>-0.72452309208137033</v>
+        <v>7.407407407407407E-2</v>
       </c>
     </row>
     <row r="361" spans="1:14" x14ac:dyDescent="0.2">
@@ -15156,7 +15156,7 @@
         <v>0.7357357357357357</v>
       </c>
       <c r="N361">
-        <v>-0.72452309208137033</v>
+        <v>7.407407407407407E-2</v>
       </c>
     </row>
     <row r="362" spans="1:14" x14ac:dyDescent="0.2">
@@ -15197,7 +15197,7 @@
         <v>0.69653564290473013</v>
       </c>
       <c r="N362">
-        <v>-0.31130773020342589</v>
+        <v>0.18518518518518517</v>
       </c>
     </row>
     <row r="363" spans="1:14" x14ac:dyDescent="0.2">
@@ -15238,7 +15238,7 @@
         <v>0.72909267032612202</v>
       </c>
       <c r="N363">
-        <v>-0.44904618416274072</v>
+        <v>0.14814814814814814</v>
       </c>
     </row>
     <row r="364" spans="1:14" x14ac:dyDescent="0.2">
@@ -15279,7 +15279,7 @@
         <v>0.71374440234240444</v>
       </c>
       <c r="N364">
-        <v>-0.65565386510171297</v>
+        <v>9.2592592592592587E-2</v>
       </c>
     </row>
     <row r="365" spans="1:14" x14ac:dyDescent="0.2">
@@ -15320,7 +15320,7 @@
         <v>0.73073202192841014</v>
       </c>
       <c r="N365">
-        <v>-0.38017695718308331</v>
+        <v>0.16666666666666666</v>
       </c>
     </row>
   </sheetData>
